--- a/需求响应/data/Taxi.xlsx
+++ b/需求响应/data/Taxi.xlsx
@@ -490,22 +490,22 @@
         <v>107</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
         <v>0.8</v>
@@ -519,28 +519,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I3" t="n">
         <v>0.3</v>
@@ -551,28 +551,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
         <v>0.3</v>
@@ -583,25 +583,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -615,28 +615,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I6" t="n">
         <v>0.3</v>
@@ -647,28 +647,28 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I7" t="n">
         <v>0.3</v>
@@ -685,22 +685,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I8" t="n">
         <v>0.3</v>
@@ -711,25 +711,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
         <v>0.8</v>
@@ -743,25 +743,25 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
         <v>0.8</v>
@@ -775,28 +775,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>8</v>
-      </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I11" t="n">
         <v>0.3</v>
@@ -807,28 +807,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
         <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I12" t="n">
         <v>0.3</v>
@@ -839,28 +839,28 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I13" t="n">
         <v>0.3</v>
@@ -871,28 +871,28 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G14" t="n">
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I14" t="n">
         <v>0.3</v>
@@ -903,28 +903,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
         <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I15" t="n">
         <v>0.3</v>
@@ -935,13 +935,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>17</v>
@@ -950,13 +950,13 @@
         <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="n">
         <v>0.3</v>
@@ -967,25 +967,25 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -999,28 +999,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I18" t="n">
         <v>0.3</v>
@@ -1031,25 +1031,25 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -1063,25 +1063,25 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
         <v>0.8</v>
@@ -1095,28 +1095,28 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I21" t="n">
         <v>0.3</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B22" t="n">
         <v>7</v>
@@ -1139,16 +1139,16 @@
         <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
         <v>1.1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I22" t="n">
         <v>0.3</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" t="n">
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>19</v>
@@ -1174,10 +1174,10 @@
         <v>28</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0.9</v>
@@ -1191,28 +1191,28 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
         <v>1.1</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I24" t="n">
         <v>0.3</v>
@@ -1223,25 +1223,25 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
         <v>1.1</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -1255,28 +1255,28 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I26" t="n">
         <v>0.3</v>
@@ -1287,25 +1287,25 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>19</v>
       </c>
       <c r="E27" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
         <v>0.8</v>
@@ -1319,28 +1319,28 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F28" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I28" t="n">
         <v>0.3</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -1360,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I29" t="n">
         <v>0.3</v>
@@ -1386,10 +1386,10 @@
         <v>104</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
         <v>18</v>
@@ -1398,13 +1398,13 @@
         <v>30</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I30" t="n">
         <v>0.3</v>
@@ -1415,28 +1415,28 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B31" t="n">
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
         <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F31" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I31" t="n">
         <v>0.3</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B32" t="n">
         <v>8</v>
@@ -1456,16 +1456,16 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F32" t="n">
         <v>1.2</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C33" t="n">
         <v>7</v>
@@ -1491,16 +1491,16 @@
         <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" t="n">
         <v>1.1</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I33" t="n">
         <v>0.3</v>
@@ -1511,25 +1511,25 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F34" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H34" t="n">
         <v>0.8</v>
@@ -1543,25 +1543,25 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" t="n">
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0.8</v>
@@ -1575,28 +1575,28 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F36" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I36" t="n">
         <v>0.3</v>
@@ -1607,28 +1607,28 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D37" t="n">
         <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F37" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I37" t="n">
         <v>0.3</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
         <v>8</v>
@@ -1651,13 +1651,13 @@
         <v>19</v>
       </c>
       <c r="E38" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F38" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
         <v>0.8</v>
@@ -1671,28 +1671,28 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B39" t="n">
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F39" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I39" t="n">
         <v>0.3</v>
@@ -1703,25 +1703,25 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B40" t="n">
         <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -1735,19 +1735,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
         <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F41" t="n">
         <v>1.2</v>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="n">
         <v>0.3</v>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="n">
         <v>6</v>
@@ -1779,16 +1779,16 @@
         <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I42" t="n">
         <v>0.3</v>
@@ -1799,25 +1799,25 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F43" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -1831,25 +1831,25 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B44" t="n">
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F44" t="n">
         <v>1.1</v>
       </c>
       <c r="G44" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0.9</v>
@@ -1863,25 +1863,25 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F45" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G45" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H45" t="n">
         <v>0.8</v>
@@ -1895,25 +1895,25 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H46" t="n">
         <v>0.9</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E47" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F47" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G47" t="n">
         <v>11</v>
@@ -1959,25 +1959,25 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>17</v>
       </c>
       <c r="E48" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0.9</v>
@@ -1991,28 +1991,28 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B49" t="n">
         <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I49" t="n">
         <v>0.3</v>
@@ -2023,28 +2023,28 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
         <v>1.2</v>
       </c>
       <c r="G50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I50" t="n">
         <v>0.3</v>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>6</v>
@@ -2067,16 +2067,16 @@
         <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I51" t="n">
         <v>0.3</v>
@@ -2087,25 +2087,25 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
         <v>0.8</v>
@@ -2119,28 +2119,28 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F53" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I53" t="n">
         <v>0.3</v>
@@ -2151,28 +2151,28 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I54" t="n">
         <v>0.3</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" t="n">
         <v>5</v>
@@ -2192,16 +2192,16 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G55" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0.8</v>
@@ -2215,25 +2215,25 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C56" t="n">
         <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
         <v>0.8</v>
@@ -2247,28 +2247,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" t="n">
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I57" t="n">
         <v>0.3</v>
@@ -2279,28 +2279,28 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F58" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I58" t="n">
         <v>0.3</v>
@@ -2311,25 +2311,25 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B59" t="n">
         <v>6</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F59" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0.9</v>
@@ -2343,25 +2343,25 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
         <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E60" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G60" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H60" t="n">
         <v>0.9</v>
@@ -2375,28 +2375,28 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B61" t="n">
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F61" t="n">
         <v>1.1</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I61" t="n">
         <v>0.3</v>
@@ -2407,28 +2407,28 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E62" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F62" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I62" t="n">
         <v>0.3</v>
@@ -2439,25 +2439,25 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0.8</v>
@@ -2471,25 +2471,25 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
         <v>18</v>
       </c>
       <c r="E64" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F64" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0.8</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
         <v>7</v>
@@ -2515,13 +2515,13 @@
         <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H65" t="n">
         <v>0.8</v>
@@ -2535,28 +2535,28 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C66" t="n">
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F66" t="n">
         <v>1.1</v>
       </c>
       <c r="G66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I66" t="n">
         <v>0.3</v>
@@ -2567,25 +2567,25 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="n">
         <v>0.9</v>
@@ -2599,28 +2599,28 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="n">
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F68" t="n">
         <v>1.2</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I68" t="n">
         <v>0.3</v>
@@ -2631,25 +2631,25 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F69" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H69" t="n">
         <v>0.9</v>
@@ -2663,25 +2663,25 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F70" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0.9</v>
@@ -2695,28 +2695,28 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
         <v>19</v>
       </c>
       <c r="E71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I71" t="n">
         <v>0.3</v>
@@ -2727,25 +2727,25 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E72" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F72" t="n">
         <v>1.1</v>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H72" t="n">
         <v>0.9</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
         <v>7</v>
@@ -2771,16 +2771,16 @@
         <v>18</v>
       </c>
       <c r="E73" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F73" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G73" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I73" t="n">
         <v>0.3</v>
@@ -2791,28 +2791,28 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I74" t="n">
         <v>0.3</v>
@@ -2823,28 +2823,28 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B75" t="n">
         <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I75" t="n">
         <v>0.3</v>
@@ -2855,28 +2855,28 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B76" t="n">
         <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>8</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I76" t="n">
         <v>0.3</v>
@@ -2887,28 +2887,28 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B77" t="n">
         <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E77" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F77" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I77" t="n">
         <v>0.3</v>
@@ -2919,25 +2919,25 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H78" t="n">
         <v>0.8</v>
@@ -2951,28 +2951,28 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
         <v>19</v>
       </c>
       <c r="E79" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I79" t="n">
         <v>0.3</v>
@@ -2983,25 +2983,25 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
         <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E80" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0.8</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
         <v>8</v>
@@ -3027,16 +3027,16 @@
         <v>17</v>
       </c>
       <c r="E81" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I81" t="n">
         <v>0.3</v>
@@ -3047,25 +3047,25 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F82" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H82" t="n">
         <v>0.8</v>
@@ -3079,28 +3079,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
         <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E83" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I83" t="n">
         <v>0.3</v>
@@ -3111,28 +3111,28 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E84" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I84" t="n">
         <v>0.3</v>
@@ -3143,28 +3143,28 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B85" t="n">
         <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F85" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I85" t="n">
         <v>0.3</v>
@@ -3175,28 +3175,28 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>19</v>
       </c>
       <c r="E86" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I86" t="n">
         <v>0.3</v>
@@ -3207,28 +3207,28 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
         <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F87" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I87" t="n">
         <v>0.3</v>
@@ -3239,28 +3239,28 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
         <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F88" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I88" t="n">
         <v>0.3</v>
@@ -3271,25 +3271,25 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
         <v>35</v>
       </c>
       <c r="F89" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
         <v>0.9</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B90" t="n">
         <v>7</v>
@@ -3312,16 +3312,16 @@
         <v>7</v>
       </c>
       <c r="D90" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F90" t="n">
         <v>1.2</v>
       </c>
       <c r="G90" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H90" t="n">
         <v>0.8</v>
@@ -3335,25 +3335,25 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F91" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0.8</v>
@@ -3370,22 +3370,22 @@
         <v>111</v>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
         <v>19</v>
       </c>
       <c r="E92" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F92" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G92" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H92" t="n">
         <v>0.8</v>
@@ -3405,19 +3405,19 @@
         <v>6</v>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
         <v>18</v>
       </c>
       <c r="E93" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F93" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0.8</v>
@@ -3431,28 +3431,28 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B94" t="n">
         <v>6</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F94" t="n">
         <v>1.2</v>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I94" t="n">
         <v>0.3</v>
@@ -3463,25 +3463,25 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
         <v>6</v>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F95" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H95" t="n">
         <v>0.8</v>
@@ -3495,25 +3495,25 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B96" t="n">
         <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F96" t="n">
         <v>1.1</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
         <v>0.8</v>
@@ -3527,28 +3527,28 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" t="n">
         <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D97" t="n">
         <v>18</v>
       </c>
       <c r="E97" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F97" t="n">
         <v>1.2</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I97" t="n">
         <v>0.3</v>
@@ -3559,25 +3559,25 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B98" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="n">
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E98" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F98" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H98" t="n">
         <v>0.9</v>
@@ -3591,25 +3591,25 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>17</v>
+      </c>
+      <c r="E99" t="n">
+        <v>29</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
         <v>9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>20</v>
-      </c>
-      <c r="E99" t="n">
-        <v>34</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0.9</v>
@@ -3623,25 +3623,25 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B100" t="n">
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
         <v>17</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F100" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G100" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0.9</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101" t="n">
         <v>6</v>
@@ -3664,19 +3664,19 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E101" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G101" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I101" t="n">
         <v>0.3</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B102" t="n">
         <v>7</v>
@@ -3696,16 +3696,16 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E102" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F102" t="n">
         <v>1.2</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0.8</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B103" t="n">
         <v>6</v>
@@ -3731,7 +3731,7 @@
         <v>18</v>
       </c>
       <c r="E103" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F103" t="n">
         <v>1.1</v>
@@ -3740,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I103" t="n">
         <v>0.3</v>
@@ -3751,28 +3751,28 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
         <v>19</v>
       </c>
       <c r="E104" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F104" t="n">
         <v>1.2</v>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I104" t="n">
         <v>0.3</v>
@@ -3783,22 +3783,22 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E105" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G105" t="n">
         <v>12</v>
@@ -3815,25 +3815,25 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E106" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F106" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H106" t="n">
         <v>0.8</v>
@@ -3847,25 +3847,25 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B107" t="n">
         <v>6</v>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
         <v>17</v>
       </c>
       <c r="E107" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F107" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G107" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0.9</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B108" t="n">
         <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E108" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F108" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
         <v>0.9</v>
@@ -3911,25 +3911,25 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
         <v>19</v>
       </c>
       <c r="E109" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F109" t="n">
         <v>1.2</v>
       </c>
       <c r="G109" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H109" t="n">
         <v>0.9</v>
@@ -3943,25 +3943,25 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
         <v>19</v>
       </c>
       <c r="E110" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H110" t="n">
         <v>0.8</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="n">
         <v>6</v>
@@ -3987,13 +3987,13 @@
         <v>18</v>
       </c>
       <c r="E111" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H111" t="n">
         <v>0.9</v>
@@ -4007,25 +4007,25 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
         <v>18</v>
       </c>
       <c r="E112" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F112" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H112" t="n">
         <v>0.9</v>
@@ -4039,28 +4039,28 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E113" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F113" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H113" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I113" t="n">
         <v>0.3</v>
@@ -4071,25 +4071,25 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F114" t="n">
         <v>1.2</v>
       </c>
       <c r="G114" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0.9</v>
@@ -4103,28 +4103,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E115" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H115" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I115" t="n">
         <v>0.3</v>
@@ -4135,28 +4135,28 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B116" t="n">
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
         <v>18</v>
       </c>
       <c r="E116" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F116" t="n">
         <v>1.1</v>
       </c>
       <c r="G116" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I116" t="n">
         <v>0.3</v>
@@ -4167,28 +4167,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117" t="n">
         <v>30</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G117" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I117" t="n">
         <v>0.3</v>
@@ -4199,22 +4199,22 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B118" t="n">
         <v>6</v>
       </c>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E118" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F118" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>15</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B119" t="n">
         <v>6</v>
@@ -4240,19 +4240,19 @@
         <v>7</v>
       </c>
       <c r="D119" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E119" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F119" t="n">
         <v>1.1</v>
       </c>
       <c r="G119" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I119" t="n">
         <v>0.3</v>
@@ -4263,28 +4263,28 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C120" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
         <v>17</v>
       </c>
       <c r="E120" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F120" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G120" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I120" t="n">
         <v>0.3</v>
@@ -4295,28 +4295,28 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E121" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H121" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I121" t="n">
         <v>0.3</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B122" t="n">
         <v>6</v>
@@ -4336,16 +4336,16 @@
         <v>7</v>
       </c>
       <c r="D122" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E122" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F122" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H122" t="n">
         <v>0.8</v>
@@ -4359,25 +4359,25 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="n">
         <v>7</v>
       </c>
       <c r="D123" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E123" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F123" t="n">
         <v>1.1</v>
       </c>
       <c r="G123" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H123" t="n">
         <v>0.8</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B124" t="n">
         <v>6</v>
@@ -4400,19 +4400,19 @@
         <v>7</v>
       </c>
       <c r="D124" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E124" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F124" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H124" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I124" t="n">
         <v>0.3</v>
@@ -4423,28 +4423,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B125" t="n">
         <v>6</v>
       </c>
       <c r="C125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D125" t="n">
         <v>18</v>
       </c>
       <c r="E125" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H125" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I125" t="n">
         <v>0.3</v>
@@ -4455,25 +4455,25 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B126" t="n">
         <v>6</v>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E126" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F126" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H126" t="n">
         <v>0.9</v>
@@ -4499,13 +4499,13 @@
         <v>18</v>
       </c>
       <c r="E127" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F127" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0.9</v>
@@ -4519,25 +4519,25 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B128" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E128" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G128" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H128" t="n">
         <v>0.8</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B129" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="n">
         <v>6</v>
@@ -4563,13 +4563,13 @@
         <v>18</v>
       </c>
       <c r="E129" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F129" t="n">
         <v>1.2</v>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H129" t="n">
         <v>0.9</v>
@@ -4583,28 +4583,28 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B130" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F130" t="n">
         <v>1.1</v>
       </c>
       <c r="G130" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I130" t="n">
         <v>0.3</v>
@@ -4615,25 +4615,25 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B131" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="n">
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E131" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G131" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H131" t="n">
         <v>0.8</v>
@@ -4647,22 +4647,22 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B132" t="n">
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E132" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F132" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G132" t="n">
         <v>14</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B133" t="n">
         <v>8</v>
@@ -4688,16 +4688,16 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E133" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F133" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H133" t="n">
         <v>0.9</v>
@@ -4711,28 +4711,28 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B134" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E134" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I134" t="n">
         <v>0.3</v>
@@ -4743,28 +4743,28 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B135" t="n">
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E135" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F135" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H135" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I135" t="n">
         <v>0.3</v>
@@ -4775,25 +4775,25 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B136" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
         <v>7</v>
       </c>
       <c r="D136" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E136" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F136" t="n">
         <v>1.1</v>
       </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H136" t="n">
         <v>0.8</v>
@@ -4807,28 +4807,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E137" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F137" t="n">
         <v>1.2</v>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H137" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I137" t="n">
         <v>0.3</v>
@@ -4839,28 +4839,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="n">
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F138" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G138" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H138" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I138" t="n">
         <v>0.3</v>
@@ -4883,13 +4883,13 @@
         <v>19</v>
       </c>
       <c r="E139" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F139" t="n">
         <v>1.1</v>
       </c>
       <c r="G139" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H139" t="n">
         <v>0.8</v>
@@ -4903,28 +4903,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B140" t="n">
         <v>6</v>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" t="n">
         <v>19</v>
       </c>
       <c r="E140" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F140" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G140" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I140" t="n">
         <v>0.3</v>
@@ -4935,28 +4935,28 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B141" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E141" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F141" t="n">
         <v>1.1</v>
       </c>
       <c r="G141" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H141" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I141" t="n">
         <v>0.3</v>
@@ -4967,16 +4967,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E142" t="n">
         <v>38</v>
@@ -4985,10 +4985,10 @@
         <v>1.1</v>
       </c>
       <c r="G142" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H142" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I142" t="n">
         <v>0.3</v>
@@ -4999,28 +4999,28 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B143" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E143" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F143" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I143" t="n">
         <v>0.3</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B144" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E144" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F144" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G144" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H144" t="n">
         <v>0.9</v>
@@ -5063,25 +5063,25 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B145" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E145" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F145" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H145" t="n">
         <v>0.9</v>
@@ -5098,25 +5098,25 @@
         <v>100</v>
       </c>
       <c r="B146" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="n">
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E146" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F146" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I146" t="n">
         <v>0.3</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B147" t="n">
         <v>6</v>
@@ -5139,16 +5139,16 @@
         <v>19</v>
       </c>
       <c r="E147" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G147" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I147" t="n">
         <v>0.3</v>
@@ -5159,25 +5159,25 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E148" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H148" t="n">
         <v>0.8</v>
@@ -5191,25 +5191,25 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B149" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="n">
         <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E149" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0.8</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B150" t="n">
         <v>6</v>
@@ -5232,19 +5232,19 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E150" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F150" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I150" t="n">
         <v>0.3</v>
@@ -5255,28 +5255,28 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B151" t="n">
         <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E151" t="n">
         <v>25</v>
       </c>
       <c r="F151" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G151" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I151" t="n">
         <v>0.3</v>
@@ -5287,25 +5287,25 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B152" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E152" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F152" t="n">
         <v>1.1</v>
       </c>
       <c r="G152" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H152" t="n">
         <v>0.8</v>
@@ -5319,25 +5319,25 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B153" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D153" t="n">
         <v>17</v>
       </c>
       <c r="E153" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H153" t="n">
         <v>0.9</v>
@@ -5351,25 +5351,25 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
         <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F154" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G154" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H154" t="n">
         <v>0.8</v>
@@ -5383,25 +5383,25 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B155" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E155" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F155" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H155" t="n">
         <v>0.9</v>
@@ -5415,28 +5415,28 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B156" t="n">
         <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
         <v>18</v>
       </c>
       <c r="E156" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F156" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I156" t="n">
         <v>0.3</v>
@@ -5447,25 +5447,25 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B157" t="n">
         <v>6</v>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E157" t="n">
         <v>24</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H157" t="n">
         <v>0.8</v>
@@ -5482,25 +5482,25 @@
         <v>107</v>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E158" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G158" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I158" t="n">
         <v>0.3</v>
@@ -5511,28 +5511,28 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B159" t="n">
         <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E159" t="n">
         <v>33</v>
       </c>
       <c r="F159" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G159" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I159" t="n">
         <v>0.3</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B160" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
         <v>17</v>
       </c>
       <c r="E160" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G160" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H160" t="n">
         <v>0.9</v>
@@ -5575,19 +5575,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B161" t="n">
         <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E161" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F161" t="n">
         <v>1.1</v>
@@ -5596,7 +5596,7 @@
         <v>11</v>
       </c>
       <c r="H161" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I161" t="n">
         <v>0.3</v>
@@ -5607,28 +5607,28 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="n">
         <v>7</v>
       </c>
       <c r="D162" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E162" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F162" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G162" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I162" t="n">
         <v>0.3</v>
@@ -5639,25 +5639,25 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D163" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F163" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G163" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H163" t="n">
         <v>0.9</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B164" t="n">
         <v>6</v>
@@ -5680,19 +5680,19 @@
         <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E164" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F164" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G164" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H164" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I164" t="n">
         <v>0.3</v>
@@ -5703,28 +5703,28 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B165" t="n">
         <v>5</v>
       </c>
       <c r="C165" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E165" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F165" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H165" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I165" t="n">
         <v>0.3</v>
@@ -5735,25 +5735,25 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E166" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F166" t="n">
         <v>1.2</v>
       </c>
       <c r="G166" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H166" t="n">
         <v>0.9</v>
@@ -5770,22 +5770,22 @@
         <v>105</v>
       </c>
       <c r="B167" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="n">
+        <v>7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>17</v>
+      </c>
+      <c r="E167" t="n">
+        <v>20</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
         <v>9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>18</v>
-      </c>
-      <c r="E167" t="n">
-        <v>33</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G167" t="n">
-        <v>5</v>
       </c>
       <c r="H167" t="n">
         <v>0.8</v>
@@ -5799,28 +5799,28 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B168" t="n">
         <v>6</v>
       </c>
       <c r="C168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E168" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F168" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
         <v>8</v>
       </c>
       <c r="H168" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I168" t="n">
         <v>0.3</v>
@@ -5831,25 +5831,25 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E169" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H169" t="n">
         <v>0.8</v>
@@ -5863,28 +5863,28 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C170" t="n">
         <v>7</v>
       </c>
       <c r="D170" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E170" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F170" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H170" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I170" t="n">
         <v>0.3</v>
@@ -5895,25 +5895,25 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B171" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D171" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E171" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F171" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G171" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H171" t="n">
         <v>0.9</v>
@@ -5933,22 +5933,22 @@
         <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D172" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E172" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F172" t="n">
         <v>1.1</v>
       </c>
       <c r="G172" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H172" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I172" t="n">
         <v>0.3</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B173" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D173" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E173" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H173" t="n">
         <v>0.9</v>
@@ -5991,25 +5991,25 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
         <v>17</v>
       </c>
       <c r="E174" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F174" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G174" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H174" t="n">
         <v>0.8</v>
@@ -6023,28 +6023,28 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="n">
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E175" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I175" t="n">
         <v>0.3</v>
@@ -6061,19 +6061,19 @@
         <v>6</v>
       </c>
       <c r="C176" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E176" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F176" t="n">
         <v>1.2</v>
       </c>
       <c r="G176" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H176" t="n">
         <v>0.8</v>
@@ -6087,25 +6087,25 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B177" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C177" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E177" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F177" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H177" t="n">
         <v>0.9</v>
@@ -6119,28 +6119,28 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D178" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E178" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H178" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I178" t="n">
         <v>0.3</v>
@@ -6151,28 +6151,28 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B179" t="n">
         <v>6</v>
       </c>
       <c r="C179" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F179" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I179" t="n">
         <v>0.3</v>
@@ -6183,28 +6183,28 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B180" t="n">
         <v>6</v>
       </c>
       <c r="C180" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E180" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F180" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G180" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I180" t="n">
         <v>0.3</v>
@@ -6215,28 +6215,28 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E181" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G181" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H181" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I181" t="n">
         <v>0.3</v>
@@ -6247,25 +6247,25 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B182" t="n">
         <v>6</v>
       </c>
       <c r="C182" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D182" t="n">
         <v>18</v>
       </c>
       <c r="E182" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F182" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H182" t="n">
         <v>0.8</v>
@@ -6279,28 +6279,28 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B183" t="n">
         <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D183" t="n">
         <v>17</v>
       </c>
       <c r="E183" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F183" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H183" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I183" t="n">
         <v>0.3</v>
@@ -6314,7 +6314,7 @@
         <v>104</v>
       </c>
       <c r="B184" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="n">
         <v>7</v>
@@ -6323,16 +6323,16 @@
         <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F184" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H184" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I184" t="n">
         <v>0.3</v>
@@ -6343,25 +6343,25 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="n">
         <v>7</v>
       </c>
       <c r="D185" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E185" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F185" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H185" t="n">
         <v>0.8</v>
@@ -6375,28 +6375,28 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B186" t="n">
         <v>6</v>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E186" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F186" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
       </c>
       <c r="H186" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I186" t="n">
         <v>0.3</v>
@@ -6407,25 +6407,25 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B187" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D187" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E187" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
       </c>
       <c r="G187" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0.8</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B188" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C188" t="n">
         <v>8</v>
@@ -6451,13 +6451,13 @@
         <v>17</v>
       </c>
       <c r="E188" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G188" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
         <v>0.8</v>
@@ -6471,28 +6471,28 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B189" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F189" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G189" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H189" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I189" t="n">
         <v>0.3</v>
@@ -6503,28 +6503,28 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B190" t="n">
         <v>6</v>
       </c>
       <c r="C190" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D190" t="n">
         <v>19</v>
       </c>
       <c r="E190" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F190" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G190" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H190" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I190" t="n">
         <v>0.3</v>
@@ -6535,25 +6535,25 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B191" t="n">
         <v>6</v>
       </c>
       <c r="C191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="n">
         <v>18</v>
       </c>
       <c r="E191" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G191" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H191" t="n">
         <v>0.8</v>
@@ -6567,28 +6567,28 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B192" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E192" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H192" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I192" t="n">
         <v>0.3</v>
@@ -6599,25 +6599,25 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B193" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
         <v>9</v>
       </c>
       <c r="D193" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E193" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F193" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H193" t="n">
         <v>0.9</v>
@@ -6631,28 +6631,28 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B194" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C194" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E194" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I194" t="n">
         <v>0.3</v>
@@ -6663,25 +6663,25 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B195" t="n">
         <v>6</v>
       </c>
       <c r="C195" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D195" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E195" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F195" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H195" t="n">
         <v>0.9</v>
@@ -6695,28 +6695,28 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B196" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D196" t="n">
         <v>19</v>
       </c>
       <c r="E196" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F196" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G196" t="n">
         <v>13</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I196" t="n">
         <v>0.3</v>
@@ -6727,25 +6727,25 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B197" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E197" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H197" t="n">
         <v>0.9</v>
@@ -6759,16 +6759,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B198" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E198" t="n">
         <v>29</v>
@@ -6777,7 +6777,7 @@
         <v>1.1</v>
       </c>
       <c r="G198" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H198" t="n">
         <v>0.9</v>
@@ -6791,28 +6791,28 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B199" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="n">
         <v>7</v>
       </c>
       <c r="D199" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E199" t="n">
         <v>27</v>
       </c>
       <c r="F199" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G199" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H199" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I199" t="n">
         <v>0.3</v>
@@ -6823,28 +6823,28 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B200" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D200" t="n">
         <v>18</v>
       </c>
       <c r="E200" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I200" t="n">
         <v>0.3</v>
@@ -6855,28 +6855,28 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D201" t="n">
         <v>18</v>
       </c>
       <c r="E201" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I201" t="n">
         <v>0.3</v>

--- a/需求响应/data/Taxi.xlsx
+++ b/需求响应/data/Taxi.xlsx
@@ -487,31 +487,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0.8</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J2" t="n">
         <v>0.15</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
@@ -531,7 +531,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>1.1</v>
@@ -540,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J3" t="n">
         <v>0.15</v>
@@ -551,31 +551,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J4" t="n">
         <v>0.15</v>
@@ -583,31 +583,31 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J5" t="n">
         <v>0.15</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J6" t="n">
         <v>0.15</v>
@@ -647,31 +647,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J7" t="n">
         <v>0.15</v>
@@ -679,31 +679,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J8" t="n">
         <v>0.15</v>
@@ -711,31 +711,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J9" t="n">
         <v>0.15</v>
@@ -743,31 +743,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>0.8</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J10" t="n">
         <v>0.15</v>
@@ -775,31 +775,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J11" t="n">
         <v>0.15</v>
@@ -807,31 +807,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J12" t="n">
         <v>0.15</v>
@@ -839,31 +839,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>1.1</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J13" t="n">
         <v>0.15</v>
@@ -871,31 +871,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J14" t="n">
         <v>0.15</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>0.8</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J15" t="n">
         <v>0.15</v>
@@ -935,31 +935,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J16" t="n">
         <v>0.15</v>
@@ -967,31 +967,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J17" t="n">
         <v>0.15</v>
@@ -999,31 +999,31 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H18" t="n">
         <v>0.8</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J18" t="n">
         <v>0.15</v>
@@ -1031,31 +1031,31 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J19" t="n">
         <v>0.15</v>
@@ -1063,31 +1063,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>0.8</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J20" t="n">
         <v>0.15</v>
@@ -1095,31 +1095,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J21" t="n">
         <v>0.15</v>
@@ -1127,31 +1127,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J22" t="n">
         <v>0.15</v>
@@ -1159,31 +1159,31 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>1.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>0.9</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J23" t="n">
         <v>0.15</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>18</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J24" t="n">
         <v>0.15</v>
@@ -1223,31 +1223,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J25" t="n">
         <v>0.15</v>
@@ -1255,31 +1255,31 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J26" t="n">
         <v>0.15</v>
@@ -1287,31 +1287,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J27" t="n">
         <v>0.15</v>
@@ -1319,31 +1319,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J28" t="n">
         <v>0.15</v>
@@ -1351,31 +1351,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
         <v>18</v>
       </c>
       <c r="E29" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J29" t="n">
         <v>0.15</v>
@@ -1383,31 +1383,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J30" t="n">
         <v>0.15</v>
@@ -1415,31 +1415,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>1.1</v>
       </c>
       <c r="G31" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J31" t="n">
         <v>0.15</v>
@@ -1447,31 +1447,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G32" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J32" t="n">
         <v>0.15</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G33" t="n">
         <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J33" t="n">
         <v>0.15</v>
@@ -1511,31 +1511,31 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
         <v>8</v>
       </c>
-      <c r="C34" t="n">
-        <v>7</v>
-      </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>1.1</v>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>0.8</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J34" t="n">
         <v>0.15</v>
@@ -1543,31 +1543,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J35" t="n">
         <v>0.15</v>
@@ -1575,31 +1575,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
         <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G36" t="n">
         <v>9</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J36" t="n">
         <v>0.15</v>
@@ -1607,31 +1607,31 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>1.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J37" t="n">
         <v>0.15</v>
@@ -1639,19 +1639,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
         <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>1.1</v>
@@ -1663,7 +1663,7 @@
         <v>0.8</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J38" t="n">
         <v>0.15</v>
@@ -1671,31 +1671,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
         <v>18</v>
       </c>
       <c r="E39" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J39" t="n">
         <v>0.15</v>
@@ -1703,31 +1703,31 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
         <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J40" t="n">
         <v>0.15</v>
@@ -1735,31 +1735,31 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
         <v>0.8</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J41" t="n">
         <v>0.15</v>
@@ -1767,31 +1767,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H42" t="n">
         <v>0.8</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J42" t="n">
         <v>0.15</v>
@@ -1799,31 +1799,31 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G43" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J43" t="n">
         <v>0.15</v>
@@ -1831,31 +1831,31 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" t="n">
         <v>18</v>
       </c>
       <c r="E44" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
         <v>0.9</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J44" t="n">
         <v>0.15</v>
@@ -1863,31 +1863,31 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
         <v>1.1</v>
       </c>
       <c r="G45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J45" t="n">
         <v>0.15</v>
@@ -1895,31 +1895,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
         <v>0.9</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J46" t="n">
         <v>0.15</v>
@@ -1927,31 +1927,31 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E47" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
         <v>1.2</v>
       </c>
       <c r="G47" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J47" t="n">
         <v>0.15</v>
@@ -1959,31 +1959,31 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>1.1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
         <v>0.9</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J48" t="n">
         <v>0.15</v>
@@ -1991,31 +1991,31 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J49" t="n">
         <v>0.15</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>7</v>
@@ -2035,19 +2035,19 @@
         <v>17</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J50" t="n">
         <v>0.15</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
         <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
         <v>1.1</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
         <v>0.9</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J51" t="n">
         <v>0.15</v>
@@ -2087,31 +2087,31 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J52" t="n">
         <v>0.15</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>7</v>
@@ -2131,19 +2131,19 @@
         <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J53" t="n">
         <v>0.15</v>
@@ -2151,31 +2151,31 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E54" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
         <v>0.9</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J54" t="n">
         <v>0.15</v>
@@ -2186,28 +2186,28 @@
         <v>109</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
         <v>0.8</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J55" t="n">
         <v>0.15</v>
@@ -2215,31 +2215,31 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J56" t="n">
         <v>0.15</v>
@@ -2247,31 +2247,31 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B57" t="n">
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G57" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J57" t="n">
         <v>0.15</v>
@@ -2279,31 +2279,31 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E58" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>1.1</v>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0.8</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J58" t="n">
         <v>0.15</v>
@@ -2311,31 +2311,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
         <v>18</v>
       </c>
       <c r="E59" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J59" t="n">
         <v>0.15</v>
@@ -2343,31 +2343,31 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E60" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F60" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J60" t="n">
         <v>0.15</v>
@@ -2375,31 +2375,31 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
         <v>0.9</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J61" t="n">
         <v>0.15</v>
@@ -2407,31 +2407,31 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>1.1</v>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J62" t="n">
         <v>0.15</v>
@@ -2442,28 +2442,28 @@
         <v>106</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0.8</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J63" t="n">
         <v>0.15</v>
@@ -2471,31 +2471,31 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H64" t="n">
         <v>0.8</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J64" t="n">
         <v>0.15</v>
@@ -2503,31 +2503,31 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G65" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J65" t="n">
         <v>0.15</v>
@@ -2535,31 +2535,31 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E66" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>1.1</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H66" t="n">
         <v>0.9</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J66" t="n">
         <v>0.15</v>
@@ -2567,31 +2567,31 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E67" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H67" t="n">
         <v>0.9</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J67" t="n">
         <v>0.15</v>
@@ -2599,31 +2599,31 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E68" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0.8</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J68" t="n">
         <v>0.15</v>
@@ -2631,31 +2631,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H69" t="n">
         <v>0.9</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J69" t="n">
         <v>0.15</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>7</v>
@@ -2675,19 +2675,19 @@
         <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J70" t="n">
         <v>0.15</v>
@@ -2695,22 +2695,22 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G71" t="n">
         <v>8</v>
@@ -2719,7 +2719,7 @@
         <v>0.9</v>
       </c>
       <c r="I71" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J71" t="n">
         <v>0.15</v>
@@ -2727,31 +2727,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B72" t="n">
         <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E72" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0.9</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J72" t="n">
         <v>0.15</v>
@@ -2759,31 +2759,31 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J73" t="n">
         <v>0.15</v>
@@ -2791,31 +2791,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G74" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0.8</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J74" t="n">
         <v>0.15</v>
@@ -2823,31 +2823,31 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
         <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G75" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J75" t="n">
         <v>0.15</v>
@@ -2855,31 +2855,31 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E76" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H76" t="n">
         <v>0.9</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J76" t="n">
         <v>0.15</v>
@@ -2887,31 +2887,31 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
         <v>0.9</v>
       </c>
       <c r="I77" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J77" t="n">
         <v>0.15</v>
@@ -2919,31 +2919,31 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
         <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J78" t="n">
         <v>0.15</v>
@@ -2951,31 +2951,31 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>1.1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0.8</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J79" t="n">
         <v>0.15</v>
@@ -2983,31 +2983,31 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
         <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I80" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J80" t="n">
         <v>0.15</v>
@@ -3015,31 +3015,31 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H81" t="n">
         <v>0.8</v>
       </c>
       <c r="I81" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J81" t="n">
         <v>0.15</v>
@@ -3047,31 +3047,31 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
         <v>1.2</v>
       </c>
       <c r="G82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H82" t="n">
         <v>0.8</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J82" t="n">
         <v>0.15</v>
@@ -3079,31 +3079,31 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
         <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
         <v>1.2</v>
       </c>
       <c r="G83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" t="n">
         <v>0.8</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J83" t="n">
         <v>0.15</v>
@@ -3111,19 +3111,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B84" t="n">
         <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E84" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>1.2</v>
@@ -3132,10 +3132,10 @@
         <v>13</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J84" t="n">
         <v>0.15</v>
@@ -3146,28 +3146,28 @@
         <v>104</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E85" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H85" t="n">
         <v>0.8</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J85" t="n">
         <v>0.15</v>
@@ -3175,31 +3175,31 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
         <v>1.1</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J86" t="n">
         <v>0.15</v>
@@ -3207,31 +3207,31 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87" t="n">
         <v>0.8</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J87" t="n">
         <v>0.15</v>
@@ -3239,31 +3239,31 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
         <v>1.1</v>
       </c>
       <c r="G88" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J88" t="n">
         <v>0.15</v>
@@ -3271,31 +3271,31 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
         <v>8</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
         <v>0.9</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J89" t="n">
         <v>0.15</v>
@@ -3303,31 +3303,31 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" t="n">
         <v>17</v>
       </c>
       <c r="E90" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G90" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H90" t="n">
         <v>0.8</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J90" t="n">
         <v>0.15</v>
@@ -3335,31 +3335,31 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E91" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F91" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H91" t="n">
         <v>0.8</v>
       </c>
       <c r="I91" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J91" t="n">
         <v>0.15</v>
@@ -3367,31 +3367,31 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
         <v>19</v>
       </c>
       <c r="E92" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="G92" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H92" t="n">
         <v>0.8</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J92" t="n">
         <v>0.15</v>
@@ -3402,28 +3402,28 @@
         <v>110</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E93" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H93" t="n">
         <v>0.8</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J93" t="n">
         <v>0.15</v>
@@ -3431,31 +3431,31 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H94" t="n">
         <v>0.9</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J94" t="n">
         <v>0.15</v>
@@ -3463,31 +3463,31 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E95" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F95" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J95" t="n">
         <v>0.15</v>
@@ -3495,10 +3495,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
         <v>6</v>
@@ -3507,19 +3507,19 @@
         <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
         <v>1.1</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
         <v>0.8</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J96" t="n">
         <v>0.15</v>
@@ -3527,31 +3527,31 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J97" t="n">
         <v>0.15</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
         <v>7</v>
@@ -3571,19 +3571,19 @@
         <v>18</v>
       </c>
       <c r="E98" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G98" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J98" t="n">
         <v>0.15</v>
@@ -3591,31 +3591,31 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E99" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J99" t="n">
         <v>0.15</v>
@@ -3623,31 +3623,31 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
         <v>17</v>
       </c>
       <c r="E100" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F100" t="n">
         <v>1.1</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H100" t="n">
         <v>0.9</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J100" t="n">
         <v>0.15</v>
@@ -3655,22 +3655,22 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
         <v>18</v>
       </c>
       <c r="E101" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G101" t="n">
         <v>12</v>
@@ -3679,7 +3679,7 @@
         <v>0.9</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J101" t="n">
         <v>0.15</v>
@@ -3687,31 +3687,31 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E102" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J102" t="n">
         <v>0.15</v>
@@ -3719,31 +3719,31 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F103" t="n">
         <v>1.1</v>
       </c>
       <c r="G103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J103" t="n">
         <v>0.15</v>
@@ -3751,31 +3751,31 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B104" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
         <v>1.2</v>
       </c>
       <c r="G104" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I104" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J104" t="n">
         <v>0.15</v>
@@ -3783,31 +3783,31 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B105" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
         <v>18</v>
       </c>
       <c r="E105" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G105" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J105" t="n">
         <v>0.15</v>
@@ -3815,31 +3815,31 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B106" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E106" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G106" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H106" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J106" t="n">
         <v>0.15</v>
@@ -3847,31 +3847,31 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
         <v>1.1</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H107" t="n">
         <v>0.9</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J107" t="n">
         <v>0.15</v>
@@ -3879,31 +3879,31 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H108" t="n">
         <v>0.9</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J108" t="n">
         <v>0.15</v>
@@ -3911,10 +3911,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="n">
         <v>6</v>
@@ -3923,7 +3923,7 @@
         <v>19</v>
       </c>
       <c r="E109" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
         <v>1.2</v>
@@ -3935,7 +3935,7 @@
         <v>0.9</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J109" t="n">
         <v>0.15</v>
@@ -3943,31 +3943,31 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E110" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F110" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H110" t="n">
         <v>0.8</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J110" t="n">
         <v>0.15</v>
@@ -3975,31 +3975,31 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B111" t="n">
+        <v>3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>19</v>
+      </c>
+      <c r="E111" t="n">
         <v>8</v>
       </c>
-      <c r="C111" t="n">
-        <v>6</v>
-      </c>
-      <c r="D111" t="n">
-        <v>18</v>
-      </c>
-      <c r="E111" t="n">
-        <v>27</v>
-      </c>
       <c r="F111" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I111" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J111" t="n">
         <v>0.15</v>
@@ -4007,31 +4007,31 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C112" t="n">
         <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G112" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J112" t="n">
         <v>0.15</v>
@@ -4039,31 +4039,31 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B113" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E113" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F113" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G113" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J113" t="n">
         <v>0.15</v>
@@ -4071,31 +4071,31 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E114" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F114" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H114" t="n">
         <v>0.9</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J114" t="n">
         <v>0.15</v>
@@ -4103,31 +4103,31 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
         <v>7</v>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E115" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G115" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
         <v>0.9</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J115" t="n">
         <v>0.15</v>
@@ -4135,31 +4135,31 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B116" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D116" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E116" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F116" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0.8</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J116" t="n">
         <v>0.15</v>
@@ -4167,31 +4167,31 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D117" t="n">
         <v>18</v>
       </c>
       <c r="E117" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0.8</v>
       </c>
       <c r="I117" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J117" t="n">
         <v>0.15</v>
@@ -4199,31 +4199,31 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B118" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
         <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G118" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H118" t="n">
         <v>0.8</v>
       </c>
       <c r="I118" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J118" t="n">
         <v>0.15</v>
@@ -4231,31 +4231,31 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>7</v>
       </c>
       <c r="D119" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E119" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G119" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I119" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J119" t="n">
         <v>0.15</v>
@@ -4263,31 +4263,31 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E120" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J120" t="n">
         <v>0.15</v>
@@ -4295,31 +4295,31 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B121" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E121" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F121" t="n">
         <v>1.1</v>
       </c>
       <c r="G121" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I121" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J121" t="n">
         <v>0.15</v>
@@ -4327,10 +4327,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B122" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122" t="n">
         <v>7</v>
@@ -4339,19 +4339,19 @@
         <v>18</v>
       </c>
       <c r="E122" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J122" t="n">
         <v>0.15</v>
@@ -4359,31 +4359,31 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" t="n">
         <v>16</v>
       </c>
       <c r="E123" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F123" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H123" t="n">
         <v>0.8</v>
       </c>
       <c r="I123" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J123" t="n">
         <v>0.15</v>
@@ -4394,7 +4394,7 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C124" t="n">
         <v>7</v>
@@ -4403,19 +4403,19 @@
         <v>18</v>
       </c>
       <c r="E124" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I124" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J124" t="n">
         <v>0.15</v>
@@ -4423,22 +4423,22 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B125" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E125" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G125" t="n">
         <v>11</v>
@@ -4447,7 +4447,7 @@
         <v>0.8</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J125" t="n">
         <v>0.15</v>
@@ -4455,31 +4455,31 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B126" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C126" t="n">
         <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E126" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H126" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I126" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J126" t="n">
         <v>0.15</v>
@@ -4487,31 +4487,31 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C127" t="n">
+        <v>7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>17</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G127" t="n">
         <v>8</v>
       </c>
-      <c r="D127" t="n">
-        <v>18</v>
-      </c>
-      <c r="E127" t="n">
-        <v>31</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3</v>
-      </c>
       <c r="H127" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J127" t="n">
         <v>0.15</v>
@@ -4519,31 +4519,31 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B128" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C128" t="n">
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E128" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F128" t="n">
         <v>1.1</v>
       </c>
       <c r="G128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H128" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I128" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J128" t="n">
         <v>0.15</v>
@@ -4551,19 +4551,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E129" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
         <v>1.2</v>
@@ -4572,10 +4572,10 @@
         <v>15</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J129" t="n">
         <v>0.15</v>
@@ -4583,31 +4583,31 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E130" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
         <v>1.1</v>
       </c>
       <c r="G130" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H130" t="n">
         <v>0.9</v>
       </c>
       <c r="I130" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J130" t="n">
         <v>0.15</v>
@@ -4615,31 +4615,31 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B131" t="n">
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D131" t="n">
         <v>18</v>
       </c>
       <c r="E131" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H131" t="n">
         <v>0.8</v>
       </c>
       <c r="I131" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J131" t="n">
         <v>0.15</v>
@@ -4653,25 +4653,25 @@
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D132" t="n">
         <v>17</v>
       </c>
       <c r="E132" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F132" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G132" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I132" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J132" t="n">
         <v>0.15</v>
@@ -4679,31 +4679,31 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B133" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E133" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J133" t="n">
         <v>0.15</v>
@@ -4711,31 +4711,31 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B134" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D134" t="n">
         <v>19</v>
       </c>
       <c r="E134" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F134" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I134" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J134" t="n">
         <v>0.15</v>
@@ -4743,31 +4743,31 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F135" t="n">
         <v>1.1</v>
       </c>
       <c r="G135" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H135" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I135" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J135" t="n">
         <v>0.15</v>
@@ -4775,31 +4775,31 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E136" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
         <v>1.1</v>
       </c>
       <c r="G136" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H136" t="n">
         <v>0.8</v>
       </c>
       <c r="I136" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J136" t="n">
         <v>0.15</v>
@@ -4807,10 +4807,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B137" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C137" t="n">
         <v>7</v>
@@ -4819,19 +4819,19 @@
         <v>19</v>
       </c>
       <c r="E137" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F137" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I137" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J137" t="n">
         <v>0.15</v>
@@ -4839,31 +4839,31 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B138" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D138" t="n">
         <v>17</v>
       </c>
       <c r="E138" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G138" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H138" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I138" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J138" t="n">
         <v>0.15</v>
@@ -4871,31 +4871,31 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B139" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C139" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E139" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F139" t="n">
         <v>1.1</v>
       </c>
       <c r="G139" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0.8</v>
       </c>
       <c r="I139" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J139" t="n">
         <v>0.15</v>
@@ -4903,31 +4903,31 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B140" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E140" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F140" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H140" t="n">
         <v>0.9</v>
       </c>
       <c r="I140" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J140" t="n">
         <v>0.15</v>
@@ -4935,31 +4935,31 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B141" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
         <v>17</v>
       </c>
       <c r="E141" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F141" t="n">
         <v>1.1</v>
       </c>
       <c r="G141" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H141" t="n">
         <v>0.8</v>
       </c>
       <c r="I141" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J141" t="n">
         <v>0.15</v>
@@ -4967,31 +4967,31 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B142" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E142" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F142" t="n">
         <v>1.1</v>
       </c>
       <c r="G142" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H142" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I142" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J142" t="n">
         <v>0.15</v>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B143" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -5023,7 +5023,7 @@
         <v>0.8</v>
       </c>
       <c r="I143" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J143" t="n">
         <v>0.15</v>
@@ -5031,31 +5031,31 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D144" t="n">
         <v>17</v>
       </c>
       <c r="E144" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F144" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G144" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I144" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J144" t="n">
         <v>0.15</v>
@@ -5063,31 +5063,31 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E145" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H145" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I145" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J145" t="n">
         <v>0.15</v>
@@ -5095,31 +5095,31 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B146" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C146" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D146" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E146" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0.9</v>
       </c>
       <c r="I146" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J146" t="n">
         <v>0.15</v>
@@ -5127,31 +5127,31 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B147" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E147" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F147" t="n">
         <v>1.1</v>
       </c>
       <c r="G147" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H147" t="n">
         <v>0.8</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J147" t="n">
         <v>0.15</v>
@@ -5159,31 +5159,31 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B148" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D148" t="n">
         <v>18</v>
       </c>
       <c r="E148" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G148" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I148" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J148" t="n">
         <v>0.15</v>
@@ -5191,31 +5191,31 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B149" t="n">
         <v>5</v>
       </c>
       <c r="C149" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D149" t="n">
         <v>18</v>
       </c>
       <c r="E149" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F149" t="n">
         <v>1.1</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H149" t="n">
         <v>0.8</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J149" t="n">
         <v>0.15</v>
@@ -5223,31 +5223,31 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B150" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D150" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E150" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H150" t="n">
         <v>0.8</v>
       </c>
       <c r="I150" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J150" t="n">
         <v>0.15</v>
@@ -5255,22 +5255,22 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B151" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C151" t="n">
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E151" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G151" t="n">
         <v>13</v>
@@ -5279,7 +5279,7 @@
         <v>0.8</v>
       </c>
       <c r="I151" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J151" t="n">
         <v>0.15</v>
@@ -5287,31 +5287,31 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F152" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G152" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I152" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J152" t="n">
         <v>0.15</v>
@@ -5319,31 +5319,31 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B153" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D153" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E153" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G153" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H153" t="n">
         <v>0.9</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J153" t="n">
         <v>0.15</v>
@@ -5351,31 +5351,31 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B154" t="n">
         <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E154" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F154" t="n">
         <v>1.1</v>
       </c>
       <c r="G154" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H154" t="n">
         <v>0.8</v>
       </c>
       <c r="I154" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J154" t="n">
         <v>0.15</v>
@@ -5383,31 +5383,31 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B155" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E155" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H155" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J155" t="n">
         <v>0.15</v>
@@ -5415,31 +5415,31 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C156" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H156" t="n">
         <v>0.9</v>
       </c>
       <c r="I156" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J156" t="n">
         <v>0.15</v>
@@ -5450,28 +5450,28 @@
         <v>105</v>
       </c>
       <c r="B157" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D157" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E157" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F157" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H157" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J157" t="n">
         <v>0.15</v>
@@ -5479,31 +5479,31 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B158" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E158" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H158" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I158" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J158" t="n">
         <v>0.15</v>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B159" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
         <v>8</v>
@@ -5523,19 +5523,19 @@
         <v>19</v>
       </c>
       <c r="E159" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F159" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G159" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H159" t="n">
         <v>0.9</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J159" t="n">
         <v>0.15</v>
@@ -5543,31 +5543,31 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E160" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
         <v>1.2</v>
       </c>
       <c r="G160" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H160" t="n">
         <v>0.9</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J160" t="n">
         <v>0.15</v>
@@ -5575,31 +5575,31 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B161" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D161" t="n">
         <v>17</v>
       </c>
       <c r="E161" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F161" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G161" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H161" t="n">
         <v>0.9</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J161" t="n">
         <v>0.15</v>
@@ -5607,31 +5607,31 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B162" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C162" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E162" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F162" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H162" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I162" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J162" t="n">
         <v>0.15</v>
@@ -5639,31 +5639,31 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B163" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D163" t="n">
         <v>18</v>
       </c>
       <c r="E163" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H163" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I163" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J163" t="n">
         <v>0.15</v>
@@ -5671,31 +5671,31 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E164" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G164" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H164" t="n">
         <v>0.9</v>
       </c>
       <c r="I164" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J164" t="n">
         <v>0.15</v>
@@ -5703,31 +5703,31 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D165" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E165" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H165" t="n">
         <v>0.9</v>
       </c>
       <c r="I165" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J165" t="n">
         <v>0.15</v>
@@ -5735,31 +5735,31 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B166" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E166" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F166" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H166" t="n">
         <v>0.9</v>
       </c>
       <c r="I166" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J166" t="n">
         <v>0.15</v>
@@ -5767,31 +5767,31 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C167" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
         <v>17</v>
       </c>
       <c r="E167" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G167" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0.8</v>
       </c>
       <c r="I167" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J167" t="n">
         <v>0.15</v>
@@ -5799,31 +5799,31 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E168" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H168" t="n">
         <v>0.9</v>
       </c>
       <c r="I168" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J168" t="n">
         <v>0.15</v>
@@ -5831,31 +5831,31 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B169" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C169" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
         <v>19</v>
       </c>
       <c r="E169" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F169" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G169" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H169" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I169" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J169" t="n">
         <v>0.15</v>
@@ -5863,31 +5863,31 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>7</v>
       </c>
       <c r="D170" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E170" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F170" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G170" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H170" t="n">
         <v>0.8</v>
       </c>
       <c r="I170" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J170" t="n">
         <v>0.15</v>
@@ -5895,31 +5895,31 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E171" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
         <v>1.2</v>
       </c>
       <c r="G171" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H171" t="n">
         <v>0.9</v>
       </c>
       <c r="I171" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J171" t="n">
         <v>0.15</v>
@@ -5927,10 +5927,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C172" t="n">
         <v>7</v>
@@ -5939,19 +5939,19 @@
         <v>19</v>
       </c>
       <c r="E172" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F172" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0.9</v>
       </c>
       <c r="I172" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J172" t="n">
         <v>0.15</v>
@@ -5959,31 +5959,31 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D173" t="n">
         <v>19</v>
       </c>
       <c r="E173" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G173" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H173" t="n">
         <v>0.9</v>
       </c>
       <c r="I173" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J173" t="n">
         <v>0.15</v>
@@ -5991,31 +5991,31 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C174" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D174" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E174" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F174" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H174" t="n">
         <v>0.8</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J174" t="n">
         <v>0.15</v>
@@ -6023,31 +6023,31 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C175" t="n">
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E175" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G175" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0.9</v>
       </c>
       <c r="I175" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J175" t="n">
         <v>0.15</v>
@@ -6055,19 +6055,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B176" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C176" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E176" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F176" t="n">
         <v>1.2</v>
@@ -6076,10 +6076,10 @@
         <v>5</v>
       </c>
       <c r="H176" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I176" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J176" t="n">
         <v>0.15</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B177" t="n">
         <v>4</v>
@@ -6099,19 +6099,19 @@
         <v>18</v>
       </c>
       <c r="E177" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F177" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G177" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H177" t="n">
         <v>0.9</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J177" t="n">
         <v>0.15</v>
@@ -6119,31 +6119,31 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B178" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E178" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G178" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0.9</v>
       </c>
       <c r="I178" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J178" t="n">
         <v>0.15</v>
@@ -6151,19 +6151,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B179" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
         <v>18</v>
       </c>
       <c r="E179" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F179" t="n">
         <v>1.2</v>
@@ -6172,10 +6172,10 @@
         <v>8</v>
       </c>
       <c r="H179" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I179" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J179" t="n">
         <v>0.15</v>
@@ -6183,31 +6183,31 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E180" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H180" t="n">
         <v>0.9</v>
       </c>
       <c r="I180" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J180" t="n">
         <v>0.15</v>
@@ -6215,31 +6215,31 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E181" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H181" t="n">
         <v>0.8</v>
       </c>
       <c r="I181" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J181" t="n">
         <v>0.15</v>
@@ -6247,31 +6247,31 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C182" t="n">
         <v>7</v>
       </c>
       <c r="D182" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E182" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G182" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0.8</v>
       </c>
       <c r="I182" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J182" t="n">
         <v>0.15</v>
@@ -6279,31 +6279,31 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B183" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E183" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G183" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H183" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I183" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J183" t="n">
         <v>0.15</v>
@@ -6311,31 +6311,31 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B184" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D184" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G184" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H184" t="n">
         <v>0.9</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J184" t="n">
         <v>0.15</v>
@@ -6343,31 +6343,31 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B185" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E185" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G185" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H185" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I185" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J185" t="n">
         <v>0.15</v>
@@ -6375,31 +6375,31 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B186" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C186" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D186" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E186" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H186" t="n">
         <v>0.8</v>
       </c>
       <c r="I186" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J186" t="n">
         <v>0.15</v>
@@ -6407,31 +6407,31 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B187" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C187" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D187" t="n">
         <v>18</v>
       </c>
       <c r="E187" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H187" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J187" t="n">
         <v>0.15</v>
@@ -6439,31 +6439,31 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B188" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C188" t="n">
+        <v>6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>19</v>
+      </c>
+      <c r="E188" t="n">
         <v>8</v>
       </c>
-      <c r="D188" t="n">
-        <v>17</v>
-      </c>
-      <c r="E188" t="n">
-        <v>28</v>
-      </c>
       <c r="F188" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H188" t="n">
         <v>0.8</v>
       </c>
       <c r="I188" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J188" t="n">
         <v>0.15</v>
@@ -6471,31 +6471,31 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D189" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E189" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F189" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G189" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H189" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J189" t="n">
         <v>0.15</v>
@@ -6503,31 +6503,31 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B190" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E190" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F190" t="n">
         <v>1.1</v>
       </c>
       <c r="G190" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I190" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J190" t="n">
         <v>0.15</v>
@@ -6535,31 +6535,31 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B191" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E191" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F191" t="n">
         <v>1.2</v>
       </c>
       <c r="G191" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H191" t="n">
         <v>0.8</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J191" t="n">
         <v>0.15</v>
@@ -6567,31 +6567,31 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D192" t="n">
         <v>18</v>
       </c>
       <c r="E192" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F192" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H192" t="n">
         <v>0.8</v>
       </c>
       <c r="I192" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J192" t="n">
         <v>0.15</v>
@@ -6599,31 +6599,31 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B193" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C193" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D193" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E193" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
       </c>
       <c r="G193" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H193" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I193" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J193" t="n">
         <v>0.15</v>
@@ -6631,31 +6631,31 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B194" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C194" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E194" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G194" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H194" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I194" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J194" t="n">
         <v>0.15</v>
@@ -6663,31 +6663,31 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B195" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D195" t="n">
         <v>17</v>
       </c>
       <c r="E195" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G195" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H195" t="n">
         <v>0.9</v>
       </c>
       <c r="I195" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J195" t="n">
         <v>0.15</v>
@@ -6695,31 +6695,31 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B196" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E196" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F196" t="n">
         <v>1.2</v>
       </c>
       <c r="G196" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H196" t="n">
         <v>0.8</v>
       </c>
       <c r="I196" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J196" t="n">
         <v>0.15</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B197" t="n">
         <v>5</v>
@@ -6736,22 +6736,22 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E197" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F197" t="n">
         <v>1</v>
       </c>
       <c r="G197" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H197" t="n">
         <v>0.9</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J197" t="n">
         <v>0.15</v>
@@ -6759,31 +6759,31 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B198" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C198" t="n">
         <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E198" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F198" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H198" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I198" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J198" t="n">
         <v>0.15</v>
@@ -6791,31 +6791,31 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B199" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D199" t="n">
         <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G199" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="n">
         <v>0.8</v>
       </c>
       <c r="I199" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J199" t="n">
         <v>0.15</v>
@@ -6823,31 +6823,31 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B200" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C200" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
         <v>18</v>
       </c>
       <c r="E200" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I200" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J200" t="n">
         <v>0.15</v>
@@ -6855,31 +6855,31 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B201" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E201" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H201" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J201" t="n">
         <v>0.15</v>

--- a/需求响应/data/Taxi.xlsx
+++ b/需求响应/data/Taxi.xlsx
@@ -487,25 +487,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>0.8</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
@@ -531,16 +531,16 @@
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I3" t="n">
         <v>0.4</v>
@@ -551,25 +551,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -583,28 +583,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I5" t="n">
         <v>0.4</v>
@@ -618,13 +618,13 @@
         <v>106</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -633,7 +633,7 @@
         <v>1.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
         <v>0.8</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>17</v>
@@ -662,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -679,25 +679,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>1.1</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -711,25 +711,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -743,28 +743,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I10" t="n">
         <v>0.4</v>
@@ -775,25 +775,25 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
         <v>0.9</v>
@@ -807,28 +807,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>1.1</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I12" t="n">
         <v>0.4</v>
@@ -839,28 +839,28 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I13" t="n">
         <v>0.4</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
         <v>17</v>
@@ -886,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>0.8</v>
@@ -903,28 +903,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I15" t="n">
         <v>0.4</v>
@@ -935,25 +935,25 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -967,25 +967,25 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
         <v>0.8</v>
@@ -999,28 +999,28 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I18" t="n">
         <v>0.4</v>
@@ -1031,28 +1031,28 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I19" t="n">
         <v>0.4</v>
@@ -1063,28 +1063,28 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I20" t="n">
         <v>0.4</v>
@@ -1095,16 +1095,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1113,7 +1113,7 @@
         <v>1.1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
         <v>0.8</v>
@@ -1127,28 +1127,28 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I22" t="n">
         <v>0.4</v>
@@ -1159,28 +1159,28 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B23" t="n">
         <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>1.2</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I23" t="n">
         <v>0.4</v>
@@ -1200,16 +1200,16 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
         <v>0.8</v>
@@ -1223,25 +1223,25 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
         <v>0.8</v>
@@ -1255,25 +1255,25 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -1287,25 +1287,25 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -1319,28 +1319,28 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>1.2</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I28" t="n">
         <v>0.4</v>
@@ -1351,28 +1351,28 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>1.1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I29" t="n">
         <v>0.4</v>
@@ -1383,13 +1383,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
         <v>17</v>
@@ -1401,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I30" t="n">
         <v>0.4</v>
@@ -1415,28 +1415,28 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
         <v>18</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I31" t="n">
         <v>0.4</v>
@@ -1447,22 +1447,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
         <v>17</v>
@@ -1494,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
         <v>0.8</v>
@@ -1511,28 +1511,28 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>1.1</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I34" t="n">
         <v>0.4</v>
@@ -1543,28 +1543,28 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I35" t="n">
         <v>0.4</v>
@@ -1575,25 +1575,25 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="n">
         <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -1607,25 +1607,25 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -1639,25 +1639,25 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
         <v>0.8</v>
@@ -1671,25 +1671,25 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -1703,25 +1703,25 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -1738,25 +1738,25 @@
         <v>106</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I41" t="n">
         <v>0.4</v>
@@ -1767,25 +1767,25 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
         <v>0.8</v>
@@ -1799,25 +1799,25 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
         <v>0.8</v>
@@ -1831,25 +1831,25 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G44" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H44" t="n">
         <v>0.9</v>
@@ -1863,19 +1863,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
         <v>1.1</v>
@@ -1884,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
         <v>0.4</v>
@@ -1895,25 +1895,25 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>0.9</v>
@@ -1927,28 +1927,28 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I47" t="n">
         <v>0.4</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>18</v>
@@ -1974,13 +1974,13 @@
         <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
         <v>0.4</v>
@@ -1991,28 +1991,28 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I49" t="n">
         <v>0.4</v>
@@ -2023,28 +2023,28 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
         <v>17</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>1.1</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I50" t="n">
         <v>0.4</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
@@ -2070,10 +2070,10 @@
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0.9</v>
@@ -2087,25 +2087,25 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
         <v>1.1</v>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
         <v>0.9</v>
@@ -2119,25 +2119,25 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
         <v>0.9</v>
@@ -2151,28 +2151,28 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
         <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G54" t="n">
         <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I54" t="n">
         <v>0.4</v>
@@ -2183,28 +2183,28 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I55" t="n">
         <v>0.4</v>
@@ -2215,28 +2215,28 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>1.1</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I56" t="n">
         <v>0.4</v>
@@ -2247,25 +2247,25 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
         <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
         <v>0.9</v>
@@ -2279,16 +2279,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -2297,10 +2297,10 @@
         <v>1.1</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I58" t="n">
         <v>0.4</v>
@@ -2314,22 +2314,22 @@
         <v>106</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H59" t="n">
         <v>0.8</v>
@@ -2343,25 +2343,25 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
         <v>0.8</v>
@@ -2375,13 +2375,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
         <v>19</v>
@@ -2390,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H61" t="n">
         <v>0.9</v>
@@ -2407,28 +2407,28 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>1.1</v>
       </c>
       <c r="G62" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I62" t="n">
         <v>0.4</v>
@@ -2439,25 +2439,25 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
         <v>18</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0.8</v>
@@ -2471,28 +2471,28 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E64" t="n">
         <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I64" t="n">
         <v>0.4</v>
@@ -2503,25 +2503,25 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
         <v>6</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
         <v>0.9</v>
@@ -2535,28 +2535,28 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>1.1</v>
       </c>
       <c r="G66" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I66" t="n">
         <v>0.4</v>
@@ -2567,25 +2567,25 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" t="n">
         <v>0.9</v>
@@ -2599,25 +2599,25 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H68" t="n">
         <v>0.8</v>
@@ -2631,28 +2631,28 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I69" t="n">
         <v>0.4</v>
@@ -2663,25 +2663,25 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E70" t="n">
         <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0.8</v>
@@ -2695,13 +2695,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
         <v>18</v>
@@ -2710,10 +2710,10 @@
         <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H71" t="n">
         <v>0.9</v>
@@ -2727,25 +2727,25 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H72" t="n">
         <v>0.9</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" t="n">
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D73" t="n">
         <v>19</v>
@@ -2777,7 +2777,7 @@
         <v>1.1</v>
       </c>
       <c r="G73" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0.9</v>
@@ -2791,25 +2791,25 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>1.3</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0.8</v>
@@ -2823,28 +2823,28 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I75" t="n">
         <v>0.4</v>
@@ -2855,28 +2855,28 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
         <v>19</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I76" t="n">
         <v>0.4</v>
@@ -2887,13 +2887,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B77" t="n">
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
         <v>18</v>
@@ -2902,13 +2902,13 @@
         <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I77" t="n">
         <v>0.4</v>
@@ -2922,22 +2922,22 @@
         <v>99</v>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
         <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G78" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0.9</v>
@@ -2954,22 +2954,22 @@
         <v>102</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>0.8</v>
@@ -2983,25 +2983,25 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G80" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H80" t="n">
         <v>0.9</v>
@@ -3015,28 +3015,28 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81" t="n">
         <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I81" t="n">
         <v>0.4</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
@@ -3056,19 +3056,19 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G82" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I82" t="n">
         <v>0.4</v>
@@ -3079,28 +3079,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G83" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I83" t="n">
         <v>0.4</v>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B84" t="n">
         <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -3129,7 +3129,7 @@
         <v>1.2</v>
       </c>
       <c r="G84" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>0.8</v>
@@ -3143,13 +3143,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
         <v>19</v>
@@ -3158,10 +3158,10 @@
         <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G85" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85" t="n">
         <v>0.8</v>
@@ -3175,28 +3175,28 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I86" t="n">
         <v>0.4</v>
@@ -3207,13 +3207,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
         <v>19</v>
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H87" t="n">
         <v>0.8</v>
@@ -3239,25 +3239,25 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
         <v>17</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0.9</v>
@@ -3271,25 +3271,25 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B89" t="n">
         <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
         <v>19</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
         <v>1.2</v>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H89" t="n">
         <v>0.9</v>
@@ -3303,25 +3303,25 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
         <v>8</v>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G90" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H90" t="n">
         <v>0.8</v>
@@ -3335,13 +3335,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="n">
         <v>3</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
         <v>19</v>
@@ -3350,13 +3350,13 @@
         <v>5</v>
       </c>
       <c r="F91" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I91" t="n">
         <v>0.4</v>
@@ -3367,28 +3367,28 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I92" t="n">
         <v>0.4</v>
@@ -3399,28 +3399,28 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G93" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I93" t="n">
         <v>0.4</v>
@@ -3431,28 +3431,28 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G94" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I94" t="n">
         <v>0.4</v>
@@ -3463,25 +3463,25 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H95" t="n">
         <v>0.9</v>
@@ -3498,7 +3498,7 @@
         <v>104</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
         <v>6</v>
@@ -3507,13 +3507,13 @@
         <v>19</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>1.1</v>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H96" t="n">
         <v>0.8</v>
@@ -3527,25 +3527,25 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B97" t="n">
         <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
         <v>1.1</v>
       </c>
       <c r="G97" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0.9</v>
@@ -3559,28 +3559,28 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I98" t="n">
         <v>0.4</v>
@@ -3591,28 +3591,28 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
         <v>4</v>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I99" t="n">
         <v>0.4</v>
@@ -3623,25 +3623,25 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H100" t="n">
         <v>0.9</v>
@@ -3655,28 +3655,28 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" t="n">
         <v>18</v>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I101" t="n">
         <v>0.4</v>
@@ -3687,28 +3687,28 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B102" t="n">
         <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I102" t="n">
         <v>0.4</v>
@@ -3719,28 +3719,28 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
         <v>1.1</v>
       </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H103" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I103" t="n">
         <v>0.4</v>
@@ -3751,25 +3751,25 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B104" t="n">
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H104" t="n">
         <v>0.9</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="n">
         <v>6</v>
@@ -3798,10 +3798,10 @@
         <v>6</v>
       </c>
       <c r="F105" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H105" t="n">
         <v>0.9</v>
@@ -3818,22 +3818,22 @@
         <v>102</v>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" t="n">
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G106" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H106" t="n">
         <v>0.9</v>
@@ -3847,25 +3847,25 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
         <v>1.1</v>
       </c>
       <c r="G107" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="n">
         <v>0.9</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G108" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H108" t="n">
         <v>0.9</v>
@@ -3911,25 +3911,25 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" t="n">
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G109" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0.9</v>
@@ -3943,25 +3943,25 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G110" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0.8</v>
@@ -3975,25 +3975,25 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
         <v>0.8</v>
@@ -4007,28 +4007,28 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F112" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I112" t="n">
         <v>0.4</v>
@@ -4039,25 +4039,25 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
         <v>17</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H113" t="n">
         <v>0.8</v>
@@ -4071,25 +4071,25 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D114" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H114" t="n">
         <v>0.9</v>
@@ -4103,28 +4103,28 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I115" t="n">
         <v>0.4</v>
@@ -4135,25 +4135,25 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
         <v>7</v>
       </c>
       <c r="D116" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H116" t="n">
         <v>0.8</v>
@@ -4167,28 +4167,28 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E117" t="n">
         <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I117" t="n">
         <v>0.4</v>
@@ -4199,25 +4199,25 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D118" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G118" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H118" t="n">
         <v>0.8</v>
@@ -4231,28 +4231,28 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E119" t="n">
         <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G119" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I119" t="n">
         <v>0.4</v>
@@ -4263,22 +4263,22 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120" t="n">
         <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4298,25 +4298,25 @@
         <v>103</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F121" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G121" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H121" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I121" t="n">
         <v>0.4</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B122" t="n">
         <v>4</v>
@@ -4336,16 +4336,16 @@
         <v>7</v>
       </c>
       <c r="D122" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F122" t="n">
         <v>1.1</v>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H122" t="n">
         <v>0.9</v>
@@ -4359,25 +4359,25 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H123" t="n">
         <v>0.8</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
         <v>7</v>
@@ -4403,7 +4403,7 @@
         <v>18</v>
       </c>
       <c r="E124" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
         <v>1.1</v>
@@ -4412,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="H124" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I124" t="n">
         <v>0.4</v>
@@ -4423,28 +4423,28 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
         <v>17</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F125" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G125" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I125" t="n">
         <v>0.4</v>
@@ -4455,28 +4455,28 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G126" t="n">
         <v>7</v>
       </c>
       <c r="H126" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I126" t="n">
         <v>0.4</v>
@@ -4487,25 +4487,25 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B127" t="n">
         <v>3</v>
       </c>
       <c r="C127" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
         <v>17</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F127" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G127" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H127" t="n">
         <v>0.8</v>
@@ -4519,25 +4519,25 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B128" t="n">
         <v>4</v>
       </c>
       <c r="C128" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>18</v>
+      </c>
+      <c r="E128" t="n">
         <v>8</v>
       </c>
-      <c r="D128" t="n">
-        <v>18</v>
-      </c>
-      <c r="E128" t="n">
-        <v>4</v>
-      </c>
       <c r="F128" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H128" t="n">
         <v>0.9</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
         <v>8</v>
@@ -4563,13 +4563,13 @@
         <v>19</v>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F129" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G129" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H129" t="n">
         <v>0.8</v>
@@ -4583,28 +4583,28 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D130" t="n">
         <v>18</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F130" t="n">
         <v>1.1</v>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I130" t="n">
         <v>0.4</v>
@@ -4615,28 +4615,28 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" t="n">
         <v>18</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F131" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G131" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I131" t="n">
         <v>0.4</v>
@@ -4647,28 +4647,28 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F132" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I132" t="n">
         <v>0.4</v>
@@ -4679,28 +4679,28 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E133" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="G133" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H133" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I133" t="n">
         <v>0.4</v>
@@ -4711,28 +4711,28 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D134" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F134" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G134" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I134" t="n">
         <v>0.4</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B135" t="n">
         <v>3</v>
@@ -4752,16 +4752,16 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G135" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0.9</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>8</v>
@@ -4787,16 +4787,16 @@
         <v>17</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F136" t="n">
         <v>1.1</v>
       </c>
       <c r="G136" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H136" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I136" t="n">
         <v>0.4</v>
@@ -4807,28 +4807,28 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
         <v>7</v>
       </c>
       <c r="D137" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H137" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I137" t="n">
         <v>0.4</v>
@@ -4839,28 +4839,28 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C138" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F138" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G138" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H138" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I138" t="n">
         <v>0.4</v>
@@ -4871,25 +4871,25 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F139" t="n">
         <v>1.1</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139" t="n">
         <v>0.8</v>
@@ -4903,28 +4903,28 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B140" t="n">
         <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
         <v>18</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F140" t="n">
         <v>1.1</v>
       </c>
       <c r="G140" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H140" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I140" t="n">
         <v>0.4</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B141" t="n">
         <v>3</v>
@@ -4944,19 +4944,19 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E141" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F141" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H141" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I141" t="n">
         <v>0.4</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B142" t="n">
         <v>2</v>
@@ -4976,16 +4976,16 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E142" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F142" t="n">
         <v>1.1</v>
       </c>
       <c r="G142" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H142" t="n">
         <v>0.9</v>
@@ -4999,25 +4999,25 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
         <v>7</v>
       </c>
       <c r="D143" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H143" t="n">
         <v>0.8</v>
@@ -5031,25 +5031,25 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B144" t="n">
         <v>4</v>
       </c>
       <c r="C144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E144" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H144" t="n">
         <v>0.8</v>
@@ -5063,25 +5063,25 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H145" t="n">
         <v>0.8</v>
@@ -5095,13 +5095,13 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
         <v>18</v>
@@ -5110,13 +5110,13 @@
         <v>4</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H146" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I146" t="n">
         <v>0.4</v>
@@ -5127,16 +5127,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D147" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -5145,10 +5145,10 @@
         <v>1.1</v>
       </c>
       <c r="G147" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I147" t="n">
         <v>0.4</v>
@@ -5159,28 +5159,28 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C148" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F148" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H148" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I148" t="n">
         <v>0.4</v>
@@ -5191,16 +5191,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -5209,10 +5209,10 @@
         <v>1.1</v>
       </c>
       <c r="G149" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I149" t="n">
         <v>0.4</v>
@@ -5226,25 +5226,25 @@
         <v>102</v>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E150" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I150" t="n">
         <v>0.4</v>
@@ -5255,16 +5255,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B151" t="n">
         <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E151" t="n">
         <v>6</v>
@@ -5273,7 +5273,7 @@
         <v>1.2</v>
       </c>
       <c r="G151" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H151" t="n">
         <v>0.8</v>
@@ -5287,28 +5287,28 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B152" t="n">
         <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E152" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F152" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I152" t="n">
         <v>0.4</v>
@@ -5319,28 +5319,28 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F153" t="n">
         <v>1.2</v>
       </c>
       <c r="G153" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H153" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I153" t="n">
         <v>0.4</v>
@@ -5351,25 +5351,25 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D154" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F154" t="n">
         <v>1.1</v>
       </c>
       <c r="G154" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0.8</v>
@@ -5383,25 +5383,25 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="n">
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F155" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G155" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0.8</v>
@@ -5415,28 +5415,28 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B156" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F156" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I156" t="n">
         <v>0.4</v>
@@ -5447,16 +5447,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B157" t="n">
         <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -5465,10 +5465,10 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H157" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I157" t="n">
         <v>0.4</v>
@@ -5479,25 +5479,25 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B158" t="n">
         <v>2</v>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G158" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H158" t="n">
         <v>0.8</v>
@@ -5511,25 +5511,25 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" t="n">
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E159" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F159" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G159" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H159" t="n">
         <v>0.9</v>
@@ -5549,22 +5549,22 @@
         <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D160" t="n">
         <v>18</v>
       </c>
       <c r="E160" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F160" t="n">
         <v>1.2</v>
       </c>
       <c r="G160" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I160" t="n">
         <v>0.4</v>
@@ -5575,25 +5575,25 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
         <v>17</v>
       </c>
       <c r="E161" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F161" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G161" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H161" t="n">
         <v>0.9</v>
@@ -5607,25 +5607,25 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162" t="n">
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E162" t="n">
         <v>6</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G162" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H162" t="n">
         <v>0.8</v>
@@ -5639,13 +5639,13 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D163" t="n">
         <v>18</v>
@@ -5654,13 +5654,13 @@
         <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="G163" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H163" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I163" t="n">
         <v>0.4</v>
@@ -5671,25 +5671,25 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B164" t="n">
         <v>2</v>
       </c>
       <c r="C164" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D164" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F164" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H164" t="n">
         <v>0.9</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B165" t="n">
         <v>3</v>
@@ -5712,7 +5712,7 @@
         <v>7</v>
       </c>
       <c r="D165" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -5721,10 +5721,10 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H165" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I165" t="n">
         <v>0.4</v>
@@ -5735,28 +5735,28 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B166" t="n">
         <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D166" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H166" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I166" t="n">
         <v>0.4</v>
@@ -5767,28 +5767,28 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F167" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H167" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I167" t="n">
         <v>0.4</v>
@@ -5799,28 +5799,28 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168" t="n">
         <v>17</v>
       </c>
       <c r="E168" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I168" t="n">
         <v>0.4</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" t="n">
         <v>5</v>
@@ -5843,13 +5843,13 @@
         <v>19</v>
       </c>
       <c r="E169" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H169" t="n">
         <v>0.9</v>
@@ -5863,28 +5863,28 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F170" t="n">
         <v>1.1</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I170" t="n">
         <v>0.4</v>
@@ -5895,28 +5895,28 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D171" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E171" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G171" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H171" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I171" t="n">
         <v>0.4</v>
@@ -5927,25 +5927,25 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E172" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H172" t="n">
         <v>0.9</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B173" t="n">
         <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E173" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F173" t="n">
         <v>1.1</v>
       </c>
       <c r="G173" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H173" t="n">
         <v>0.9</v>
@@ -5991,16 +5991,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B174" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H174" t="n">
         <v>0.8</v>
@@ -6023,28 +6023,28 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D175" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H175" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I175" t="n">
         <v>0.4</v>
@@ -6055,28 +6055,28 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E176" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F176" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H176" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I176" t="n">
         <v>0.4</v>
@@ -6087,10 +6087,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C177" t="n">
         <v>8</v>
@@ -6099,16 +6099,16 @@
         <v>18</v>
       </c>
       <c r="E177" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F177" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G177" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H177" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I177" t="n">
         <v>0.4</v>
@@ -6119,28 +6119,28 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" t="n">
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F178" t="n">
         <v>1.1</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H178" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I178" t="n">
         <v>0.4</v>
@@ -6151,13 +6151,13 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
         <v>18</v>
@@ -6169,10 +6169,10 @@
         <v>1.2</v>
       </c>
       <c r="G179" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I179" t="n">
         <v>0.4</v>
@@ -6183,28 +6183,28 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
+        <v>5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>19</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G180" t="n">
         <v>8</v>
       </c>
-      <c r="D180" t="n">
-        <v>17</v>
-      </c>
-      <c r="E180" t="n">
-        <v>3</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4</v>
-      </c>
       <c r="H180" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I180" t="n">
         <v>0.4</v>
@@ -6215,25 +6215,25 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E181" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H181" t="n">
         <v>0.8</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B182" t="n">
         <v>3</v>
@@ -6256,19 +6256,19 @@
         <v>7</v>
       </c>
       <c r="D182" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F182" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H182" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I182" t="n">
         <v>0.4</v>
@@ -6279,28 +6279,28 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D183" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E183" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F183" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G183" t="n">
         <v>14</v>
       </c>
       <c r="H183" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I183" t="n">
         <v>0.4</v>
@@ -6311,28 +6311,28 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D184" t="n">
         <v>17</v>
       </c>
       <c r="E184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F184" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="G184" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H184" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I184" t="n">
         <v>0.4</v>
@@ -6343,13 +6343,13 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D185" t="n">
         <v>19</v>
@@ -6358,10 +6358,10 @@
         <v>5</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G185" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H185" t="n">
         <v>0.9</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B186" t="n">
         <v>4</v>
       </c>
       <c r="C186" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D186" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E186" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F186" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G186" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H186" t="n">
         <v>0.8</v>
@@ -6407,10 +6407,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
         <v>8</v>
@@ -6419,13 +6419,13 @@
         <v>18</v>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F187" t="n">
         <v>1.3</v>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H187" t="n">
         <v>0.9</v>
@@ -6442,22 +6442,22 @@
         <v>108</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E188" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F188" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H188" t="n">
         <v>0.8</v>
@@ -6471,28 +6471,28 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B189" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C189" t="n">
         <v>7</v>
       </c>
       <c r="D189" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E189" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H189" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I189" t="n">
         <v>0.4</v>
@@ -6503,28 +6503,28 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C190" t="n">
         <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E190" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F190" t="n">
         <v>1.1</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H190" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I190" t="n">
         <v>0.4</v>
@@ -6535,28 +6535,28 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B191" t="n">
         <v>2</v>
       </c>
       <c r="C191" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D191" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E191" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F191" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H191" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I191" t="n">
         <v>0.4</v>
@@ -6567,28 +6567,28 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E192" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G192" t="n">
         <v>6</v>
       </c>
       <c r="H192" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I192" t="n">
         <v>0.4</v>
@@ -6599,25 +6599,25 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C193" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D193" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E193" t="n">
         <v>6</v>
       </c>
       <c r="F193" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0.8</v>
@@ -6631,28 +6631,28 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D194" t="n">
         <v>18</v>
       </c>
       <c r="E194" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F194" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="G194" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H194" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I194" t="n">
         <v>0.4</v>
@@ -6666,22 +6666,22 @@
         <v>105</v>
       </c>
       <c r="B195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
       </c>
       <c r="F195" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H195" t="n">
         <v>0.9</v>
@@ -6695,25 +6695,25 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D196" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E196" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F196" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H196" t="n">
         <v>0.8</v>
@@ -6727,25 +6727,25 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B197" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D197" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E197" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G197" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H197" t="n">
         <v>0.9</v>
@@ -6759,25 +6759,25 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E198" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G198" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H198" t="n">
         <v>0.8</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B199" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C199" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D199" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E199" t="n">
         <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G199" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H199" t="n">
         <v>0.8</v>
@@ -6823,28 +6823,28 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B200" t="n">
         <v>3</v>
       </c>
       <c r="C200" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H200" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I200" t="n">
         <v>0.4</v>
@@ -6855,28 +6855,28 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C201" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D201" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E201" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H201" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I201" t="n">
         <v>0.4</v>

--- a/需求响应/data/Taxi.xlsx
+++ b/需求响应/data/Taxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,25 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>SOC_start</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>v</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>area_start</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>SOC_start</t>
+          <t>SOC_end</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SOC_warn</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>P_charge_lambda</t>
         </is>
@@ -487,513 +492,561 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="n">
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="F7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="J7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.8</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>-5</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.8</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.8</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -1002,126 +1055,138 @@
         <v>108</v>
       </c>
       <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>34</v>
+      </c>
+      <c r="D18" t="n">
+        <v>56</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" t="n">
-        <v>32</v>
-      </c>
-      <c r="D18" t="n">
-        <v>84</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.8</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D19" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="G21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.8</v>
-      </c>
       <c r="I21" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/需求响应/data/Taxi.xlsx
+++ b/需求响应/data/Taxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>T_start</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>T_end</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P_charge</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SOC_start</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>P_charge</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -492,28 +492,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>0.6</v>
       </c>
       <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.7</v>
-      </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
         <v>0.9</v>
@@ -527,28 +527,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.8</v>
-      </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
         <v>0.8</v>
@@ -562,31 +562,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J4" t="n">
         <v>0.4</v>
@@ -600,28 +600,28 @@
         <v>101</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J5" t="n">
         <v>0.4</v>
@@ -635,25 +635,25 @@
         <v>112</v>
       </c>
       <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>79</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
       </c>
       <c r="I6" t="n">
         <v>0.9</v>
@@ -667,31 +667,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>74</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J7" t="n">
         <v>0.4</v>
@@ -702,31 +702,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J8" t="n">
         <v>0.4</v>
@@ -737,28 +737,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>0.8</v>
@@ -775,28 +775,28 @@
         <v>113</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>0.6</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J10" t="n">
         <v>0.4</v>
@@ -807,31 +807,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J11" t="n">
         <v>0.4</v>
@@ -842,28 +842,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>71</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23</v>
-      </c>
-      <c r="D12" t="n">
-        <v>73</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>12</v>
       </c>
       <c r="I12" t="n">
         <v>0.9</v>
@@ -877,28 +877,28 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>0.7</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0.8</v>
@@ -912,28 +912,28 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I14" t="n">
         <v>0.8</v>
@@ -947,28 +947,28 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I15" t="n">
         <v>0.9</v>
@@ -982,28 +982,28 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
         <v>0.9</v>
@@ -1017,31 +1017,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
         <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J17" t="n">
         <v>0.4</v>
@@ -1052,31 +1052,31 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B18" t="n">
+        <v>31</v>
+      </c>
+      <c r="C18" t="n">
+        <v>66</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>34</v>
-      </c>
-      <c r="D18" t="n">
-        <v>56</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J18" t="n">
         <v>0.4</v>
@@ -1087,28 +1087,28 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
         <v>0.9</v>
@@ -1122,31 +1122,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D20" t="n">
-        <v>66</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="J20" t="n">
         <v>0.4</v>
@@ -1160,33 +1160,6333 @@
         <v>107</v>
       </c>
       <c r="B21" t="n">
+        <v>26</v>
+      </c>
+      <c r="C21" t="n">
+        <v>68</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" t="n">
+      <c r="G21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="n">
+        <v>77</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>102</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>58</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>109</v>
+      </c>
+      <c r="B24" t="n">
+        <v>36</v>
+      </c>
+      <c r="C24" t="n">
+        <v>82</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>106</v>
+      </c>
+      <c r="B25" t="n">
+        <v>37</v>
+      </c>
+      <c r="C25" t="n">
+        <v>79</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>105</v>
+      </c>
+      <c r="B26" t="n">
+        <v>35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>78</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>80</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>102</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>82</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>113</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>69</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>91</v>
+      </c>
+      <c r="B30" t="n">
+        <v>42</v>
+      </c>
+      <c r="C30" t="n">
+        <v>75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>99</v>
+      </c>
+      <c r="B31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C31" t="n">
+        <v>66</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>95</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" t="n">
+        <v>93</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>106</v>
+      </c>
+      <c r="B33" t="n">
+        <v>35</v>
+      </c>
+      <c r="C33" t="n">
+        <v>68</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>103</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>98</v>
+      </c>
+      <c r="B35" t="n">
+        <v>23</v>
+      </c>
+      <c r="C35" t="n">
+        <v>68</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>14</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>103</v>
+      </c>
+      <c r="B36" t="n">
+        <v>23</v>
+      </c>
+      <c r="C36" t="n">
+        <v>56</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>102</v>
+      </c>
+      <c r="B37" t="n">
+        <v>23</v>
+      </c>
+      <c r="C37" t="n">
+        <v>79</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>14</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>107</v>
+      </c>
+      <c r="B38" t="n">
+        <v>27</v>
+      </c>
+      <c r="C38" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>101</v>
+      </c>
+      <c r="B39" t="n">
+        <v>30</v>
+      </c>
+      <c r="C39" t="n">
+        <v>88</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>101</v>
+      </c>
+      <c r="B40" t="n">
         <v>24</v>
       </c>
-      <c r="D21" t="n">
+      <c r="C40" t="n">
+        <v>59</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>103</v>
+      </c>
+      <c r="B41" t="n">
+        <v>29</v>
+      </c>
+      <c r="C41" t="n">
+        <v>61</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>102</v>
+      </c>
+      <c r="B42" t="n">
+        <v>23</v>
+      </c>
+      <c r="C42" t="n">
+        <v>70</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>102</v>
+      </c>
+      <c r="B43" t="n">
+        <v>23</v>
+      </c>
+      <c r="C43" t="n">
+        <v>71</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>29</v>
+      </c>
+      <c r="C44" t="n">
+        <v>66</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>107</v>
+      </c>
+      <c r="B45" t="n">
+        <v>30</v>
+      </c>
+      <c r="C45" t="n">
+        <v>77</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>11</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>103</v>
+      </c>
+      <c r="B46" t="n">
+        <v>29</v>
+      </c>
+      <c r="C46" t="n">
+        <v>77</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>100</v>
+      </c>
+      <c r="B47" t="n">
+        <v>22</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>104</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22</v>
+      </c>
+      <c r="C48" t="n">
+        <v>66</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>109</v>
+      </c>
+      <c r="B49" t="n">
+        <v>31</v>
+      </c>
+      <c r="C49" t="n">
+        <v>75</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>103</v>
+      </c>
+      <c r="B50" t="n">
+        <v>24</v>
+      </c>
+      <c r="C50" t="n">
+        <v>61</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>108</v>
+      </c>
+      <c r="B51" t="n">
+        <v>33</v>
+      </c>
+      <c r="C51" t="n">
+        <v>57</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>103</v>
+      </c>
+      <c r="B52" t="n">
+        <v>30</v>
+      </c>
+      <c r="C52" t="n">
+        <v>67</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>101</v>
+      </c>
+      <c r="B53" t="n">
+        <v>29</v>
+      </c>
+      <c r="C53" t="n">
+        <v>64</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>105</v>
+      </c>
+      <c r="B54" t="n">
+        <v>25</v>
+      </c>
+      <c r="C54" t="n">
+        <v>77</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>103</v>
+      </c>
+      <c r="B55" t="n">
+        <v>34</v>
+      </c>
+      <c r="C55" t="n">
+        <v>65</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>95</v>
+      </c>
+      <c r="B56" t="n">
+        <v>30</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>104</v>
+      </c>
+      <c r="B57" t="n">
+        <v>30</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>107</v>
+      </c>
+      <c r="B58" t="n">
+        <v>28</v>
+      </c>
+      <c r="C58" t="n">
+        <v>61</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>107</v>
+      </c>
+      <c r="B59" t="n">
+        <v>33</v>
+      </c>
+      <c r="C59" t="n">
+        <v>80</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>104</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28</v>
+      </c>
+      <c r="C60" t="n">
+        <v>70</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>100</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28</v>
+      </c>
+      <c r="C61" t="n">
+        <v>85</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>11</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>111</v>
+      </c>
+      <c r="B62" t="n">
+        <v>26</v>
+      </c>
+      <c r="C62" t="n">
+        <v>64</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>96</v>
+      </c>
+      <c r="B63" t="n">
+        <v>28</v>
+      </c>
+      <c r="C63" t="n">
+        <v>69</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>103</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20</v>
+      </c>
+      <c r="C64" t="n">
+        <v>88</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>108</v>
+      </c>
+      <c r="B65" t="n">
+        <v>26</v>
+      </c>
+      <c r="C65" t="n">
+        <v>72</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>100</v>
+      </c>
+      <c r="B66" t="n">
+        <v>36</v>
+      </c>
+      <c r="C66" t="n">
+        <v>75</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>11</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>100</v>
+      </c>
+      <c r="B67" t="n">
+        <v>28</v>
+      </c>
+      <c r="C67" t="n">
+        <v>78</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>100</v>
+      </c>
+      <c r="B68" t="n">
+        <v>28</v>
+      </c>
+      <c r="C68" t="n">
+        <v>82</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>14</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>101</v>
+      </c>
+      <c r="B69" t="n">
+        <v>30</v>
+      </c>
+      <c r="C69" t="n">
+        <v>76</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>110</v>
+      </c>
+      <c r="B70" t="n">
+        <v>30</v>
+      </c>
+      <c r="C70" t="n">
+        <v>81</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H70" t="n">
+        <v>12</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>101</v>
+      </c>
+      <c r="B71" t="n">
+        <v>30</v>
+      </c>
+      <c r="C71" t="n">
+        <v>66</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>102</v>
+      </c>
+      <c r="B72" t="n">
+        <v>21</v>
+      </c>
+      <c r="C72" t="n">
+        <v>74</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H72" t="n">
+        <v>15</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>103</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20</v>
+      </c>
+      <c r="C73" t="n">
+        <v>72</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>15</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>89</v>
+      </c>
+      <c r="B74" t="n">
+        <v>24</v>
+      </c>
+      <c r="C74" t="n">
+        <v>53</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>108</v>
+      </c>
+      <c r="B75" t="n">
+        <v>22</v>
+      </c>
+      <c r="C75" t="n">
+        <v>74</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>111</v>
+      </c>
+      <c r="B76" t="n">
+        <v>27</v>
+      </c>
+      <c r="C76" t="n">
+        <v>51</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H76" t="n">
+        <v>11</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>101</v>
+      </c>
+      <c r="B77" t="n">
+        <v>36</v>
+      </c>
+      <c r="C77" t="n">
+        <v>67</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>12</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>97</v>
+      </c>
+      <c r="B78" t="n">
+        <v>29</v>
+      </c>
+      <c r="C78" t="n">
+        <v>72</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>97</v>
+      </c>
+      <c r="B79" t="n">
+        <v>28</v>
+      </c>
+      <c r="C79" t="n">
+        <v>82</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>13</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>99</v>
+      </c>
+      <c r="B80" t="n">
+        <v>31</v>
+      </c>
+      <c r="C80" t="n">
+        <v>51</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>106</v>
+      </c>
+      <c r="B81" t="n">
+        <v>32</v>
+      </c>
+      <c r="C81" t="n">
+        <v>71</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>15</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>107</v>
+      </c>
+      <c r="B82" t="n">
+        <v>29</v>
+      </c>
+      <c r="C82" t="n">
+        <v>65</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H82" t="n">
+        <v>15</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>109</v>
+      </c>
+      <c r="B83" t="n">
+        <v>24</v>
+      </c>
+      <c r="C83" t="n">
+        <v>68</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>105</v>
+      </c>
+      <c r="B84" t="n">
+        <v>28</v>
+      </c>
+      <c r="C84" t="n">
+        <v>96</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H84" t="n">
+        <v>13</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>101</v>
+      </c>
+      <c r="B85" t="n">
+        <v>21</v>
+      </c>
+      <c r="C85" t="n">
+        <v>78</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>13</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>109</v>
+      </c>
+      <c r="B86" t="n">
+        <v>33</v>
+      </c>
+      <c r="C86" t="n">
+        <v>69</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>103</v>
+      </c>
+      <c r="B87" t="n">
+        <v>22</v>
+      </c>
+      <c r="C87" t="n">
+        <v>79</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>15</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>103</v>
+      </c>
+      <c r="B88" t="n">
+        <v>24</v>
+      </c>
+      <c r="C88" t="n">
+        <v>84</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G88" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>106</v>
+      </c>
+      <c r="B89" t="n">
+        <v>27</v>
+      </c>
+      <c r="C89" t="n">
+        <v>83</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>12</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>108</v>
+      </c>
+      <c r="B90" t="n">
+        <v>22</v>
+      </c>
+      <c r="C90" t="n">
+        <v>63</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>95</v>
+      </c>
+      <c r="B91" t="n">
+        <v>25</v>
+      </c>
+      <c r="C91" t="n">
+        <v>61</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>98</v>
+      </c>
+      <c r="B92" t="n">
+        <v>34</v>
+      </c>
+      <c r="C92" t="n">
         <v>73</v>
       </c>
-      <c r="E21" t="n">
+      <c r="D92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>109</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19</v>
+      </c>
+      <c r="C93" t="n">
+        <v>81</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>101</v>
+      </c>
+      <c r="B94" t="n">
+        <v>29</v>
+      </c>
+      <c r="C94" t="n">
+        <v>66</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>99</v>
+      </c>
+      <c r="B95" t="n">
+        <v>27</v>
+      </c>
+      <c r="C95" t="n">
+        <v>61</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>109</v>
+      </c>
+      <c r="B96" t="n">
+        <v>34</v>
+      </c>
+      <c r="C96" t="n">
+        <v>68</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>108</v>
+      </c>
+      <c r="B97" t="n">
+        <v>32</v>
+      </c>
+      <c r="C97" t="n">
+        <v>92</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>99</v>
+      </c>
+      <c r="B98" t="n">
+        <v>26</v>
+      </c>
+      <c r="C98" t="n">
+        <v>80</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>105</v>
+      </c>
+      <c r="B99" t="n">
+        <v>28</v>
+      </c>
+      <c r="C99" t="n">
+        <v>84</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>107</v>
+      </c>
+      <c r="B100" t="n">
+        <v>24</v>
+      </c>
+      <c r="C100" t="n">
+        <v>63</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>106</v>
+      </c>
+      <c r="B101" t="n">
+        <v>33</v>
+      </c>
+      <c r="C101" t="n">
+        <v>61</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>15</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>105</v>
+      </c>
+      <c r="B102" t="n">
+        <v>30</v>
+      </c>
+      <c r="C102" t="n">
+        <v>84</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>14</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>110</v>
+      </c>
+      <c r="B103" t="n">
+        <v>24</v>
+      </c>
+      <c r="C103" t="n">
+        <v>83</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>108</v>
+      </c>
+      <c r="B104" t="n">
+        <v>40</v>
+      </c>
+      <c r="C104" t="n">
+        <v>84</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H104" t="n">
+        <v>14</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>108</v>
+      </c>
+      <c r="B105" t="n">
+        <v>21</v>
+      </c>
+      <c r="C105" t="n">
+        <v>77</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G105" t="n">
         <v>5</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>111</v>
+      </c>
+      <c r="B106" t="n">
+        <v>30</v>
+      </c>
+      <c r="C106" t="n">
+        <v>92</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>115</v>
+      </c>
+      <c r="B107" t="n">
+        <v>26</v>
+      </c>
+      <c r="C107" t="n">
+        <v>92</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>15</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>95</v>
+      </c>
+      <c r="B108" t="n">
+        <v>28</v>
+      </c>
+      <c r="C108" t="n">
+        <v>72</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>101</v>
+      </c>
+      <c r="B109" t="n">
+        <v>23</v>
+      </c>
+      <c r="C109" t="n">
+        <v>90</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>97</v>
+      </c>
+      <c r="B110" t="n">
+        <v>36</v>
+      </c>
+      <c r="C110" t="n">
+        <v>79</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>23</v>
+      </c>
+      <c r="C111" t="n">
+        <v>52</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>12</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>104</v>
+      </c>
+      <c r="B112" t="n">
+        <v>30</v>
+      </c>
+      <c r="C112" t="n">
+        <v>79</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>101</v>
+      </c>
+      <c r="B113" t="n">
+        <v>34</v>
+      </c>
+      <c r="C113" t="n">
+        <v>60</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>97</v>
+      </c>
+      <c r="B114" t="n">
+        <v>29</v>
+      </c>
+      <c r="C114" t="n">
+        <v>70</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
+      <c r="H114" t="n">
+        <v>13</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>110</v>
+      </c>
+      <c r="B115" t="n">
+        <v>20</v>
+      </c>
+      <c r="C115" t="n">
+        <v>83</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H115" t="n">
+        <v>12</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>20</v>
+      </c>
+      <c r="C116" t="n">
+        <v>93</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>112</v>
+      </c>
+      <c r="B117" t="n">
+        <v>35</v>
+      </c>
+      <c r="C117" t="n">
+        <v>61</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>14</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>101</v>
+      </c>
+      <c r="B118" t="n">
+        <v>25</v>
+      </c>
+      <c r="C118" t="n">
+        <v>80</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>14</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>103</v>
+      </c>
+      <c r="B119" t="n">
+        <v>31</v>
+      </c>
+      <c r="C119" t="n">
+        <v>62</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>15</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>96</v>
+      </c>
+      <c r="B120" t="n">
+        <v>28</v>
+      </c>
+      <c r="C120" t="n">
+        <v>73</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" t="n">
+        <v>15</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>105</v>
+      </c>
+      <c r="B121" t="n">
+        <v>24</v>
+      </c>
+      <c r="C121" t="n">
+        <v>62</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>98</v>
+      </c>
+      <c r="B122" t="n">
+        <v>24</v>
+      </c>
+      <c r="C122" t="n">
+        <v>54</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5</v>
+      </c>
+      <c r="H122" t="n">
+        <v>13</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>115</v>
+      </c>
+      <c r="B123" t="n">
+        <v>28</v>
+      </c>
+      <c r="C123" t="n">
+        <v>81</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>100</v>
+      </c>
+      <c r="B124" t="n">
+        <v>31</v>
+      </c>
+      <c r="C124" t="n">
+        <v>64</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>108</v>
+      </c>
+      <c r="B125" t="n">
+        <v>31</v>
+      </c>
+      <c r="C125" t="n">
+        <v>81</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>99</v>
+      </c>
+      <c r="B126" t="n">
+        <v>38</v>
+      </c>
+      <c r="C126" t="n">
+        <v>79</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H126" t="n">
+        <v>11</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>94</v>
+      </c>
+      <c r="B127" t="n">
+        <v>35</v>
+      </c>
+      <c r="C127" t="n">
+        <v>68</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>106</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22</v>
+      </c>
+      <c r="C128" t="n">
+        <v>78</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H128" t="n">
+        <v>13</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>106</v>
+      </c>
+      <c r="B129" t="n">
+        <v>30</v>
+      </c>
+      <c r="C129" t="n">
+        <v>75</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>110</v>
+      </c>
+      <c r="B130" t="n">
+        <v>24</v>
+      </c>
+      <c r="C130" t="n">
+        <v>90</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>107</v>
+      </c>
+      <c r="B131" t="n">
+        <v>29</v>
+      </c>
+      <c r="C131" t="n">
+        <v>73</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>97</v>
+      </c>
+      <c r="B132" t="n">
+        <v>30</v>
+      </c>
+      <c r="C132" t="n">
+        <v>71</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H132" t="n">
+        <v>13</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>122</v>
+      </c>
+      <c r="B133" t="n">
+        <v>25</v>
+      </c>
+      <c r="C133" t="n">
+        <v>46</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>98</v>
+      </c>
+      <c r="B134" t="n">
+        <v>33</v>
+      </c>
+      <c r="C134" t="n">
+        <v>63</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>94</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25</v>
+      </c>
+      <c r="C135" t="n">
+        <v>80</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>11</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>117</v>
+      </c>
+      <c r="B136" t="n">
+        <v>23</v>
+      </c>
+      <c r="C136" t="n">
+        <v>68</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>111</v>
+      </c>
+      <c r="B137" t="n">
+        <v>24</v>
+      </c>
+      <c r="C137" t="n">
+        <v>80</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>11</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>111</v>
+      </c>
+      <c r="B138" t="n">
+        <v>29</v>
+      </c>
+      <c r="C138" t="n">
+        <v>66</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>108</v>
+      </c>
+      <c r="B139" t="n">
+        <v>23</v>
+      </c>
+      <c r="C139" t="n">
+        <v>60</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H139" t="n">
+        <v>11</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>106</v>
+      </c>
+      <c r="B140" t="n">
+        <v>25</v>
+      </c>
+      <c r="C140" t="n">
+        <v>75</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>11</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>103</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25</v>
+      </c>
+      <c r="C141" t="n">
+        <v>87</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>103</v>
+      </c>
+      <c r="B142" t="n">
+        <v>33</v>
+      </c>
+      <c r="C142" t="n">
+        <v>65</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>101</v>
+      </c>
+      <c r="B143" t="n">
+        <v>28</v>
+      </c>
+      <c r="C143" t="n">
+        <v>74</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>104</v>
+      </c>
+      <c r="B144" t="n">
+        <v>28</v>
+      </c>
+      <c r="C144" t="n">
+        <v>71</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5</v>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>106</v>
+      </c>
+      <c r="B145" t="n">
+        <v>32</v>
+      </c>
+      <c r="C145" t="n">
+        <v>42</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>104</v>
+      </c>
+      <c r="B146" t="n">
+        <v>32</v>
+      </c>
+      <c r="C146" t="n">
+        <v>70</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>13</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>97</v>
+      </c>
+      <c r="B147" t="n">
+        <v>29</v>
+      </c>
+      <c r="C147" t="n">
+        <v>66</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>101</v>
+      </c>
+      <c r="B148" t="n">
+        <v>33</v>
+      </c>
+      <c r="C148" t="n">
+        <v>53</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H148" t="n">
+        <v>13</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>102</v>
+      </c>
+      <c r="B149" t="n">
+        <v>27</v>
+      </c>
+      <c r="C149" t="n">
+        <v>67</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>107</v>
+      </c>
+      <c r="B150" t="n">
+        <v>31</v>
+      </c>
+      <c r="C150" t="n">
+        <v>75</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G150" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H150" t="n">
+        <v>15</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>112</v>
+      </c>
+      <c r="B151" t="n">
+        <v>36</v>
+      </c>
+      <c r="C151" t="n">
+        <v>68</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>106</v>
+      </c>
+      <c r="B152" t="n">
+        <v>38</v>
+      </c>
+      <c r="C152" t="n">
+        <v>79</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5</v>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>105</v>
+      </c>
+      <c r="B153" t="n">
+        <v>27</v>
+      </c>
+      <c r="C153" t="n">
+        <v>67</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>96</v>
+      </c>
+      <c r="B154" t="n">
+        <v>24</v>
+      </c>
+      <c r="C154" t="n">
+        <v>91</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H154" t="n">
+        <v>13</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>104</v>
+      </c>
+      <c r="B155" t="n">
+        <v>30</v>
+      </c>
+      <c r="C155" t="n">
+        <v>80</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G155" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>91</v>
+      </c>
+      <c r="B156" t="n">
+        <v>38</v>
+      </c>
+      <c r="C156" t="n">
+        <v>86</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>103</v>
+      </c>
+      <c r="B157" t="n">
+        <v>33</v>
+      </c>
+      <c r="C157" t="n">
+        <v>80</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>100</v>
+      </c>
+      <c r="B158" t="n">
+        <v>24</v>
+      </c>
+      <c r="C158" t="n">
+        <v>66</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>106</v>
+      </c>
+      <c r="B159" t="n">
+        <v>32</v>
+      </c>
+      <c r="C159" t="n">
+        <v>82</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5</v>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>93</v>
+      </c>
+      <c r="B160" t="n">
+        <v>31</v>
+      </c>
+      <c r="C160" t="n">
+        <v>73</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+      <c r="G160" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>111</v>
+      </c>
+      <c r="B161" t="n">
+        <v>24</v>
+      </c>
+      <c r="C161" t="n">
+        <v>65</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>97</v>
+      </c>
+      <c r="B162" t="n">
+        <v>31</v>
+      </c>
+      <c r="C162" t="n">
+        <v>89</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>101</v>
+      </c>
+      <c r="B163" t="n">
+        <v>22</v>
+      </c>
+      <c r="C163" t="n">
+        <v>78</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H163" t="n">
+        <v>14</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>106</v>
+      </c>
+      <c r="B164" t="n">
+        <v>27</v>
+      </c>
+      <c r="C164" t="n">
+        <v>60</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5</v>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>101</v>
+      </c>
+      <c r="B165" t="n">
+        <v>29</v>
+      </c>
+      <c r="C165" t="n">
+        <v>72</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>102</v>
+      </c>
+      <c r="B166" t="n">
+        <v>25</v>
+      </c>
+      <c r="C166" t="n">
+        <v>69</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>108</v>
+      </c>
+      <c r="B167" t="n">
+        <v>30</v>
+      </c>
+      <c r="C167" t="n">
+        <v>73</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>98</v>
+      </c>
+      <c r="B168" t="n">
+        <v>24</v>
+      </c>
+      <c r="C168" t="n">
+        <v>77</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>15</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>106</v>
+      </c>
+      <c r="B169" t="n">
+        <v>31</v>
+      </c>
+      <c r="C169" t="n">
+        <v>65</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+      <c r="G169" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>108</v>
+      </c>
+      <c r="B170" t="n">
+        <v>20</v>
+      </c>
+      <c r="C170" t="n">
+        <v>71</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G170" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>107</v>
+      </c>
+      <c r="B171" t="n">
+        <v>30</v>
+      </c>
+      <c r="C171" t="n">
+        <v>91</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H171" t="n">
+        <v>11</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>113</v>
+      </c>
+      <c r="B172" t="n">
+        <v>29</v>
+      </c>
+      <c r="C172" t="n">
+        <v>65</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G172" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>14</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>111</v>
+      </c>
+      <c r="B173" t="n">
+        <v>27</v>
+      </c>
+      <c r="C173" t="n">
+        <v>70</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H173" t="n">
+        <v>9</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>102</v>
+      </c>
+      <c r="B174" t="n">
+        <v>32</v>
+      </c>
+      <c r="C174" t="n">
+        <v>68</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G174" t="n">
+        <v>5</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>97</v>
+      </c>
+      <c r="B175" t="n">
+        <v>30</v>
+      </c>
+      <c r="C175" t="n">
+        <v>68</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G175" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>103</v>
+      </c>
+      <c r="B176" t="n">
+        <v>19</v>
+      </c>
+      <c r="C176" t="n">
+        <v>69</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>103</v>
+      </c>
+      <c r="B177" t="n">
+        <v>28</v>
+      </c>
+      <c r="C177" t="n">
+        <v>64</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>96</v>
+      </c>
+      <c r="B178" t="n">
+        <v>35</v>
+      </c>
+      <c r="C178" t="n">
+        <v>76</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>103</v>
+      </c>
+      <c r="B179" t="n">
+        <v>28</v>
+      </c>
+      <c r="C179" t="n">
+        <v>70</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>103</v>
+      </c>
+      <c r="B180" t="n">
+        <v>35</v>
+      </c>
+      <c r="C180" t="n">
+        <v>64</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>102</v>
+      </c>
+      <c r="B181" t="n">
+        <v>31</v>
+      </c>
+      <c r="C181" t="n">
+        <v>71</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>103</v>
+      </c>
+      <c r="B182" t="n">
+        <v>26</v>
+      </c>
+      <c r="C182" t="n">
+        <v>64</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F182" t="n">
         <v>2.6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="G182" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H182" t="n">
+        <v>12</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>104</v>
+      </c>
+      <c r="B183" t="n">
+        <v>22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>65</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H183" t="n">
+        <v>12</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>107</v>
+      </c>
+      <c r="B184" t="n">
+        <v>28</v>
+      </c>
+      <c r="C184" t="n">
+        <v>87</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>99</v>
+      </c>
+      <c r="B185" t="n">
+        <v>17</v>
+      </c>
+      <c r="C185" t="n">
+        <v>78</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>103</v>
+      </c>
+      <c r="B186" t="n">
+        <v>23</v>
+      </c>
+      <c r="C186" t="n">
+        <v>59</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G186" t="n">
+        <v>5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>105</v>
+      </c>
+      <c r="B187" t="n">
+        <v>33</v>
+      </c>
+      <c r="C187" t="n">
+        <v>89</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G187" t="n">
+        <v>5</v>
+      </c>
+      <c r="H187" t="n">
         <v>7</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="I187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>104</v>
+      </c>
+      <c r="B188" t="n">
+        <v>30</v>
+      </c>
+      <c r="C188" t="n">
+        <v>70</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>102</v>
+      </c>
+      <c r="B189" t="n">
+        <v>24</v>
+      </c>
+      <c r="C189" t="n">
+        <v>76</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G189" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>5</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>106</v>
+      </c>
+      <c r="B190" t="n">
+        <v>23</v>
+      </c>
+      <c r="C190" t="n">
+        <v>79</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G190" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>15</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>109</v>
+      </c>
+      <c r="B191" t="n">
+        <v>28</v>
+      </c>
+      <c r="C191" t="n">
+        <v>76</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G191" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H191" t="n">
+        <v>13</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>111</v>
+      </c>
+      <c r="B192" t="n">
+        <v>29</v>
+      </c>
+      <c r="C192" t="n">
+        <v>81</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>104</v>
+      </c>
+      <c r="B193" t="n">
+        <v>28</v>
+      </c>
+      <c r="C193" t="n">
+        <v>78</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G193" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H193" t="n">
+        <v>11</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>105</v>
+      </c>
+      <c r="B194" t="n">
+        <v>26</v>
+      </c>
+      <c r="C194" t="n">
+        <v>46</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G194" t="n">
+        <v>5</v>
+      </c>
+      <c r="H194" t="n">
+        <v>13</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>100</v>
+      </c>
+      <c r="B195" t="n">
+        <v>19</v>
+      </c>
+      <c r="C195" t="n">
+        <v>66</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G195" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>107</v>
+      </c>
+      <c r="B196" t="n">
+        <v>40</v>
+      </c>
+      <c r="C196" t="n">
+        <v>55</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H196" t="n">
+        <v>11</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>114</v>
+      </c>
+      <c r="B197" t="n">
+        <v>20</v>
+      </c>
+      <c r="C197" t="n">
+        <v>85</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>103</v>
+      </c>
+      <c r="B198" t="n">
+        <v>27</v>
+      </c>
+      <c r="C198" t="n">
+        <v>88</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G198" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>94</v>
+      </c>
+      <c r="B199" t="n">
+        <v>17</v>
+      </c>
+      <c r="C199" t="n">
+        <v>75</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G199" t="n">
+        <v>5</v>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>112</v>
+      </c>
+      <c r="B200" t="n">
+        <v>33</v>
+      </c>
+      <c r="C200" t="n">
+        <v>50</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H200" t="n">
+        <v>11</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>101</v>
+      </c>
+      <c r="B201" t="n">
+        <v>33</v>
+      </c>
+      <c r="C201" t="n">
+        <v>87</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G201" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H201" t="n">
+        <v>7</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/需求响应/data/Taxi.xlsx
+++ b/需求响应/data/Taxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>P_discharge</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>area_start</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SOC_end</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>SOC_warn</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>P_charge_lambda</t>
         </is>
@@ -492,3475 +497,3772 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B2" t="n">
         <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>4.5</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>8.9</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>51.2</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
         <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>49.3</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>8.9</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>51.4</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>20.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>46.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>5.1</v>
+        <v>51.4</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>19.3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>3.6</v>
+        <v>45.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>8.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>51.6</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>20.7</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
         <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3.7</v>
+        <v>47.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>9.1</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>51.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>19.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
         <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>48.1</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>50.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>20.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>3.3</v>
+        <v>49.4</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7</v>
+        <v>8.9</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>49.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>18.3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
         <v>0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>4.2</v>
+        <v>49.4</v>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>50.3</v>
       </c>
       <c r="H9" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D10" t="n">
         <v>0.6</v>
       </c>
       <c r="E10" t="n">
-        <v>4.1</v>
+        <v>50.5</v>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>9.6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.3</v>
+        <v>51.8</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>19.6</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
         <v>0.7</v>
       </c>
       <c r="E11" t="n">
-        <v>4.3</v>
+        <v>48.8</v>
       </c>
       <c r="F11" t="n">
-        <v>2.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>50.7</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>19.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" t="n">
         <v>0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>4.1</v>
+        <v>51.1</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>8.6</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3</v>
+        <v>51.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>18.4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B13" t="n">
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E13" t="n">
-        <v>3.9</v>
+        <v>51.2</v>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>52.9</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>22.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E14" t="n">
-        <v>3.7</v>
+        <v>52.7</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>53.7</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>21.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>3.9</v>
+        <v>49.4</v>
       </c>
       <c r="F15" t="n">
-        <v>1.7</v>
+        <v>8.9</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>52.4</v>
       </c>
       <c r="H15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>49.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>54.1</v>
       </c>
       <c r="H16" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J16" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
         <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>3.7</v>
+        <v>55.9</v>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>53</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>20.8</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="B18" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>4.1</v>
+        <v>50.9</v>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>49.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D19" t="n">
         <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>4.4</v>
+        <v>48.8</v>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>50.8</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>20.3</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
-        <v>4.4</v>
+        <v>52.9</v>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>5.1</v>
+        <v>51.1</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>20.8</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B21" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="n">
         <v>0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>4.1</v>
+        <v>52.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>51.2</v>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>20.7</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C22" t="n">
         <v>77</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="n">
-        <v>3.8</v>
+        <v>46.9</v>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>5.2</v>
+        <v>51.6</v>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>21.1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>3.6</v>
+        <v>48.9</v>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="G23" t="n">
-        <v>5.3</v>
+        <v>50.4</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>21.5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D24" t="n">
         <v>0.6</v>
       </c>
       <c r="E24" t="n">
-        <v>3.5</v>
+        <v>47.1</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>5.1</v>
+        <v>52</v>
       </c>
       <c r="H24" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I24" t="n">
         <v>11</v>
       </c>
-      <c r="I24" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J24" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B25" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D25" t="n">
         <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>3.7</v>
+        <v>49.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="G25" t="n">
-        <v>5.1</v>
+        <v>50.6</v>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E26" t="n">
-        <v>3.6</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n">
-        <v>1.8</v>
+        <v>9.4</v>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>51.1</v>
       </c>
       <c r="H26" t="n">
-        <v>15</v>
+        <v>20.2</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>4.3</v>
+        <v>50.6</v>
       </c>
       <c r="F27" t="n">
-        <v>1.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>4.5</v>
+        <v>52.1</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>20.8</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C28" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D28" t="n">
         <v>0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>3.4</v>
+        <v>51.6</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>5.1</v>
+        <v>52.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>21.1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D29" t="n">
         <v>0.6</v>
       </c>
       <c r="E29" t="n">
-        <v>3.8</v>
+        <v>45.4</v>
       </c>
       <c r="F29" t="n">
-        <v>2.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>52.8</v>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>18.8</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
         <v>75</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E30" t="n">
-        <v>3.8</v>
+        <v>54.6</v>
       </c>
       <c r="F30" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="G30" t="n">
-        <v>5.3</v>
+        <v>51.9</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>4.3</v>
+        <v>44.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="G31" t="n">
-        <v>4.8</v>
+        <v>51.8</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>20.1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C32" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" t="n">
         <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>3.7</v>
+        <v>49.4</v>
       </c>
       <c r="F32" t="n">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>51</v>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>20.3</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E33" t="n">
-        <v>3.7</v>
+        <v>46</v>
       </c>
       <c r="F33" t="n">
-        <v>2.3</v>
+        <v>9.1</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>49.9</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>20.6</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
         <v>0.6</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>53.3</v>
       </c>
       <c r="F34" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>51.8</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>17.8</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E35" t="n">
-        <v>3.8</v>
+        <v>50.1</v>
       </c>
       <c r="F35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G35" t="n">
+        <v>52</v>
+      </c>
+      <c r="H35" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="G35" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H35" t="n">
-        <v>14</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J35" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D36" t="n">
         <v>0.6</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>48.3</v>
       </c>
       <c r="F36" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>4.9</v>
+        <v>51.6</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>19.1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B37" t="n">
         <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D37" t="n">
         <v>0.6</v>
       </c>
       <c r="E37" t="n">
-        <v>4.2</v>
+        <v>50.1</v>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>8.6</v>
       </c>
       <c r="G37" t="n">
-        <v>4.7</v>
+        <v>52.2</v>
       </c>
       <c r="H37" t="n">
-        <v>14</v>
+        <v>19.9</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D38" t="n">
         <v>0.6</v>
       </c>
       <c r="E38" t="n">
-        <v>3.8</v>
+        <v>51.8</v>
       </c>
       <c r="F38" t="n">
-        <v>1.9</v>
+        <v>8.5</v>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>51.1</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>18.6</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D39" t="n">
         <v>0.7</v>
       </c>
       <c r="E39" t="n">
-        <v>4.1</v>
+        <v>42.1</v>
       </c>
       <c r="F39" t="n">
-        <v>2.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>4.9</v>
+        <v>51.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>20.5</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E40" t="n">
-        <v>3.7</v>
+        <v>44.2</v>
       </c>
       <c r="F40" t="n">
-        <v>2.6</v>
+        <v>9.1</v>
       </c>
       <c r="G40" t="n">
-        <v>4.9</v>
+        <v>52.1</v>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>19.6</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B41" t="n">
         <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E41" t="n">
-        <v>3.8</v>
+        <v>47.9</v>
       </c>
       <c r="F41" t="n">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
       <c r="G41" t="n">
-        <v>4.9</v>
+        <v>51.5</v>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>19.4</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B42" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>53.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>4.6</v>
+        <v>53.1</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>20.6</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K42" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C43" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>3.6</v>
+        <v>51.5</v>
       </c>
       <c r="F43" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>50.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>19.7</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K43" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C44" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>50.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="G44" t="n">
-        <v>4.9</v>
+        <v>51.7</v>
       </c>
       <c r="H44" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="I44" t="n">
         <v>10</v>
       </c>
-      <c r="I44" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J44" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K44" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L44" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B45" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C45" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D45" t="n">
         <v>0.6</v>
       </c>
       <c r="E45" t="n">
-        <v>3.9</v>
+        <v>46.6</v>
       </c>
       <c r="F45" t="n">
-        <v>2.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>4.9</v>
+        <v>50.5</v>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>21.2</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B46" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C46" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>4.1</v>
+        <v>51</v>
       </c>
       <c r="F46" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>4.9</v>
+        <v>51</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>19.3</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B47" t="n">
+        <v>31</v>
+      </c>
+      <c r="C47" t="n">
+        <v>66</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>53</v>
+      </c>
+      <c r="H47" t="n">
         <v>22</v>
       </c>
-      <c r="C47" t="n">
-        <v>50</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G47" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
       <c r="I47" t="n">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B48" t="n">
         <v>22</v>
       </c>
       <c r="C48" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E48" t="n">
-        <v>4.2</v>
+        <v>51.8</v>
       </c>
       <c r="F48" t="n">
-        <v>1.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>51.6</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>21.6</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B49" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D49" t="n">
         <v>0.6</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>46.8</v>
       </c>
       <c r="F49" t="n">
-        <v>2.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>50.8</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>19.2</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C50" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D50" t="n">
         <v>0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>4.2</v>
+        <v>53.7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>5.3</v>
+        <v>50.7</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>20.6</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B51" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E51" t="n">
-        <v>3.8</v>
+        <v>51.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2.6</v>
+        <v>8.9</v>
       </c>
       <c r="G51" t="n">
-        <v>5.1</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>19.6</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K51" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L51" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C52" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D52" t="n">
         <v>0.6</v>
       </c>
       <c r="E52" t="n">
-        <v>3.4</v>
+        <v>48.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>19.4</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B53" t="n">
         <v>29</v>
       </c>
       <c r="C53" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D53" t="n">
         <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>3.7</v>
+        <v>52.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>4.9</v>
+        <v>53</v>
       </c>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>19.4</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L53" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B54" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D54" t="n">
         <v>0.6</v>
       </c>
       <c r="E54" t="n">
-        <v>3.8</v>
+        <v>53.4</v>
       </c>
       <c r="F54" t="n">
-        <v>2.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>4.8</v>
+        <v>52.3</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>21.6</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K54" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L54" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B55" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>48.2</v>
       </c>
       <c r="F55" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>52.8</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>19.9</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
         <v>30</v>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E56" t="n">
-        <v>4.1</v>
+        <v>44</v>
       </c>
       <c r="F56" t="n">
-        <v>1.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>4.7</v>
+        <v>51.3</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>22.1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L56" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D57" t="n">
         <v>0.6</v>
       </c>
       <c r="E57" t="n">
-        <v>4.1</v>
+        <v>46.4</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="G57" t="n">
-        <v>4.8</v>
+        <v>51.3</v>
       </c>
       <c r="H57" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I57" t="n">
         <v>7</v>
       </c>
-      <c r="I57" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J57" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L57" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C58" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E58" t="n">
-        <v>4.1</v>
+        <v>48.9</v>
       </c>
       <c r="F58" t="n">
-        <v>2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>5.1</v>
+        <v>52.3</v>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>20.6</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K58" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L58" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C59" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E59" t="n">
-        <v>3.7</v>
+        <v>47.2</v>
       </c>
       <c r="F59" t="n">
-        <v>2.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>4.9</v>
+        <v>52.1</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>21.2</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B60" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D60" t="n">
         <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>3.6</v>
+        <v>50.8</v>
       </c>
       <c r="F60" t="n">
-        <v>1.9</v>
+        <v>8.9</v>
       </c>
       <c r="G60" t="n">
-        <v>5.4</v>
+        <v>52.4</v>
       </c>
       <c r="H60" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="I60" t="n">
         <v>5</v>
       </c>
-      <c r="I60" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J60" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L60" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C61" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E61" t="n">
-        <v>3.4</v>
+        <v>49.8</v>
       </c>
       <c r="F61" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>4.7</v>
+        <v>52.1</v>
       </c>
       <c r="H61" t="n">
-        <v>11</v>
+        <v>20.3</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D62" t="n">
         <v>0.6</v>
       </c>
       <c r="E62" t="n">
-        <v>3.5</v>
+        <v>49.2</v>
       </c>
       <c r="F62" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>20.9</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L62" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B63" t="n">
         <v>28</v>
       </c>
       <c r="C63" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E63" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="G63" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="H63" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="I63" t="n">
         <v>4</v>
       </c>
-      <c r="F63" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>7</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J63" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L63" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="B64" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C64" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E64" t="n">
-        <v>4.1</v>
+        <v>48.5</v>
       </c>
       <c r="F64" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>52.9</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>20.2</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L64" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="B65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D65" t="n">
         <v>0.6</v>
       </c>
       <c r="E65" t="n">
-        <v>3.6</v>
+        <v>50.3</v>
       </c>
       <c r="F65" t="n">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>52.2</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>19.4</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L65" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B66" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C66" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D66" t="n">
         <v>0.6</v>
       </c>
       <c r="E66" t="n">
-        <v>4.4</v>
+        <v>52.4</v>
       </c>
       <c r="F66" t="n">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>52.5</v>
       </c>
       <c r="H66" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L66" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B67" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C67" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D67" t="n">
         <v>0.6</v>
       </c>
       <c r="E67" t="n">
-        <v>3.8</v>
+        <v>50</v>
       </c>
       <c r="F67" t="n">
-        <v>1.9</v>
+        <v>9.1</v>
       </c>
       <c r="G67" t="n">
-        <v>5</v>
+        <v>49.6</v>
       </c>
       <c r="H67" t="n">
-        <v>9</v>
+        <v>18.9</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L67" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B68" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C68" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E68" t="n">
-        <v>4.3</v>
+        <v>48.2</v>
       </c>
       <c r="F68" t="n">
-        <v>2.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>51.5</v>
       </c>
       <c r="H68" t="n">
-        <v>14</v>
+        <v>20.2</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C69" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E69" t="n">
-        <v>4.2</v>
+        <v>45.6</v>
       </c>
       <c r="F69" t="n">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="G69" t="n">
-        <v>4.9</v>
+        <v>51.4</v>
       </c>
       <c r="H69" t="n">
-        <v>8</v>
+        <v>17.6</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B70" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C70" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D70" t="n">
         <v>0.6</v>
       </c>
       <c r="E70" t="n">
-        <v>3.9</v>
+        <v>51.1</v>
       </c>
       <c r="F70" t="n">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="G70" t="n">
-        <v>4.9</v>
+        <v>52.4</v>
       </c>
       <c r="H70" t="n">
-        <v>12</v>
+        <v>18.1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C71" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E71" t="n">
-        <v>3.8</v>
+        <v>50.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>4.8</v>
+        <v>51.6</v>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>20.1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C72" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E72" t="n">
-        <v>3.8</v>
+        <v>50.3</v>
       </c>
       <c r="F72" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="G72" t="n">
-        <v>4.7</v>
+        <v>51.5</v>
       </c>
       <c r="H72" t="n">
-        <v>15</v>
+        <v>18.3</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K72" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C73" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="n">
-        <v>4.1</v>
+        <v>51.4</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1</v>
+        <v>9.6</v>
       </c>
       <c r="G73" t="n">
-        <v>5.1</v>
+        <v>49.7</v>
       </c>
       <c r="H73" t="n">
-        <v>15</v>
+        <v>20.3</v>
       </c>
       <c r="I73" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L73" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B74" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E74" t="n">
-        <v>4.3</v>
+        <v>46.6</v>
       </c>
       <c r="F74" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>5.2</v>
+        <v>50.8</v>
       </c>
       <c r="H74" t="n">
-        <v>10</v>
+        <v>20.6</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J74" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L74" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B75" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C75" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E75" t="n">
-        <v>4.4</v>
+        <v>48.4</v>
       </c>
       <c r="F75" t="n">
-        <v>2.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>51.3</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>21.3</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="B76" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E76" t="n">
-        <v>4.1</v>
+        <v>53</v>
       </c>
       <c r="F76" t="n">
-        <v>1.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>4.9</v>
+        <v>51.5</v>
       </c>
       <c r="H76" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" t="n">
         <v>11</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J76" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L76" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B77" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E77" t="n">
-        <v>4.7</v>
+        <v>49.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="G77" t="n">
-        <v>5.1</v>
+        <v>50.5</v>
       </c>
       <c r="H77" t="n">
-        <v>12</v>
+        <v>19.8</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L77" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B78" t="n">
         <v>29</v>
       </c>
       <c r="C78" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E78" t="n">
-        <v>4.5</v>
+        <v>51.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>19.7</v>
       </c>
       <c r="I78" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L78" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C79" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E79" t="n">
-        <v>4.5</v>
+        <v>49</v>
       </c>
       <c r="F79" t="n">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
       <c r="G79" t="n">
-        <v>5.2</v>
+        <v>51.1</v>
       </c>
       <c r="H79" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="I79" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B80" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D80" t="n">
         <v>0.6</v>
       </c>
       <c r="E80" t="n">
-        <v>4.2</v>
+        <v>51.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>52.4</v>
       </c>
       <c r="H80" t="n">
-        <v>8</v>
+        <v>19.9</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K80" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C81" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D81" t="n">
         <v>0.6</v>
       </c>
       <c r="E81" t="n">
-        <v>4.2</v>
+        <v>48.2</v>
       </c>
       <c r="F81" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="G81" t="n">
-        <v>4.8</v>
+        <v>50.3</v>
       </c>
       <c r="H81" t="n">
-        <v>15</v>
+        <v>19.7</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L81" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B82" t="n">
         <v>29</v>
       </c>
       <c r="C82" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D82" t="n">
         <v>0.6</v>
       </c>
       <c r="E82" t="n">
-        <v>4.4</v>
+        <v>51.7</v>
       </c>
       <c r="F82" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>50.1</v>
       </c>
       <c r="H82" t="n">
-        <v>15</v>
+        <v>18.4</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L82" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B83" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C83" t="n">
         <v>68</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E83" t="n">
-        <v>4.1</v>
+        <v>50.6</v>
       </c>
       <c r="F83" t="n">
-        <v>1.6</v>
+        <v>9.1</v>
       </c>
       <c r="G83" t="n">
-        <v>4.8</v>
+        <v>50.8</v>
       </c>
       <c r="H83" t="n">
-        <v>7</v>
+        <v>19.3</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L83" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B84" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C84" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D84" t="n">
         <v>0.6</v>
       </c>
       <c r="E84" t="n">
-        <v>3.8</v>
+        <v>51.2</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>4.8</v>
+        <v>53</v>
       </c>
       <c r="H84" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="I84" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K84" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L84" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B85" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C85" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E85" t="n">
-        <v>4.3</v>
+        <v>51.5</v>
       </c>
       <c r="F85" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H85" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L85" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E86" t="n">
-        <v>4.2</v>
+        <v>50.2</v>
       </c>
       <c r="F86" t="n">
-        <v>2.4</v>
+        <v>9.1</v>
       </c>
       <c r="G86" t="n">
-        <v>5.1</v>
+        <v>52.7</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>19.2</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K86" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L86" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B87" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C87" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D87" t="n">
         <v>0.6</v>
       </c>
       <c r="E87" t="n">
-        <v>3.8</v>
+        <v>50.7</v>
       </c>
       <c r="F87" t="n">
-        <v>1.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>5.2</v>
+        <v>51.6</v>
       </c>
       <c r="H87" t="n">
-        <v>15</v>
+        <v>18.9</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L87" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B88" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C88" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D88" t="n">
         <v>0.6</v>
       </c>
       <c r="E88" t="n">
-        <v>4.1</v>
+        <v>55.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2.6</v>
+        <v>8.9</v>
       </c>
       <c r="G88" t="n">
-        <v>4.9</v>
+        <v>51.4</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>20.2</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K88" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L88" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B89" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C89" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D89" t="n">
         <v>0.6</v>
       </c>
       <c r="E89" t="n">
-        <v>4.3</v>
+        <v>49</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>5.3</v>
+        <v>52.8</v>
       </c>
       <c r="H89" t="n">
-        <v>12</v>
+        <v>20.2</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K89" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L89" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B90" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C90" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E90" t="n">
-        <v>4.2</v>
+        <v>52.4</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>50.9</v>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>20.2</v>
       </c>
       <c r="I90" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K90" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L90" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B91" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C91" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D91" t="n">
         <v>0.6</v>
       </c>
       <c r="E91" t="n">
-        <v>4.1</v>
+        <v>51.7</v>
       </c>
       <c r="F91" t="n">
-        <v>2.1</v>
+        <v>9.1</v>
       </c>
       <c r="G91" t="n">
-        <v>4.9</v>
+        <v>51.8</v>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>20.1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K91" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B92" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C92" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D92" t="n">
         <v>0.6</v>
       </c>
       <c r="E92" t="n">
-        <v>3.8</v>
+        <v>47.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1.9</v>
+        <v>9.1</v>
       </c>
       <c r="G92" t="n">
-        <v>5.2</v>
+        <v>51.1</v>
       </c>
       <c r="H92" t="n">
-        <v>9</v>
+        <v>21.1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K92" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L92" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B93" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C93" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E93" t="n">
-        <v>4.3</v>
+        <v>53.4</v>
       </c>
       <c r="F93" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>52.6</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>20.1</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K93" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L93" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C94" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E94" t="n">
-        <v>4.4</v>
+        <v>50.6</v>
       </c>
       <c r="F94" t="n">
-        <v>2.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>50.9</v>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>18.6</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K94" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L94" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B95" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D95" t="n">
         <v>0.6</v>
       </c>
       <c r="E95" t="n">
-        <v>4.1</v>
+        <v>47.1</v>
       </c>
       <c r="F95" t="n">
-        <v>2.1</v>
+        <v>9.6</v>
       </c>
       <c r="G95" t="n">
-        <v>4.9</v>
+        <v>50.8</v>
       </c>
       <c r="H95" t="n">
-        <v>10</v>
+        <v>20.5</v>
       </c>
       <c r="I95" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L95" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="B96" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D96" t="n">
         <v>0.6</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>46.7</v>
       </c>
       <c r="F96" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>50.1</v>
       </c>
       <c r="H96" t="n">
-        <v>10</v>
+        <v>20.9</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K96" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L96" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B97" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C97" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D97" t="n">
         <v>0.6</v>
       </c>
       <c r="E97" t="n">
-        <v>3.9</v>
+        <v>50.5</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G97" t="n">
-        <v>5.4</v>
+        <v>51.6</v>
       </c>
       <c r="H97" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L97" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E98" t="n">
-        <v>4.7</v>
+        <v>51</v>
       </c>
       <c r="F98" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="G98" t="n">
-        <v>5.1</v>
+        <v>51.4</v>
       </c>
       <c r="H98" t="n">
-        <v>10</v>
+        <v>21.2</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L98" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B99" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C99" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
+        <v>49.6</v>
       </c>
       <c r="F99" t="n">
-        <v>1.4</v>
+        <v>8.6</v>
       </c>
       <c r="G99" t="n">
-        <v>4.7</v>
+        <v>50.6</v>
       </c>
       <c r="H99" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K99" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L99" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B100" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C100" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D100" t="n">
         <v>0.5</v>
       </c>
       <c r="E100" t="n">
-        <v>4.4</v>
+        <v>43.1</v>
       </c>
       <c r="F100" t="n">
-        <v>1.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>4.7</v>
+        <v>52.7</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>18.8</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L100" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="B101" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C101" t="n">
         <v>61</v>
@@ -3969,138 +4271,150 @@
         <v>0.6</v>
       </c>
       <c r="E101" t="n">
-        <v>4.1</v>
+        <v>46.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>5.1</v>
+        <v>52.1</v>
       </c>
       <c r="H101" t="n">
-        <v>15</v>
+        <v>20.7</v>
       </c>
       <c r="I101" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L101" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="B102" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C102" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E102" t="n">
-        <v>4.3</v>
+        <v>48.9</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="G102" t="n">
-        <v>5.1</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>14</v>
+        <v>29.8</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L102" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B103" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C103" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D103" t="n">
         <v>0.6</v>
       </c>
       <c r="E103" t="n">
-        <v>4.1</v>
+        <v>50.5</v>
       </c>
       <c r="F103" t="n">
-        <v>1.8</v>
+        <v>7.6</v>
       </c>
       <c r="G103" t="n">
-        <v>5.2</v>
+        <v>94.2</v>
       </c>
       <c r="H103" t="n">
-        <v>8</v>
+        <v>31.1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L103" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B104" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C104" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E104" t="n">
-        <v>4.1</v>
+        <v>52.5</v>
       </c>
       <c r="F104" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="G104" t="n">
-        <v>5.4</v>
+        <v>94.3</v>
       </c>
       <c r="H104" t="n">
-        <v>14</v>
+        <v>28.4</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L104" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B105" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C105" t="n">
         <v>77</v>
@@ -4109,1640 +4423,1781 @@
         <v>0.6</v>
       </c>
       <c r="E105" t="n">
-        <v>3.5</v>
+        <v>49.6</v>
       </c>
       <c r="F105" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>29.8</v>
       </c>
       <c r="I105" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L105" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B106" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C106" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D106" t="n">
         <v>0.6</v>
       </c>
       <c r="E106" t="n">
-        <v>3.7</v>
+        <v>48.6</v>
       </c>
       <c r="F106" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="G106" t="n">
-        <v>5.2</v>
+        <v>94.8</v>
       </c>
       <c r="H106" t="n">
-        <v>8</v>
+        <v>30.1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L106" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B107" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C107" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D107" t="n">
         <v>0.6</v>
       </c>
       <c r="E107" t="n">
-        <v>3.8</v>
+        <v>46.1</v>
       </c>
       <c r="F107" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="G107" t="n">
-        <v>5.1</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L107" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B108" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C108" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E108" t="n">
-        <v>3.9</v>
+        <v>48.2</v>
       </c>
       <c r="F108" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="G108" t="n">
-        <v>5.1</v>
+        <v>94.8</v>
       </c>
       <c r="H108" t="n">
-        <v>5</v>
+        <v>30.7</v>
       </c>
       <c r="I108" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L108" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B109" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C109" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E109" t="n">
-        <v>3.8</v>
+        <v>50.4</v>
       </c>
       <c r="F109" t="n">
-        <v>1.7</v>
+        <v>7.3</v>
       </c>
       <c r="G109" t="n">
-        <v>4.7</v>
+        <v>95.3</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>30.5</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L109" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B110" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C110" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D110" t="n">
         <v>0.6</v>
       </c>
       <c r="E110" t="n">
-        <v>3.9</v>
+        <v>52.2</v>
       </c>
       <c r="F110" t="n">
-        <v>2.3</v>
+        <v>7.1</v>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>95.8</v>
       </c>
       <c r="H110" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I110" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L110" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="B111" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C111" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E111" t="n">
-        <v>3.7</v>
+        <v>48.1</v>
       </c>
       <c r="F111" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>95.5</v>
       </c>
       <c r="H111" t="n">
-        <v>12</v>
+        <v>29.7</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L111" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B112" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C112" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E112" t="n">
-        <v>3.7</v>
+        <v>53.5</v>
       </c>
       <c r="F112" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="G112" t="n">
-        <v>5.3</v>
+        <v>93</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>30.7</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L112" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B113" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C113" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E113" t="n">
-        <v>3.6</v>
+        <v>49.3</v>
       </c>
       <c r="F113" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="G113" t="n">
-        <v>4.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>30.9</v>
       </c>
       <c r="I113" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L113" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B114" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C114" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E114" t="n">
-        <v>4.3</v>
+        <v>52.8</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H114" t="n">
-        <v>13</v>
+        <v>30.4</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L114" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="B115" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C115" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E115" t="n">
-        <v>4.2</v>
+        <v>47</v>
       </c>
       <c r="F115" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="G115" t="n">
-        <v>5.3</v>
+        <v>97.2</v>
       </c>
       <c r="H115" t="n">
-        <v>12</v>
+        <v>28.4</v>
       </c>
       <c r="I115" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L115" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B116" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C116" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E116" t="n">
-        <v>4.3</v>
+        <v>47.7</v>
       </c>
       <c r="F116" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>93.8</v>
       </c>
       <c r="H116" t="n">
-        <v>8</v>
+        <v>28.3</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L116" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="B117" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C117" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E117" t="n">
-        <v>4.1</v>
+        <v>49.6</v>
       </c>
       <c r="F117" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="G117" t="n">
-        <v>4.8</v>
+        <v>97.8</v>
       </c>
       <c r="H117" t="n">
-        <v>14</v>
+        <v>28.3</v>
       </c>
       <c r="I117" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L117" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B118" t="n">
         <v>25</v>
       </c>
       <c r="C118" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E118" t="n">
-        <v>3.8</v>
+        <v>52.2</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="G118" t="n">
-        <v>5.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>14</v>
+        <v>30.6</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L118" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B119" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C119" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E119" t="n">
-        <v>3.9</v>
+        <v>51.9</v>
       </c>
       <c r="F119" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="G119" t="n">
-        <v>5.1</v>
+        <v>94.3</v>
       </c>
       <c r="H119" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I119" t="n">
         <v>15</v>
       </c>
-      <c r="I119" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J119" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L119" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B120" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C120" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D120" t="n">
         <v>0.6</v>
       </c>
       <c r="E120" t="n">
-        <v>4.3</v>
+        <v>55</v>
       </c>
       <c r="F120" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>94.2</v>
       </c>
       <c r="H120" t="n">
-        <v>15</v>
+        <v>28.6</v>
       </c>
       <c r="I120" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K120" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L120" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B121" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C121" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D121" t="n">
         <v>0.6</v>
       </c>
       <c r="E121" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G121" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="I121" t="n">
         <v>4</v>
       </c>
-      <c r="F121" t="n">
-        <v>2</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J121" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L121" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B122" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C122" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E122" t="n">
-        <v>4.3</v>
+        <v>49.8</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>93.7</v>
       </c>
       <c r="H122" t="n">
-        <v>13</v>
+        <v>30.4</v>
       </c>
       <c r="I122" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L122" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B123" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C123" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E123" t="n">
-        <v>3.5</v>
+        <v>50.1</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G123" t="n">
-        <v>5.1</v>
+        <v>95.7</v>
       </c>
       <c r="H123" t="n">
-        <v>4</v>
+        <v>27.8</v>
       </c>
       <c r="I123" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K123" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L123" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B124" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C124" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D124" t="n">
         <v>0.6</v>
       </c>
       <c r="E124" t="n">
-        <v>4.2</v>
+        <v>50.2</v>
       </c>
       <c r="F124" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="G124" t="n">
-        <v>4.8</v>
+        <v>95.5</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>29.3</v>
       </c>
       <c r="I124" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L124" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B125" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C125" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D125" t="n">
         <v>0.6</v>
       </c>
       <c r="E125" t="n">
-        <v>3.9</v>
+        <v>49.3</v>
       </c>
       <c r="F125" t="n">
-        <v>2.5</v>
+        <v>6.9</v>
       </c>
       <c r="G125" t="n">
-        <v>5.2</v>
+        <v>96.8</v>
       </c>
       <c r="H125" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="I125" t="n">
         <v>11</v>
       </c>
-      <c r="I125" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J125" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L125" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B126" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C126" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D126" t="n">
         <v>0.6</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F126" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="G126" t="n">
-        <v>4.6</v>
+        <v>94.8</v>
       </c>
       <c r="H126" t="n">
-        <v>11</v>
+        <v>29.5</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L126" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B127" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C127" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D127" t="n">
         <v>0.6</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>48.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="G127" t="n">
-        <v>4.9</v>
+        <v>95</v>
       </c>
       <c r="H127" t="n">
-        <v>7</v>
+        <v>30.1</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L127" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B128" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C128" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E128" t="n">
-        <v>3.7</v>
+        <v>48.7</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="G128" t="n">
-        <v>5.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>13</v>
+        <v>32.3</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L128" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B129" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C129" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E129" t="n">
-        <v>3.2</v>
+        <v>50.5</v>
       </c>
       <c r="F129" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>29.3</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L129" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B130" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C130" t="n">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D130" t="n">
         <v>0.6</v>
       </c>
       <c r="E130" t="n">
-        <v>4.4</v>
+        <v>49.1</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="G130" t="n">
-        <v>4.9</v>
+        <v>94.5</v>
       </c>
       <c r="H130" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="I130" t="n">
         <v>9</v>
       </c>
-      <c r="I130" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J130" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L130" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B131" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C131" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D131" t="n">
         <v>0.6</v>
       </c>
       <c r="E131" t="n">
-        <v>4.1</v>
+        <v>51.9</v>
       </c>
       <c r="F131" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="G131" t="n">
-        <v>5.1</v>
+        <v>95.5</v>
       </c>
       <c r="H131" t="n">
-        <v>6</v>
+        <v>30.3</v>
       </c>
       <c r="I131" t="n">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="J131" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K131" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L131" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B132" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C132" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E132" t="n">
-        <v>3.9</v>
+        <v>44.5</v>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="G132" t="n">
-        <v>5.3</v>
+        <v>95.8</v>
       </c>
       <c r="H132" t="n">
-        <v>13</v>
+        <v>28.3</v>
       </c>
       <c r="I132" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L132" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B133" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C133" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E133" t="n">
-        <v>4.1</v>
+        <v>48.7</v>
       </c>
       <c r="F133" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="G133" t="n">
-        <v>4.9</v>
+        <v>95.5</v>
       </c>
       <c r="H133" t="n">
-        <v>10</v>
+        <v>29.8</v>
       </c>
       <c r="I133" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L133" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B134" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C134" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E134" t="n">
-        <v>3.9</v>
+        <v>43.1</v>
       </c>
       <c r="F134" t="n">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="G134" t="n">
-        <v>5.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H134" t="n">
-        <v>9</v>
+        <v>30.5</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8</v>
+        <v>15</v>
       </c>
       <c r="J134" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L134" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B135" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C135" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E135" t="n">
-        <v>4.1</v>
+        <v>50.3</v>
       </c>
       <c r="F135" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="G135" t="n">
-        <v>5.1</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H135" t="n">
-        <v>11</v>
+        <v>29.6</v>
       </c>
       <c r="I135" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="J135" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K135" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L135" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="B136" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C136" t="n">
         <v>68</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E136" t="n">
-        <v>4.3</v>
+        <v>46.6</v>
       </c>
       <c r="F136" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="G136" t="n">
-        <v>4.8</v>
+        <v>94.3</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>29.2</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L136" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B137" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C137" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D137" t="n">
         <v>0.6</v>
       </c>
       <c r="E137" t="n">
-        <v>4.9</v>
+        <v>49.9</v>
       </c>
       <c r="F137" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="G137" t="n">
-        <v>5.2</v>
+        <v>93.8</v>
       </c>
       <c r="H137" t="n">
-        <v>11</v>
+        <v>28.9</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L137" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B138" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C138" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E138" t="n">
-        <v>3.7</v>
+        <v>51.8</v>
       </c>
       <c r="F138" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="G138" t="n">
-        <v>5.2</v>
+        <v>93.7</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>30.1</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="J138" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L138" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B139" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C139" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>55.6</v>
       </c>
       <c r="F139" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="G139" t="n">
-        <v>4.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H139" t="n">
-        <v>11</v>
+        <v>28.9</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="J139" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K139" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L139" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B140" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C140" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E140" t="n">
-        <v>4.3</v>
+        <v>50.5</v>
       </c>
       <c r="F140" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="G140" t="n">
-        <v>4.8</v>
+        <v>94</v>
       </c>
       <c r="H140" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="J140" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L140" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B141" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C141" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D141" t="n">
         <v>0.6</v>
       </c>
       <c r="E141" t="n">
-        <v>3.9</v>
+        <v>54.1</v>
       </c>
       <c r="F141" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="G141" t="n">
-        <v>5.2</v>
+        <v>94.8</v>
       </c>
       <c r="H141" t="n">
-        <v>10</v>
+        <v>29.8</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K141" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L141" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B142" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C142" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D142" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E142" t="n">
-        <v>4.1</v>
+        <v>52.4</v>
       </c>
       <c r="F142" t="n">
-        <v>2.3</v>
+        <v>7.6</v>
       </c>
       <c r="G142" t="n">
-        <v>5.1</v>
+        <v>96.5</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>29.4</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J142" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K142" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L142" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B143" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C143" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>52.1</v>
       </c>
       <c r="F143" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="G143" t="n">
-        <v>4.9</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H143" t="n">
-        <v>9</v>
+        <v>31.1</v>
       </c>
       <c r="I143" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K143" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L143" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B144" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C144" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D144" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E144" t="n">
-        <v>4.1</v>
+        <v>51.3</v>
       </c>
       <c r="F144" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="G144" t="n">
-        <v>5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H144" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K144" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L144" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B145" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C145" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D145" t="n">
         <v>0.6</v>
       </c>
       <c r="E145" t="n">
-        <v>4.4</v>
+        <v>45.4</v>
       </c>
       <c r="F145" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="G145" t="n">
-        <v>5.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>30.5</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K145" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L145" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B146" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C146" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E146" t="n">
-        <v>3.3</v>
+        <v>49.7</v>
       </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="G146" t="n">
-        <v>5.1</v>
+        <v>96</v>
       </c>
       <c r="H146" t="n">
-        <v>13</v>
+        <v>31.5</v>
       </c>
       <c r="I146" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J146" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K146" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L146" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B147" t="n">
         <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D147" t="n">
         <v>0.7</v>
       </c>
       <c r="E147" t="n">
-        <v>4.2</v>
+        <v>45.7</v>
       </c>
       <c r="F147" t="n">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="G147" t="n">
-        <v>4.9</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H147" t="n">
-        <v>4</v>
+        <v>31.9</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J147" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K147" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L147" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B148" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C148" t="n">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D148" t="n">
         <v>0.6</v>
       </c>
       <c r="E148" t="n">
-        <v>4.5</v>
+        <v>52.6</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="G148" t="n">
-        <v>5.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H148" t="n">
-        <v>13</v>
+        <v>31.7</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K148" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L148" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B149" t="n">
         <v>27</v>
       </c>
       <c r="C149" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D149" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
+        <v>51.6</v>
       </c>
       <c r="F149" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="G149" t="n">
-        <v>5.1</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H149" t="n">
+        <v>30</v>
+      </c>
+      <c r="I149" t="n">
         <v>2</v>
       </c>
-      <c r="I149" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J149" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L149" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B150" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D150" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E150" t="n">
-        <v>3.9</v>
+        <v>53</v>
       </c>
       <c r="F150" t="n">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="G150" t="n">
-        <v>4.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H150" t="n">
-        <v>15</v>
+        <v>31.3</v>
       </c>
       <c r="I150" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J150" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L150" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B151" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C151" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D151" t="n">
         <v>0.6</v>
       </c>
       <c r="E151" t="n">
-        <v>4.6</v>
+        <v>45.5</v>
       </c>
       <c r="F151" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="G151" t="n">
-        <v>5.3</v>
+        <v>97.2</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>29.2</v>
       </c>
       <c r="I151" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L151" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B152" t="n">
         <v>38</v>
@@ -5751,1742 +6206,1892 @@
         <v>79</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E152" t="n">
-        <v>4.1</v>
+        <v>54.8</v>
       </c>
       <c r="F152" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="G152" t="n">
-        <v>5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H152" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I152" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L152" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="B153" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C153" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D153" t="n">
         <v>0.6</v>
       </c>
       <c r="E153" t="n">
-        <v>3.9</v>
+        <v>52.6</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="G153" t="n">
-        <v>5.1</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H153" t="n">
-        <v>10</v>
+        <v>29.1</v>
       </c>
       <c r="I153" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="J153" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L153" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="B154" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C154" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D154" t="n">
         <v>0.6</v>
       </c>
       <c r="E154" t="n">
-        <v>3.8</v>
+        <v>47.4</v>
       </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G154" t="n">
-        <v>4.9</v>
+        <v>95.3</v>
       </c>
       <c r="H154" t="n">
-        <v>13</v>
+        <v>28.1</v>
       </c>
       <c r="I154" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="J154" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L154" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B155" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C155" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D155" t="n">
         <v>0.6</v>
       </c>
       <c r="E155" t="n">
-        <v>3.9</v>
+        <v>54</v>
       </c>
       <c r="F155" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="G155" t="n">
-        <v>4.6</v>
+        <v>95.5</v>
       </c>
       <c r="H155" t="n">
-        <v>8</v>
+        <v>30.4</v>
       </c>
       <c r="I155" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K155" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L155" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B156" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C156" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D156" t="n">
         <v>0.6</v>
       </c>
       <c r="E156" t="n">
-        <v>4.6</v>
+        <v>49.8</v>
       </c>
       <c r="F156" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="G156" t="n">
-        <v>4.9</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>30.5</v>
       </c>
       <c r="I156" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J156" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L156" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B157" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C157" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E157" t="n">
-        <v>4.2</v>
+        <v>48.3</v>
       </c>
       <c r="F157" t="n">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="G157" t="n">
-        <v>4.9</v>
+        <v>95</v>
       </c>
       <c r="H157" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I157" t="n">
         <v>9</v>
       </c>
-      <c r="I157" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J157" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K157" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L157" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B158" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C158" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D158" t="n">
         <v>0.6</v>
       </c>
       <c r="E158" t="n">
-        <v>3.7</v>
+        <v>43.2</v>
       </c>
       <c r="F158" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="G158" t="n">
-        <v>5.4</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H158" t="n">
-        <v>7</v>
+        <v>30.3</v>
       </c>
       <c r="I158" t="n">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="J158" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K158" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L158" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B159" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C159" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E159" t="n">
-        <v>3.7</v>
+        <v>46.7</v>
       </c>
       <c r="F159" t="n">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>93.8</v>
       </c>
       <c r="H159" t="n">
-        <v>9</v>
+        <v>32.1</v>
       </c>
       <c r="I159" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
       <c r="J159" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K159" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L159" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B160" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C160" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D160" t="n">
         <v>0.6</v>
       </c>
       <c r="E160" t="n">
-        <v>3.7</v>
+        <v>52.6</v>
       </c>
       <c r="F160" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="G160" t="n">
-        <v>4.6</v>
+        <v>95.3</v>
       </c>
       <c r="H160" t="n">
-        <v>15</v>
+        <v>30.7</v>
       </c>
       <c r="I160" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="J160" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L160" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B161" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C161" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D161" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E161" t="n">
-        <v>4.4</v>
+        <v>46.4</v>
       </c>
       <c r="F161" t="n">
-        <v>2.1</v>
+        <v>7.1</v>
       </c>
       <c r="G161" t="n">
-        <v>4.9</v>
+        <v>94.2</v>
       </c>
       <c r="H161" t="n">
-        <v>7</v>
+        <v>29.1</v>
       </c>
       <c r="I161" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K161" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L161" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B162" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C162" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E162" t="n">
-        <v>4.2</v>
+        <v>54.6</v>
       </c>
       <c r="F162" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="G162" t="n">
-        <v>5.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H162" t="n">
-        <v>4</v>
+        <v>30.8</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="J162" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L162" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B163" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C163" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E163" t="n">
-        <v>3.7</v>
+        <v>48.7</v>
       </c>
       <c r="F163" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="G163" t="n">
-        <v>5.2</v>
+        <v>94.3</v>
       </c>
       <c r="H163" t="n">
-        <v>14</v>
+        <v>29.8</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
       <c r="J163" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K163" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L163" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B164" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C164" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D164" t="n">
         <v>0.6</v>
       </c>
       <c r="E164" t="n">
-        <v>3.5</v>
+        <v>52.8</v>
       </c>
       <c r="F164" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H164" t="n">
-        <v>4</v>
+        <v>30.2</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K164" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L164" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="B165" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C165" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D165" t="n">
         <v>0.6</v>
       </c>
       <c r="E165" t="n">
-        <v>3.8</v>
+        <v>43.3</v>
       </c>
       <c r="F165" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="G165" t="n">
-        <v>5.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H165" t="n">
-        <v>4</v>
+        <v>29.8</v>
       </c>
       <c r="I165" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L165" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B166" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C166" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E166" t="n">
-        <v>3.9</v>
+        <v>51.4</v>
       </c>
       <c r="F166" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="G166" t="n">
-        <v>5.1</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H166" t="n">
-        <v>9</v>
+        <v>29.6</v>
       </c>
       <c r="I166" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J166" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L166" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B167" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C167" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D167" t="n">
         <v>0.6</v>
       </c>
       <c r="E167" t="n">
-        <v>4.2</v>
+        <v>49.8</v>
       </c>
       <c r="F167" t="n">
-        <v>1.6</v>
+        <v>7.7</v>
       </c>
       <c r="G167" t="n">
-        <v>5.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>29.1</v>
       </c>
       <c r="I167" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="J167" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K167" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L167" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B168" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D168" t="n">
         <v>0.6</v>
       </c>
       <c r="E168" t="n">
-        <v>3.8</v>
+        <v>50.3</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="G168" t="n">
-        <v>5.1</v>
+        <v>95.7</v>
       </c>
       <c r="H168" t="n">
-        <v>15</v>
+        <v>30.1</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L168" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B169" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C169" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D169" t="n">
         <v>0.6</v>
       </c>
       <c r="E169" t="n">
-        <v>4.3</v>
+        <v>39.2</v>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="G169" t="n">
-        <v>5.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>29.6</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9</v>
+        <v>14</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L169" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B170" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C170" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E170" t="n">
-        <v>4.3</v>
+        <v>51.2</v>
       </c>
       <c r="F170" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="G170" t="n">
-        <v>4.8</v>
+        <v>94.5</v>
       </c>
       <c r="H170" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J170" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K170" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L170" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="B171" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C171" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E171" t="n">
-        <v>3.8</v>
+        <v>56.4</v>
       </c>
       <c r="F171" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="G171" t="n">
-        <v>5.2</v>
+        <v>96</v>
       </c>
       <c r="H171" t="n">
-        <v>11</v>
+        <v>30.6</v>
       </c>
       <c r="I171" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K171" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L171" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B172" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C172" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E172" t="n">
-        <v>3.6</v>
+        <v>53.6</v>
       </c>
       <c r="F172" t="n">
-        <v>2.2</v>
+        <v>6.9</v>
       </c>
       <c r="G172" t="n">
-        <v>5.2</v>
+        <v>93</v>
       </c>
       <c r="H172" t="n">
-        <v>14</v>
+        <v>31.9</v>
       </c>
       <c r="I172" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J172" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K172" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L172" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B173" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C173" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E173" t="n">
-        <v>4.2</v>
+        <v>45</v>
       </c>
       <c r="F173" t="n">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="G173" t="n">
-        <v>4.8</v>
+        <v>94.2</v>
       </c>
       <c r="H173" t="n">
-        <v>9</v>
+        <v>27.5</v>
       </c>
       <c r="I173" t="n">
-        <v>0.8</v>
+        <v>13</v>
       </c>
       <c r="J173" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K173" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L173" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B174" t="n">
+        <v>35</v>
+      </c>
+      <c r="C174" t="n">
+        <v>76</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E174" t="n">
+        <v>51</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G174" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="H174" t="n">
         <v>32</v>
       </c>
-      <c r="C174" t="n">
-        <v>68</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E174" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G174" t="n">
-        <v>5</v>
-      </c>
-      <c r="H174" t="n">
-        <v>5</v>
-      </c>
       <c r="I174" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K174" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L174" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B175" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C175" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D175" t="n">
         <v>0.6</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>51.4</v>
       </c>
       <c r="F175" t="n">
-        <v>2.4</v>
+        <v>7.4</v>
       </c>
       <c r="G175" t="n">
-        <v>4.9</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H175" t="n">
-        <v>7</v>
+        <v>29.2</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L175" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B176" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C176" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D176" t="n">
         <v>0.6</v>
       </c>
       <c r="E176" t="n">
-        <v>3.9</v>
+        <v>50.9</v>
       </c>
       <c r="F176" t="n">
-        <v>1.8</v>
+        <v>7.3</v>
       </c>
       <c r="G176" t="n">
-        <v>4.7</v>
+        <v>94.7</v>
       </c>
       <c r="H176" t="n">
-        <v>10</v>
+        <v>28.5</v>
       </c>
       <c r="I176" t="n">
-        <v>0.8</v>
+        <v>11</v>
       </c>
       <c r="J176" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L176" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B177" t="n">
         <v>28</v>
       </c>
       <c r="C177" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E177" t="n">
-        <v>3.9</v>
+        <v>52</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G177" t="n">
-        <v>4.8</v>
+        <v>94.5</v>
       </c>
       <c r="H177" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I177" t="n">
-        <v>0.9</v>
+        <v>13</v>
       </c>
       <c r="J177" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L177" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B178" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C178" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D178" t="n">
         <v>0.6</v>
       </c>
       <c r="E178" t="n">
-        <v>3.7</v>
+        <v>47.6</v>
       </c>
       <c r="F178" t="n">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="G178" t="n">
-        <v>4.9</v>
+        <v>93.3</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>31.3</v>
       </c>
       <c r="I178" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="J178" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L178" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B179" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C179" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D179" t="n">
         <v>0.6</v>
       </c>
       <c r="E179" t="n">
-        <v>4</v>
+        <v>47.1</v>
       </c>
       <c r="F179" t="n">
-        <v>2.2</v>
+        <v>6.8</v>
       </c>
       <c r="G179" t="n">
-        <v>5.3</v>
+        <v>94.2</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>30.2</v>
       </c>
       <c r="I179" t="n">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="J179" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K179" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L179" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B180" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C180" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D180" t="n">
         <v>0.6</v>
       </c>
       <c r="E180" t="n">
-        <v>3.9</v>
+        <v>43.2</v>
       </c>
       <c r="F180" t="n">
-        <v>2.2</v>
+        <v>6.9</v>
       </c>
       <c r="G180" t="n">
-        <v>5.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H180" t="n">
-        <v>9</v>
+        <v>28.8</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J180" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K180" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L180" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B181" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C181" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E181" t="n">
-        <v>4.3</v>
+        <v>55.4</v>
       </c>
       <c r="F181" t="n">
-        <v>2.3</v>
+        <v>7.3</v>
       </c>
       <c r="G181" t="n">
-        <v>4.9</v>
+        <v>93.3</v>
       </c>
       <c r="H181" t="n">
-        <v>7</v>
+        <v>28.9</v>
       </c>
       <c r="I181" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="J181" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K181" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L181" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B182" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C182" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D182" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E182" t="n">
-        <v>3.9</v>
+        <v>48.2</v>
       </c>
       <c r="F182" t="n">
-        <v>2.6</v>
+        <v>6.9</v>
       </c>
       <c r="G182" t="n">
-        <v>4.9</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H182" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="I182" t="n">
         <v>12</v>
       </c>
-      <c r="I182" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J182" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K182" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L182" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B183" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C183" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D183" t="n">
         <v>0.7</v>
       </c>
       <c r="E183" t="n">
-        <v>4.1</v>
+        <v>50</v>
       </c>
       <c r="F183" t="n">
-        <v>2.5</v>
+        <v>6.9</v>
       </c>
       <c r="G183" t="n">
-        <v>5.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H183" t="n">
-        <v>12</v>
+        <v>29.5</v>
       </c>
       <c r="I183" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="J183" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K183" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L183" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B184" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C184" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D184" t="n">
         <v>0.6</v>
       </c>
       <c r="E184" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F184" t="n">
-        <v>2.1</v>
+        <v>6.9</v>
       </c>
       <c r="G184" t="n">
-        <v>4.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H184" t="n">
-        <v>10</v>
+        <v>29.5</v>
       </c>
       <c r="I184" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J184" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K184" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L184" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B185" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C185" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E185" t="n">
-        <v>4</v>
+        <v>49.7</v>
       </c>
       <c r="F185" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="G185" t="n">
-        <v>4.7</v>
+        <v>94.7</v>
       </c>
       <c r="H185" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I185" t="n">
         <v>3</v>
       </c>
-      <c r="I185" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J185" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K185" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L185" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B186" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C186" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D186" t="n">
         <v>0.6</v>
       </c>
       <c r="E186" t="n">
-        <v>3.6</v>
+        <v>53</v>
       </c>
       <c r="F186" t="n">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="G186" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H186" t="n">
-        <v>8</v>
+        <v>29.3</v>
       </c>
       <c r="I186" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="J186" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K186" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L186" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B187" t="n">
         <v>33</v>
       </c>
       <c r="C187" t="n">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D187" t="n">
         <v>0.6</v>
       </c>
       <c r="E187" t="n">
-        <v>3.9</v>
+        <v>49.9</v>
       </c>
       <c r="F187" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="G187" t="n">
-        <v>5</v>
+        <v>93.5</v>
       </c>
       <c r="H187" t="n">
-        <v>7</v>
+        <v>32.1</v>
       </c>
       <c r="I187" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="J187" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K187" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L187" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B188" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C188" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E188" t="n">
-        <v>4.3</v>
+        <v>52.2</v>
       </c>
       <c r="F188" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="G188" t="n">
-        <v>5.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>31.1</v>
       </c>
       <c r="I188" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="J188" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L188" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B189" t="n">
         <v>24</v>
       </c>
       <c r="C189" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D189" t="n">
         <v>0.6</v>
       </c>
       <c r="E189" t="n">
-        <v>4</v>
+        <v>52.3</v>
       </c>
       <c r="F189" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="G189" t="n">
-        <v>5.1</v>
+        <v>94</v>
       </c>
       <c r="H189" t="n">
-        <v>5</v>
+        <v>31.2</v>
       </c>
       <c r="I189" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="J189" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K189" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L189" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="B190" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C190" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D190" t="n">
         <v>0.6</v>
       </c>
       <c r="E190" t="n">
-        <v>4.2</v>
+        <v>49</v>
       </c>
       <c r="F190" t="n">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="G190" t="n">
-        <v>5.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H190" t="n">
-        <v>15</v>
+        <v>29.7</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="J190" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L190" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="B191" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C191" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D191" t="n">
         <v>0.7</v>
       </c>
       <c r="E191" t="n">
-        <v>4</v>
+        <v>48.4</v>
       </c>
       <c r="F191" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="G191" t="n">
-        <v>5.4</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H191" t="n">
-        <v>13</v>
+        <v>30.7</v>
       </c>
       <c r="I191" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J191" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K191" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L191" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B192" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C192" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D192" t="n">
         <v>0.6</v>
       </c>
       <c r="E192" t="n">
-        <v>4.3</v>
+        <v>48.6</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="G192" t="n">
-        <v>4.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H192" t="n">
-        <v>7</v>
+        <v>30.7</v>
       </c>
       <c r="I192" t="n">
-        <v>0.9</v>
+        <v>11</v>
       </c>
       <c r="J192" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K192" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L192" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="B193" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C193" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D193" t="n">
         <v>0.6</v>
       </c>
       <c r="E193" t="n">
-        <v>4.2</v>
+        <v>54.4</v>
       </c>
       <c r="F193" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="G193" t="n">
-        <v>5.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H193" t="n">
-        <v>11</v>
+        <v>29.9</v>
       </c>
       <c r="I193" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K193" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L193" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B194" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C194" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D194" t="n">
         <v>0.6</v>
       </c>
       <c r="E194" t="n">
-        <v>3.9</v>
+        <v>49.4</v>
       </c>
       <c r="F194" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H194" t="n">
-        <v>13</v>
+        <v>28.9</v>
       </c>
       <c r="I194" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="J194" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L194" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B195" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C195" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D195" t="n">
         <v>0.5</v>
       </c>
       <c r="E195" t="n">
-        <v>4.1</v>
+        <v>45.3</v>
       </c>
       <c r="F195" t="n">
-        <v>2.2</v>
+        <v>7.9</v>
       </c>
       <c r="G195" t="n">
-        <v>5.2</v>
+        <v>95.2</v>
       </c>
       <c r="H195" t="n">
-        <v>6</v>
+        <v>29.5</v>
       </c>
       <c r="I195" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="J195" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L195" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B196" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C196" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D196" t="n">
         <v>0.6</v>
       </c>
       <c r="E196" t="n">
-        <v>3.9</v>
+        <v>46.7</v>
       </c>
       <c r="F196" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="G196" t="n">
-        <v>4.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H196" t="n">
-        <v>11</v>
+        <v>29.5</v>
       </c>
       <c r="I196" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="J196" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L196" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="B197" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C197" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E197" t="n">
-        <v>3.9</v>
+        <v>48.1</v>
       </c>
       <c r="F197" t="n">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="G197" t="n">
-        <v>4.4</v>
+        <v>94.3</v>
       </c>
       <c r="H197" t="n">
-        <v>6</v>
+        <v>29.1</v>
       </c>
       <c r="I197" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J197" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L197" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B198" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C198" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E198" t="n">
-        <v>4.8</v>
+        <v>51.4</v>
       </c>
       <c r="F198" t="n">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="G198" t="n">
-        <v>5.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>28.7</v>
       </c>
       <c r="I198" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="J198" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L198" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B199" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C199" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D199" t="n">
         <v>0.6</v>
       </c>
       <c r="E199" t="n">
-        <v>3.8</v>
+        <v>48.3</v>
       </c>
       <c r="F199" t="n">
-        <v>2.4</v>
+        <v>6.9</v>
       </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>95.2</v>
       </c>
       <c r="H199" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="J199" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="K199" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L199" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="B200" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C200" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
+        <v>53.6</v>
       </c>
       <c r="F200" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="G200" t="n">
-        <v>4.7</v>
+        <v>93.3</v>
       </c>
       <c r="H200" t="n">
-        <v>11</v>
+        <v>28.8</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="J200" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K200" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L200" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="B201" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C201" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E201" t="n">
-        <v>4.3</v>
+        <v>51.8</v>
       </c>
       <c r="F201" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="G201" t="n">
-        <v>4.7</v>
+        <v>95.3</v>
       </c>
       <c r="H201" t="n">
-        <v>7</v>
+        <v>28.9</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="J201" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="K201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L201" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/需求响应/data/Taxi.xlsx
+++ b/需求响应/data/Taxi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,28 +497,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" t="n">
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
       </c>
       <c r="E2" t="n">
-        <v>40.4</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="G2" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="H2" t="n">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="I2" t="n">
         <v>13</v>
@@ -535,31 +535,31 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>43.4</v>
+        <v>41.6</v>
       </c>
       <c r="F3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>50.4</v>
+        <v>51.8</v>
       </c>
       <c r="H3" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>0.9</v>
@@ -573,34 +573,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>43.3</v>
+        <v>41.7</v>
       </c>
       <c r="F4" t="n">
         <v>8.5</v>
       </c>
       <c r="G4" t="n">
-        <v>49</v>
+        <v>52.5</v>
       </c>
       <c r="H4" t="n">
-        <v>20.9</v>
+        <v>18.4</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.4</v>
@@ -614,25 +614,25 @@
         <v>62</v>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
         <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>40.9</v>
       </c>
       <c r="F5" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>51.7</v>
+        <v>51</v>
       </c>
       <c r="H5" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
@@ -649,28 +649,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="n">
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" t="n">
         <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>40.9</v>
+        <v>39.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
         <v>52.4</v>
       </c>
       <c r="H6" t="n">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -687,34 +687,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="F7" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="G7" t="n">
-        <v>53.3</v>
+        <v>52.7</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.4</v>
@@ -725,31 +725,31 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
         <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>42.3</v>
+        <v>38.4</v>
       </c>
       <c r="F8" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="G8" t="n">
-        <v>50.3</v>
+        <v>51.2</v>
       </c>
       <c r="H8" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>0.8</v>
@@ -763,31 +763,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" t="n">
         <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>38.1</v>
+        <v>39.5</v>
       </c>
       <c r="F9" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>51.4</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
-        <v>18.7</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>0.8</v>
@@ -804,31 +804,31 @@
         <v>62</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>81</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>37.2</v>
+        <v>39.7</v>
       </c>
       <c r="F10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="H10" t="n">
-        <v>19.7</v>
+        <v>21.4</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K10" t="n">
         <v>0.4</v>
@@ -845,25 +845,25 @@
         <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" t="n">
         <v>0.6</v>
       </c>
       <c r="E11" t="n">
-        <v>38.7</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="G11" t="n">
-        <v>50.8</v>
+        <v>49.9</v>
       </c>
       <c r="H11" t="n">
-        <v>20.2</v>
+        <v>20.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
         <v>0.8</v>
@@ -877,34 +877,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" t="n">
         <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
         <v>0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>40.1</v>
+        <v>38.1</v>
       </c>
       <c r="F12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G12" t="n">
-        <v>51.7</v>
+        <v>52.7</v>
       </c>
       <c r="H12" t="n">
-        <v>20.4</v>
+        <v>22.6</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.4</v>
@@ -915,31 +915,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" t="n">
         <v>0.6</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>39.6</v>
       </c>
       <c r="F13" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="G13" t="n">
-        <v>53.2</v>
+        <v>50.8</v>
       </c>
       <c r="H13" t="n">
         <v>20.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>0.9</v>
@@ -959,25 +959,25 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
         <v>0.7</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>43.4</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="H14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>0.8</v>
@@ -991,31 +991,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>36</v>
+        <v>42.4</v>
       </c>
       <c r="F15" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>52.6</v>
+        <v>52.1</v>
       </c>
       <c r="H15" t="n">
-        <v>16.9</v>
+        <v>19.8</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
         <v>0.8</v>
@@ -1032,28 +1032,28 @@
         <v>61</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
         <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>40.9</v>
+        <v>36.8</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G16" t="n">
-        <v>53.2</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
-        <v>22.2</v>
+        <v>19.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
         <v>0.8</v>
@@ -1067,34 +1067,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>42.1</v>
+        <v>41.7</v>
       </c>
       <c r="F17" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>52.8</v>
+        <v>51.2</v>
       </c>
       <c r="H17" t="n">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.4</v>
@@ -1105,34 +1105,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>39.4</v>
+        <v>39.8</v>
       </c>
       <c r="F18" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="G18" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="H18" t="n">
-        <v>20.6</v>
+        <v>19.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.4</v>
@@ -1143,34 +1143,34 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n">
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" t="n">
         <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>40.3</v>
+        <v>39.9</v>
       </c>
       <c r="F19" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>52.5</v>
+        <v>51.3</v>
       </c>
       <c r="H19" t="n">
-        <v>19.4</v>
+        <v>20.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K19" t="n">
         <v>0.4</v>
@@ -1181,31 +1181,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>38.1</v>
+        <v>36.6</v>
       </c>
       <c r="F20" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="G20" t="n">
-        <v>51.1</v>
+        <v>52.5</v>
       </c>
       <c r="H20" t="n">
-        <v>20.9</v>
+        <v>17.4</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
         <v>0.9</v>
@@ -1222,28 +1222,28 @@
         <v>61</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>81</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>40.1</v>
+        <v>41.3</v>
       </c>
       <c r="F21" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="G21" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="H21" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
         <v>0.9</v>
@@ -1257,31 +1257,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="n">
         <v>23</v>
       </c>
       <c r="C22" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" t="n">
         <v>0.6</v>
       </c>
       <c r="E22" t="n">
-        <v>39.2</v>
+        <v>38.4</v>
       </c>
       <c r="F22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G22" t="n">
-        <v>50.3</v>
+        <v>51.8</v>
       </c>
       <c r="H22" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>0.9</v>
@@ -1304,22 +1304,22 @@
         <v>81</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E23" t="n">
-        <v>35.8</v>
+        <v>40.5</v>
       </c>
       <c r="F23" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="G23" t="n">
-        <v>52.8</v>
+        <v>50.8</v>
       </c>
       <c r="H23" t="n">
-        <v>20.1</v>
+        <v>19.4</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>0.8</v>
@@ -1333,34 +1333,34 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E24" t="n">
-        <v>42.3</v>
+        <v>39.4</v>
       </c>
       <c r="F24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>52.8</v>
+        <v>51.6</v>
       </c>
       <c r="H24" t="n">
-        <v>19.7</v>
+        <v>18.3</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K24" t="n">
         <v>0.4</v>
@@ -1374,31 +1374,31 @@
         <v>62</v>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D25" t="n">
         <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>43.7</v>
+        <v>36.8</v>
       </c>
       <c r="F25" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="H25" t="n">
-        <v>19</v>
+        <v>20.6</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K25" t="n">
         <v>0.4</v>
@@ -1409,28 +1409,28 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D26" t="n">
         <v>0.6</v>
       </c>
       <c r="E26" t="n">
-        <v>38.3</v>
+        <v>37.2</v>
       </c>
       <c r="F26" t="n">
         <v>8.5</v>
       </c>
       <c r="G26" t="n">
-        <v>51.2</v>
+        <v>53</v>
       </c>
       <c r="H26" t="n">
-        <v>20.1</v>
+        <v>19.4</v>
       </c>
       <c r="I26" t="n">
         <v>14</v>
@@ -1447,31 +1447,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" t="n">
         <v>0.6</v>
       </c>
       <c r="E27" t="n">
-        <v>39.1</v>
+        <v>41</v>
       </c>
       <c r="F27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="G27" t="n">
-        <v>50.2</v>
+        <v>51.4</v>
       </c>
       <c r="H27" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
         <v>0.8</v>
@@ -1485,31 +1485,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="n">
         <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" t="n">
         <v>0.6</v>
       </c>
       <c r="E28" t="n">
-        <v>39.4</v>
+        <v>40.7</v>
       </c>
       <c r="F28" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="G28" t="n">
-        <v>51.6</v>
+        <v>51.4</v>
       </c>
       <c r="H28" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>0.8</v>
@@ -1529,28 +1529,28 @@
         <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D29" t="n">
         <v>0.6</v>
       </c>
       <c r="E29" t="n">
-        <v>38.3</v>
+        <v>40.8</v>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>53.2</v>
+        <v>52</v>
       </c>
       <c r="H29" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K29" t="n">
         <v>0.4</v>
@@ -1561,31 +1561,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" t="n">
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>41.7</v>
+        <v>38.4</v>
       </c>
       <c r="F30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="H30" t="n">
-        <v>20.7</v>
+        <v>18.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
         <v>0.9</v>
@@ -1599,34 +1599,34 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
         <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E31" t="n">
-        <v>39.1</v>
+        <v>39.7</v>
       </c>
       <c r="F31" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>51.7</v>
+        <v>52.5</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.4</v>
@@ -1637,31 +1637,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" t="n">
         <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>40.4</v>
+        <v>41.9</v>
       </c>
       <c r="F32" t="n">
         <v>8.9</v>
       </c>
       <c r="G32" t="n">
-        <v>50.9</v>
+        <v>51.5</v>
       </c>
       <c r="H32" t="n">
-        <v>18.5</v>
+        <v>21.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>0.9</v>
@@ -1675,31 +1675,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" t="n">
         <v>0.6</v>
       </c>
       <c r="E33" t="n">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
       <c r="F33" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="G33" t="n">
-        <v>51.4</v>
+        <v>52.2</v>
       </c>
       <c r="H33" t="n">
-        <v>21.9</v>
+        <v>18.4</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
         <v>0.8</v>
@@ -1719,28 +1719,28 @@
         <v>24</v>
       </c>
       <c r="C34" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E34" t="n">
-        <v>40.6</v>
+        <v>40.1</v>
       </c>
       <c r="F34" t="n">
         <v>8.6</v>
       </c>
       <c r="G34" t="n">
-        <v>51.5</v>
+        <v>50.1</v>
       </c>
       <c r="H34" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K34" t="n">
         <v>0.4</v>
@@ -1754,31 +1754,31 @@
         <v>62</v>
       </c>
       <c r="B35" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" t="n">
         <v>0.7</v>
       </c>
       <c r="E35" t="n">
-        <v>39.6</v>
+        <v>36.9</v>
       </c>
       <c r="F35" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G35" t="n">
-        <v>50.6</v>
+        <v>52.6</v>
       </c>
       <c r="H35" t="n">
-        <v>20.4</v>
+        <v>19.1</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K35" t="n">
         <v>0.4</v>
@@ -1789,13 +1789,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" t="n">
         <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D36" t="n">
         <v>0.6</v>
@@ -1807,13 +1807,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>51.8</v>
+        <v>51</v>
       </c>
       <c r="H36" t="n">
         <v>19.7</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>0.8</v>
@@ -1827,31 +1827,31 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E37" t="n">
-        <v>39.5</v>
+        <v>38.1</v>
       </c>
       <c r="F37" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>52.4</v>
+        <v>51.8</v>
       </c>
       <c r="H37" t="n">
-        <v>20.7</v>
+        <v>19.8</v>
       </c>
       <c r="I37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
         <v>0.8</v>
@@ -1868,22 +1868,22 @@
         <v>62</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E38" t="n">
-        <v>40.2</v>
+        <v>36.9</v>
       </c>
       <c r="F38" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>52.2</v>
+        <v>51.9</v>
       </c>
       <c r="H38" t="n">
         <v>20.4</v>
@@ -1903,31 +1903,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="n">
         <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D39" t="n">
         <v>0.6</v>
       </c>
       <c r="E39" t="n">
-        <v>39.1</v>
+        <v>40.8</v>
       </c>
       <c r="F39" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="H39" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J39" t="n">
         <v>0.8</v>
@@ -1941,34 +1941,34 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
       </c>
       <c r="E40" t="n">
-        <v>44.5</v>
+        <v>38.5</v>
       </c>
       <c r="F40" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>50.8</v>
+        <v>52</v>
       </c>
       <c r="H40" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K40" t="n">
         <v>0.4</v>
@@ -1982,28 +1982,28 @@
         <v>62</v>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
       </c>
       <c r="E41" t="n">
-        <v>39.6</v>
+        <v>38.6</v>
       </c>
       <c r="F41" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>50.5</v>
+        <v>51.2</v>
       </c>
       <c r="H41" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
         <v>0.8</v>
@@ -2017,31 +2017,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="n">
         <v>24</v>
       </c>
       <c r="C42" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D42" t="n">
         <v>0.6</v>
       </c>
       <c r="E42" t="n">
-        <v>40.6</v>
+        <v>37.9</v>
       </c>
       <c r="F42" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>52.2</v>
+        <v>50.6</v>
       </c>
       <c r="H42" t="n">
-        <v>20.3</v>
+        <v>18.8</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J42" t="n">
         <v>0.8</v>
@@ -2061,28 +2061,28 @@
         <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E43" t="n">
-        <v>41.1</v>
+        <v>39</v>
       </c>
       <c r="F43" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>51.4</v>
+        <v>53</v>
       </c>
       <c r="H43" t="n">
-        <v>20.7</v>
+        <v>18.9</v>
       </c>
       <c r="I43" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K43" t="n">
         <v>0.4</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
         <v>24</v>
@@ -2105,19 +2105,19 @@
         <v>0.6</v>
       </c>
       <c r="E44" t="n">
-        <v>36.9</v>
+        <v>41.3</v>
       </c>
       <c r="F44" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>51.6</v>
+        <v>51</v>
       </c>
       <c r="H44" t="n">
-        <v>19.9</v>
+        <v>19.3</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
         <v>0.9</v>
@@ -2134,31 +2134,31 @@
         <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
-        <v>39.8</v>
+        <v>37.1</v>
       </c>
       <c r="F45" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>51.5</v>
+        <v>49.9</v>
       </c>
       <c r="H45" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K45" t="n">
         <v>0.4</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="n">
         <v>24</v>
@@ -2181,22 +2181,22 @@
         <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>38</v>
+        <v>39.8</v>
       </c>
       <c r="F46" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="G46" t="n">
-        <v>50.3</v>
+        <v>52</v>
       </c>
       <c r="H46" t="n">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K46" t="n">
         <v>0.4</v>
@@ -2207,34 +2207,34 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" t="n">
         <v>0.6</v>
       </c>
       <c r="E47" t="n">
-        <v>43.5</v>
+        <v>38.8</v>
       </c>
       <c r="F47" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="H47" t="n">
-        <v>19.2</v>
+        <v>20.5</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K47" t="n">
         <v>0.4</v>
@@ -2245,31 +2245,31 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E48" t="n">
-        <v>41.8</v>
+        <v>38.9</v>
       </c>
       <c r="F48" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>51.4</v>
+        <v>52.3</v>
       </c>
       <c r="H48" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J48" t="n">
         <v>0.9</v>
@@ -2286,28 +2286,28 @@
         <v>62</v>
       </c>
       <c r="B49" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C49" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D49" t="n">
         <v>0.6</v>
       </c>
       <c r="E49" t="n">
-        <v>42.7</v>
+        <v>38.1</v>
       </c>
       <c r="F49" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>52.4</v>
+        <v>51.8</v>
       </c>
       <c r="H49" t="n">
         <v>20.6</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
         <v>0.8</v>
@@ -2321,31 +2321,31 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D50" t="n">
         <v>0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>38.9</v>
+        <v>42.7</v>
       </c>
       <c r="F50" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="G50" t="n">
-        <v>51.9</v>
+        <v>51.5</v>
       </c>
       <c r="H50" t="n">
-        <v>18.5</v>
+        <v>20.2</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
         <v>0.9</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" t="n">
         <v>23</v>
@@ -2371,19 +2371,19 @@
         <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>42.1</v>
+        <v>40</v>
       </c>
       <c r="F51" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G51" t="n">
-        <v>50.7</v>
+        <v>50.3</v>
       </c>
       <c r="H51" t="n">
-        <v>20.4</v>
+        <v>19.6</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>0.9</v>
@@ -2397,31 +2397,31 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B52" t="n">
         <v>26</v>
       </c>
       <c r="C52" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D52" t="n">
         <v>0.6</v>
       </c>
       <c r="E52" t="n">
-        <v>40.8</v>
+        <v>38</v>
       </c>
       <c r="F52" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="G52" t="n">
-        <v>94.40000000000001</v>
+        <v>53.5</v>
       </c>
       <c r="H52" t="n">
-        <v>29.5</v>
+        <v>18.5</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
         <v>0.8</v>
@@ -2435,34 +2435,34 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B53" t="n">
         <v>23</v>
       </c>
       <c r="C53" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D53" t="n">
         <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="G53" t="n">
-        <v>94.2</v>
+        <v>50.6</v>
       </c>
       <c r="H53" t="n">
-        <v>28.9</v>
+        <v>21.7</v>
       </c>
       <c r="I53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K53" t="n">
         <v>0.4</v>
@@ -2473,31 +2473,31 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B54" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D54" t="n">
         <v>0.6</v>
       </c>
       <c r="E54" t="n">
-        <v>38.8</v>
+        <v>39.1</v>
       </c>
       <c r="F54" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>94</v>
+        <v>51.1</v>
       </c>
       <c r="H54" t="n">
-        <v>30.3</v>
+        <v>19.1</v>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J54" t="n">
         <v>0.8</v>
@@ -2511,31 +2511,31 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C55" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E55" t="n">
-        <v>41.3</v>
+        <v>37.7</v>
       </c>
       <c r="F55" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="G55" t="n">
-        <v>95.7</v>
+        <v>50.1</v>
       </c>
       <c r="H55" t="n">
-        <v>30.5</v>
+        <v>18.3</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J55" t="n">
         <v>0.8</v>
@@ -2549,31 +2549,31 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D56" t="n">
         <v>0.6</v>
       </c>
       <c r="E56" t="n">
-        <v>39.2</v>
+        <v>39</v>
       </c>
       <c r="F56" t="n">
-        <v>6.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>96.09999999999999</v>
+        <v>52.6</v>
       </c>
       <c r="H56" t="n">
-        <v>29.5</v>
+        <v>17.6</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
         <v>0.9</v>
@@ -2587,34 +2587,34 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="n">
         <v>85</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E57" t="n">
-        <v>41.8</v>
+        <v>38.4</v>
       </c>
       <c r="F57" t="n">
-        <v>7.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>94.2</v>
+        <v>52.2</v>
       </c>
       <c r="H57" t="n">
-        <v>29.7</v>
+        <v>20.6</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K57" t="n">
         <v>0.4</v>
@@ -2625,31 +2625,31 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E58" t="n">
-        <v>39.3</v>
+        <v>40.7</v>
       </c>
       <c r="F58" t="n">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>96.09999999999999</v>
+        <v>51.3</v>
       </c>
       <c r="H58" t="n">
-        <v>30.2</v>
+        <v>18.6</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
         <v>0.9</v>
@@ -2663,31 +2663,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" t="n">
         <v>81</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E59" t="n">
-        <v>41.5</v>
+        <v>36.8</v>
       </c>
       <c r="F59" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="G59" t="n">
-        <v>96.3</v>
+        <v>52.8</v>
       </c>
       <c r="H59" t="n">
-        <v>30.2</v>
+        <v>21.5</v>
       </c>
       <c r="I59" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
         <v>0.9</v>
@@ -2701,31 +2701,31 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>40.4</v>
+        <v>41.2</v>
       </c>
       <c r="F60" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>93.59999999999999</v>
+        <v>51.8</v>
       </c>
       <c r="H60" t="n">
-        <v>30.9</v>
+        <v>20.1</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
         <v>0.9</v>
@@ -2739,34 +2739,34 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B61" t="n">
         <v>25</v>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D61" t="n">
         <v>0.6</v>
       </c>
       <c r="E61" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="G61" t="n">
-        <v>94</v>
+        <v>52.6</v>
       </c>
       <c r="H61" t="n">
-        <v>30.4</v>
+        <v>20.7</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K61" t="n">
         <v>0.4</v>
@@ -2777,34 +2777,34 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C62" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E62" t="n">
-        <v>41.2</v>
+        <v>39</v>
       </c>
       <c r="F62" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="G62" t="n">
-        <v>94.5</v>
+        <v>52.4</v>
       </c>
       <c r="H62" t="n">
-        <v>29.1</v>
+        <v>19.4</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K62" t="n">
         <v>0.4</v>
@@ -2815,34 +2815,34 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D63" t="n">
         <v>0.6</v>
       </c>
       <c r="E63" t="n">
-        <v>40</v>
+        <v>41.4</v>
       </c>
       <c r="F63" t="n">
-        <v>7.1</v>
+        <v>8.9</v>
       </c>
       <c r="G63" t="n">
-        <v>95.09999999999999</v>
+        <v>53.5</v>
       </c>
       <c r="H63" t="n">
-        <v>32.4</v>
+        <v>20.4</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K63" t="n">
         <v>0.4</v>
@@ -2853,31 +2853,31 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E64" t="n">
-        <v>41.5</v>
+        <v>37.4</v>
       </c>
       <c r="F64" t="n">
-        <v>7.5</v>
+        <v>9.4</v>
       </c>
       <c r="G64" t="n">
-        <v>94.8</v>
+        <v>51.7</v>
       </c>
       <c r="H64" t="n">
-        <v>29.6</v>
+        <v>17.9</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J64" t="n">
         <v>0.9</v>
@@ -2891,10 +2891,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B65" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C65" t="n">
         <v>81</v>
@@ -2903,22 +2903,22 @@
         <v>0.6</v>
       </c>
       <c r="E65" t="n">
-        <v>37.9</v>
+        <v>41.7</v>
       </c>
       <c r="F65" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>96.90000000000001</v>
+        <v>50.9</v>
       </c>
       <c r="H65" t="n">
-        <v>30.7</v>
+        <v>19.6</v>
       </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K65" t="n">
         <v>0.4</v>
@@ -2929,34 +2929,34 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B66" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E66" t="n">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="F66" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="G66" t="n">
-        <v>95</v>
+        <v>50.3</v>
       </c>
       <c r="H66" t="n">
-        <v>29.3</v>
+        <v>21.2</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K66" t="n">
         <v>0.4</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B67" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C67" t="n">
         <v>84</v>
@@ -2979,19 +2979,19 @@
         <v>0.6</v>
       </c>
       <c r="E67" t="n">
-        <v>39.4</v>
+        <v>40.9</v>
       </c>
       <c r="F67" t="n">
-        <v>7.1</v>
+        <v>9.4</v>
       </c>
       <c r="G67" t="n">
-        <v>95.40000000000001</v>
+        <v>50.9</v>
       </c>
       <c r="H67" t="n">
-        <v>30.7</v>
+        <v>19.6</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
         <v>0.8</v>
@@ -3005,31 +3005,31 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B68" t="n">
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" t="n">
         <v>0.6</v>
       </c>
       <c r="E68" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="F68" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>94.09999999999999</v>
+        <v>51.2</v>
       </c>
       <c r="H68" t="n">
-        <v>29.7</v>
+        <v>21.1</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J68" t="n">
         <v>0.8</v>
@@ -3043,31 +3043,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D69" t="n">
         <v>0.6</v>
       </c>
       <c r="E69" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="F69" t="n">
-        <v>7.2</v>
+        <v>8.9</v>
       </c>
       <c r="G69" t="n">
-        <v>96.2</v>
+        <v>51</v>
       </c>
       <c r="H69" t="n">
-        <v>28.9</v>
+        <v>20.2</v>
       </c>
       <c r="I69" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>0.8</v>
@@ -3081,34 +3081,34 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B70" t="n">
         <v>23</v>
       </c>
       <c r="C70" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" t="n">
         <v>0.6</v>
       </c>
       <c r="E70" t="n">
-        <v>39.6</v>
+        <v>40.8</v>
       </c>
       <c r="F70" t="n">
-        <v>7.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>95.8</v>
+        <v>51.3</v>
       </c>
       <c r="H70" t="n">
-        <v>29.5</v>
+        <v>20.4</v>
       </c>
       <c r="I70" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K70" t="n">
         <v>0.4</v>
@@ -3119,34 +3119,34 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B71" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D71" t="n">
         <v>0.6</v>
       </c>
       <c r="E71" t="n">
-        <v>42.3</v>
+        <v>38.3</v>
       </c>
       <c r="F71" t="n">
-        <v>6.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>94.90000000000001</v>
+        <v>51.2</v>
       </c>
       <c r="H71" t="n">
-        <v>27.7</v>
+        <v>19</v>
       </c>
       <c r="I71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K71" t="n">
         <v>0.4</v>
@@ -3157,31 +3157,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B72" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E72" t="n">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="F72" t="n">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="G72" t="n">
-        <v>94.90000000000001</v>
+        <v>51.2</v>
       </c>
       <c r="H72" t="n">
-        <v>30.2</v>
+        <v>19.6</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
         <v>0.8</v>
@@ -3195,31 +3195,31 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B73" t="n">
         <v>25</v>
       </c>
       <c r="C73" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D73" t="n">
         <v>0.6</v>
       </c>
       <c r="E73" t="n">
-        <v>39.5</v>
+        <v>37.8</v>
       </c>
       <c r="F73" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="G73" t="n">
-        <v>95.3</v>
+        <v>49.8</v>
       </c>
       <c r="H73" t="n">
-        <v>30</v>
+        <v>21.6</v>
       </c>
       <c r="I73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J73" t="n">
         <v>0.9</v>
@@ -3233,31 +3233,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D74" t="n">
         <v>0.6</v>
       </c>
       <c r="E74" t="n">
-        <v>40.6</v>
+        <v>36.9</v>
       </c>
       <c r="F74" t="n">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="G74" t="n">
-        <v>95.40000000000001</v>
+        <v>51</v>
       </c>
       <c r="H74" t="n">
-        <v>30</v>
+        <v>20.6</v>
       </c>
       <c r="I74" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J74" t="n">
         <v>0.8</v>
@@ -3271,31 +3271,31 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D75" t="n">
         <v>0.6</v>
       </c>
       <c r="E75" t="n">
-        <v>40.2</v>
+        <v>41.7</v>
       </c>
       <c r="F75" t="n">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>94.40000000000001</v>
+        <v>52</v>
       </c>
       <c r="H75" t="n">
-        <v>27.6</v>
+        <v>19.8</v>
       </c>
       <c r="I75" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J75" t="n">
         <v>0.9</v>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B76" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D76" t="n">
         <v>0.6</v>
@@ -3324,16 +3324,16 @@
         <v>42.3</v>
       </c>
       <c r="F76" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="G76" t="n">
-        <v>96</v>
+        <v>49.4</v>
       </c>
       <c r="H76" t="n">
-        <v>30.4</v>
+        <v>19.4</v>
       </c>
       <c r="I76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J76" t="n">
         <v>0.9</v>
@@ -3347,31 +3347,31 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B77" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E77" t="n">
-        <v>38.6</v>
+        <v>39.9</v>
       </c>
       <c r="F77" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>97.5</v>
+        <v>52.7</v>
       </c>
       <c r="H77" t="n">
-        <v>31.1</v>
+        <v>19.7</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J77" t="n">
         <v>0.8</v>
@@ -3385,28 +3385,28 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B78" t="n">
         <v>25</v>
       </c>
       <c r="C78" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D78" t="n">
         <v>0.6</v>
       </c>
       <c r="E78" t="n">
-        <v>39.9</v>
+        <v>40.6</v>
       </c>
       <c r="F78" t="n">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="G78" t="n">
-        <v>94.90000000000001</v>
+        <v>50.5</v>
       </c>
       <c r="H78" t="n">
-        <v>30.9</v>
+        <v>19.7</v>
       </c>
       <c r="I78" t="n">
         <v>15</v>
@@ -3423,34 +3423,34 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C79" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E79" t="n">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="F79" t="n">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="G79" t="n">
-        <v>96.8</v>
+        <v>50.9</v>
       </c>
       <c r="H79" t="n">
-        <v>28.4</v>
+        <v>20.7</v>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K79" t="n">
         <v>0.4</v>
@@ -3461,34 +3461,34 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B80" t="n">
         <v>24</v>
       </c>
       <c r="C80" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E80" t="n">
-        <v>38.6</v>
+        <v>36.4</v>
       </c>
       <c r="F80" t="n">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="G80" t="n">
-        <v>97.3</v>
+        <v>50.1</v>
       </c>
       <c r="H80" t="n">
-        <v>29.8</v>
+        <v>20</v>
       </c>
       <c r="I80" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K80" t="n">
         <v>0.4</v>
@@ -3499,31 +3499,31 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B81" t="n">
         <v>24</v>
       </c>
       <c r="C81" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D81" t="n">
         <v>0.6</v>
       </c>
       <c r="E81" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="F81" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>95.7</v>
+        <v>51.8</v>
       </c>
       <c r="H81" t="n">
-        <v>31</v>
+        <v>20.1</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J81" t="n">
         <v>0.8</v>
@@ -3537,34 +3537,34 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B82" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D82" t="n">
         <v>0.5</v>
       </c>
       <c r="E82" t="n">
-        <v>36.1</v>
+        <v>38.8</v>
       </c>
       <c r="F82" t="n">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="G82" t="n">
-        <v>94.7</v>
+        <v>51.5</v>
       </c>
       <c r="H82" t="n">
-        <v>30.3</v>
+        <v>20.4</v>
       </c>
       <c r="I82" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K82" t="n">
         <v>0.4</v>
@@ -3575,31 +3575,31 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B83" t="n">
         <v>24</v>
       </c>
       <c r="C83" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" t="n">
         <v>0.7</v>
       </c>
       <c r="E83" t="n">
-        <v>41.1</v>
+        <v>42.6</v>
       </c>
       <c r="F83" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>95.3</v>
+        <v>53</v>
       </c>
       <c r="H83" t="n">
-        <v>29</v>
+        <v>20.8</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
         <v>0.8</v>
@@ -3613,34 +3613,34 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B84" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E84" t="n">
-        <v>38.4</v>
+        <v>40.8</v>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="G84" t="n">
-        <v>93.40000000000001</v>
+        <v>51.1</v>
       </c>
       <c r="H84" t="n">
-        <v>29.5</v>
+        <v>19.8</v>
       </c>
       <c r="I84" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K84" t="n">
         <v>0.4</v>
@@ -3651,31 +3651,31 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B85" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C85" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E85" t="n">
-        <v>38.6</v>
+        <v>44.3</v>
       </c>
       <c r="F85" t="n">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="G85" t="n">
-        <v>95.5</v>
+        <v>53</v>
       </c>
       <c r="H85" t="n">
-        <v>30.5</v>
+        <v>18.4</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J85" t="n">
         <v>0.9</v>
@@ -3689,34 +3689,34 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B86" t="n">
         <v>23</v>
       </c>
       <c r="C86" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D86" t="n">
         <v>0.5</v>
       </c>
       <c r="E86" t="n">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="F86" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>95</v>
+        <v>51.9</v>
       </c>
       <c r="H86" t="n">
-        <v>29.7</v>
+        <v>21.2</v>
       </c>
       <c r="I86" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J86" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K86" t="n">
         <v>0.4</v>
@@ -3727,34 +3727,34 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B87" t="n">
         <v>24</v>
       </c>
       <c r="C87" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D87" t="n">
         <v>0.6</v>
       </c>
       <c r="E87" t="n">
-        <v>39.3</v>
+        <v>42.9</v>
       </c>
       <c r="F87" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>95.8</v>
+        <v>52.4</v>
       </c>
       <c r="H87" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K87" t="n">
         <v>0.4</v>
@@ -3765,31 +3765,31 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B88" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D88" t="n">
         <v>0.6</v>
       </c>
       <c r="E88" t="n">
-        <v>39.3</v>
+        <v>40.8</v>
       </c>
       <c r="F88" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>95.3</v>
+        <v>52.6</v>
       </c>
       <c r="H88" t="n">
-        <v>31.6</v>
+        <v>20.8</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
         <v>0.8</v>
@@ -3803,31 +3803,31 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B89" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C89" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E89" t="n">
-        <v>40.4</v>
+        <v>37.5</v>
       </c>
       <c r="F89" t="n">
-        <v>7.3</v>
+        <v>9.1</v>
       </c>
       <c r="G89" t="n">
-        <v>95.09999999999999</v>
+        <v>51.8</v>
       </c>
       <c r="H89" t="n">
-        <v>31.8</v>
+        <v>19.7</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
         <v>0.9</v>
@@ -3841,31 +3841,31 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B90" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C90" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E90" t="n">
-        <v>36.5</v>
+        <v>40.8</v>
       </c>
       <c r="F90" t="n">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>93.7</v>
+        <v>51.2</v>
       </c>
       <c r="H90" t="n">
-        <v>28.7</v>
+        <v>21.1</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J90" t="n">
         <v>0.8</v>
@@ -3879,34 +3879,34 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D91" t="n">
         <v>0.6</v>
       </c>
       <c r="E91" t="n">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="F91" t="n">
-        <v>6.9</v>
+        <v>9.1</v>
       </c>
       <c r="G91" t="n">
-        <v>95.09999999999999</v>
+        <v>51.1</v>
       </c>
       <c r="H91" t="n">
-        <v>30.3</v>
+        <v>19.5</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K91" t="n">
         <v>0.4</v>
@@ -3917,31 +3917,31 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B92" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C92" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D92" t="n">
         <v>0.6</v>
       </c>
       <c r="E92" t="n">
-        <v>38.6</v>
+        <v>41.1</v>
       </c>
       <c r="F92" t="n">
-        <v>7.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>97.7</v>
+        <v>50.9</v>
       </c>
       <c r="H92" t="n">
-        <v>30.1</v>
+        <v>20.6</v>
       </c>
       <c r="I92" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
         <v>0.8</v>
@@ -3955,34 +3955,34 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E93" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="F93" t="n">
-        <v>6.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>96.8</v>
+        <v>49.9</v>
       </c>
       <c r="H93" t="n">
-        <v>29.7</v>
+        <v>18.7</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K93" t="n">
         <v>0.4</v>
@@ -3993,34 +3993,34 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B94" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E94" t="n">
-        <v>37.3</v>
+        <v>39.8</v>
       </c>
       <c r="F94" t="n">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="G94" t="n">
-        <v>94.8</v>
+        <v>51.9</v>
       </c>
       <c r="H94" t="n">
-        <v>31.8</v>
+        <v>21.1</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K94" t="n">
         <v>0.4</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B95" t="n">
         <v>24</v>
@@ -4043,22 +4043,22 @@
         <v>0.6</v>
       </c>
       <c r="E95" t="n">
-        <v>37.4</v>
+        <v>42.6</v>
       </c>
       <c r="F95" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="G95" t="n">
-        <v>95.2</v>
+        <v>52.9</v>
       </c>
       <c r="H95" t="n">
-        <v>29.6</v>
+        <v>21.7</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J95" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K95" t="n">
         <v>0.4</v>
@@ -4069,34 +4069,34 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B96" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E96" t="n">
-        <v>41.9</v>
+        <v>41.1</v>
       </c>
       <c r="F96" t="n">
-        <v>7.4</v>
+        <v>9.1</v>
       </c>
       <c r="G96" t="n">
-        <v>95.7</v>
+        <v>51.9</v>
       </c>
       <c r="H96" t="n">
-        <v>29.5</v>
+        <v>20.4</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K96" t="n">
         <v>0.4</v>
@@ -4107,34 +4107,34 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B97" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E97" t="n">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>94.40000000000001</v>
+        <v>50.3</v>
       </c>
       <c r="H97" t="n">
-        <v>28.8</v>
+        <v>19.5</v>
       </c>
       <c r="I97" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J97" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K97" t="n">
         <v>0.4</v>
@@ -4145,31 +4145,31 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B98" t="n">
         <v>24</v>
       </c>
       <c r="C98" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E98" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="F98" t="n">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>94.7</v>
+        <v>50.9</v>
       </c>
       <c r="H98" t="n">
-        <v>29.5</v>
+        <v>20.3</v>
       </c>
       <c r="I98" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J98" t="n">
         <v>0.8</v>
@@ -4183,31 +4183,31 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B99" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C99" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
       </c>
       <c r="E99" t="n">
-        <v>39.3</v>
+        <v>42.3</v>
       </c>
       <c r="F99" t="n">
-        <v>7.4</v>
+        <v>8.9</v>
       </c>
       <c r="G99" t="n">
-        <v>93.8</v>
+        <v>51.3</v>
       </c>
       <c r="H99" t="n">
-        <v>29.9</v>
+        <v>19.8</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J99" t="n">
         <v>0.8</v>
@@ -4221,31 +4221,31 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B100" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C100" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E100" t="n">
-        <v>37.4</v>
+        <v>41.8</v>
       </c>
       <c r="F100" t="n">
-        <v>6.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>97.09999999999999</v>
+        <v>50.7</v>
       </c>
       <c r="H100" t="n">
-        <v>29.7</v>
+        <v>18.3</v>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J100" t="n">
         <v>0.8</v>
@@ -4259,39 +4259,3839 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
+        <v>61</v>
+      </c>
+      <c r="B101" t="n">
+        <v>24</v>
+      </c>
+      <c r="C101" t="n">
+        <v>80</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F101" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G101" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="H101" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>46</v>
+      </c>
+      <c r="B102" t="n">
+        <v>24</v>
+      </c>
+      <c r="C102" t="n">
+        <v>83</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>49</v>
+      </c>
+      <c r="B103" t="n">
+        <v>25</v>
+      </c>
+      <c r="C103" t="n">
+        <v>79</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="H103" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>49</v>
+      </c>
+      <c r="B104" t="n">
+        <v>24</v>
+      </c>
+      <c r="C104" t="n">
+        <v>82</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E104" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="H104" t="n">
+        <v>30</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>46</v>
+      </c>
+      <c r="B105" t="n">
+        <v>22</v>
+      </c>
+      <c r="C105" t="n">
+        <v>84</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="H105" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I105" t="n">
+        <v>12</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>48</v>
+      </c>
+      <c r="B106" t="n">
+        <v>24</v>
+      </c>
+      <c r="C106" t="n">
+        <v>81</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>96</v>
+      </c>
+      <c r="H106" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I106" t="n">
+        <v>6</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>46</v>
+      </c>
+      <c r="B107" t="n">
+        <v>25</v>
+      </c>
+      <c r="C107" t="n">
+        <v>82</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G107" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I107" t="n">
+        <v>5</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
         <v>47</v>
       </c>
-      <c r="B101" t="n">
-        <v>24</v>
-      </c>
-      <c r="C101" t="n">
+      <c r="B108" t="n">
+        <v>24</v>
+      </c>
+      <c r="C108" t="n">
         <v>83</v>
       </c>
-      <c r="D101" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E101" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="F101" t="n">
+      <c r="D108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E108" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>49</v>
+      </c>
+      <c r="B109" t="n">
+        <v>25</v>
+      </c>
+      <c r="C109" t="n">
+        <v>82</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>40</v>
+      </c>
+      <c r="F109" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G109" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="H109" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>48</v>
+      </c>
+      <c r="B110" t="n">
+        <v>23</v>
+      </c>
+      <c r="C110" t="n">
+        <v>84</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>38</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="H110" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I110" t="n">
+        <v>14</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>47</v>
+      </c>
+      <c r="B111" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" t="n">
+        <v>84</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>41</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G111" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="H111" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>47</v>
+      </c>
+      <c r="B112" t="n">
+        <v>25</v>
+      </c>
+      <c r="C112" t="n">
+        <v>82</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>47</v>
+      </c>
+      <c r="B113" t="n">
+        <v>24</v>
+      </c>
+      <c r="C113" t="n">
+        <v>84</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>41</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="H113" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I113" t="n">
+        <v>5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>48</v>
+      </c>
+      <c r="B114" t="n">
+        <v>25</v>
+      </c>
+      <c r="C114" t="n">
+        <v>81</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F114" t="n">
         <v>7</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G114" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>49</v>
+      </c>
+      <c r="B115" t="n">
+        <v>25</v>
+      </c>
+      <c r="C115" t="n">
+        <v>85</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>38</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I115" t="n">
+        <v>14</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>47</v>
+      </c>
+      <c r="B116" t="n">
+        <v>24</v>
+      </c>
+      <c r="C116" t="n">
+        <v>82</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>47</v>
+      </c>
+      <c r="B117" t="n">
+        <v>24</v>
+      </c>
+      <c r="C117" t="n">
+        <v>81</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>40</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7</v>
+      </c>
+      <c r="G117" t="n">
+        <v>96</v>
+      </c>
+      <c r="H117" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>47</v>
+      </c>
+      <c r="B118" t="n">
+        <v>24</v>
+      </c>
+      <c r="C118" t="n">
+        <v>84</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H118" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>47</v>
+      </c>
+      <c r="B119" t="n">
+        <v>23</v>
+      </c>
+      <c r="C119" t="n">
+        <v>82</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G119" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I119" t="n">
+        <v>11</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>47</v>
+      </c>
+      <c r="B120" t="n">
+        <v>24</v>
+      </c>
+      <c r="C120" t="n">
+        <v>82</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G120" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="H120" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>46</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>81</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G121" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>30</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>49</v>
+      </c>
+      <c r="B122" t="n">
+        <v>24</v>
+      </c>
+      <c r="C122" t="n">
+        <v>78</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>41</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G122" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>48</v>
+      </c>
+      <c r="B123" t="n">
+        <v>25</v>
+      </c>
+      <c r="C123" t="n">
+        <v>83</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G123" t="n">
+        <v>94</v>
+      </c>
+      <c r="H123" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>15</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>47</v>
+      </c>
+      <c r="B124" t="n">
+        <v>27</v>
+      </c>
+      <c r="C124" t="n">
+        <v>85</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="H124" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>11</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>47</v>
+      </c>
+      <c r="B125" t="n">
+        <v>24</v>
+      </c>
+      <c r="C125" t="n">
+        <v>85</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>41</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G125" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I125" t="n">
+        <v>14</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>47</v>
+      </c>
+      <c r="B126" t="n">
+        <v>24</v>
+      </c>
+      <c r="C126" t="n">
+        <v>78</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G126" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="H126" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I126" t="n">
+        <v>15</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>49</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25</v>
+      </c>
+      <c r="C127" t="n">
+        <v>80</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="H127" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>47</v>
+      </c>
+      <c r="B128" t="n">
+        <v>24</v>
+      </c>
+      <c r="C128" t="n">
+        <v>79</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G128" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I128" t="n">
+        <v>12</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>47</v>
+      </c>
+      <c r="B129" t="n">
+        <v>25</v>
+      </c>
+      <c r="C129" t="n">
+        <v>79</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G129" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>30</v>
+      </c>
+      <c r="I129" t="n">
+        <v>8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>49</v>
+      </c>
+      <c r="B130" t="n">
+        <v>24</v>
+      </c>
+      <c r="C130" t="n">
+        <v>85</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G130" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H130" t="n">
+        <v>31</v>
+      </c>
+      <c r="I130" t="n">
+        <v>13</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>46</v>
+      </c>
+      <c r="B131" t="n">
+        <v>23</v>
+      </c>
+      <c r="C131" t="n">
+        <v>85</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>95</v>
+      </c>
+      <c r="H131" t="n">
+        <v>30</v>
+      </c>
+      <c r="I131" t="n">
+        <v>8</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>48</v>
+      </c>
+      <c r="B132" t="n">
+        <v>24</v>
+      </c>
+      <c r="C132" t="n">
+        <v>79</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G132" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H132" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>45</v>
+      </c>
+      <c r="B133" t="n">
+        <v>24</v>
+      </c>
+      <c r="C133" t="n">
+        <v>83</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>47</v>
+      </c>
+      <c r="B134" t="n">
+        <v>24</v>
+      </c>
+      <c r="C134" t="n">
+        <v>79</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="H134" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I134" t="n">
+        <v>12</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>49</v>
+      </c>
+      <c r="B135" t="n">
+        <v>22</v>
+      </c>
+      <c r="C135" t="n">
+        <v>81</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8</v>
+      </c>
+      <c r="G135" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>47</v>
+      </c>
+      <c r="B136" t="n">
+        <v>23</v>
+      </c>
+      <c r="C136" t="n">
+        <v>80</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G136" t="n">
+        <v>97</v>
+      </c>
+      <c r="H136" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="I136" t="n">
+        <v>8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>48</v>
+      </c>
+      <c r="B137" t="n">
+        <v>24</v>
+      </c>
+      <c r="C137" t="n">
+        <v>81</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="I137" t="n">
+        <v>4</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>46</v>
+      </c>
+      <c r="B138" t="n">
+        <v>24</v>
+      </c>
+      <c r="C138" t="n">
+        <v>83</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>40</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>48</v>
+      </c>
+      <c r="B139" t="n">
+        <v>24</v>
+      </c>
+      <c r="C139" t="n">
+        <v>81</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>37</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G139" t="n">
         <v>95.8</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H139" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>6</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>47</v>
+      </c>
+      <c r="B140" t="n">
+        <v>24</v>
+      </c>
+      <c r="C140" t="n">
+        <v>81</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>42</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="H140" t="n">
+        <v>30</v>
+      </c>
+      <c r="I140" t="n">
+        <v>11</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>48</v>
+      </c>
+      <c r="B141" t="n">
+        <v>24</v>
+      </c>
+      <c r="C141" t="n">
+        <v>83</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G141" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I141" t="n">
+        <v>5</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>47</v>
+      </c>
+      <c r="B142" t="n">
+        <v>24</v>
+      </c>
+      <c r="C142" t="n">
+        <v>80</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>7</v>
+      </c>
+      <c r="G142" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>47</v>
+      </c>
+      <c r="B143" t="n">
+        <v>24</v>
+      </c>
+      <c r="C143" t="n">
+        <v>82</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>47</v>
+      </c>
+      <c r="B144" t="n">
+        <v>24</v>
+      </c>
+      <c r="C144" t="n">
+        <v>82</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="H144" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I144" t="n">
+        <v>15</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>46</v>
+      </c>
+      <c r="B145" t="n">
+        <v>23</v>
+      </c>
+      <c r="C145" t="n">
+        <v>83</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G145" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I145" t="n">
+        <v>13</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>46</v>
+      </c>
+      <c r="B146" t="n">
+        <v>24</v>
+      </c>
+      <c r="C146" t="n">
+        <v>85</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G146" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I146" t="n">
+        <v>9</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>48</v>
+      </c>
+      <c r="B147" t="n">
+        <v>24</v>
+      </c>
+      <c r="C147" t="n">
+        <v>84</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>40</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G147" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="I147" t="n">
+        <v>12</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>47</v>
+      </c>
+      <c r="B148" t="n">
+        <v>24</v>
+      </c>
+      <c r="C148" t="n">
+        <v>80</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I148" t="n">
+        <v>13</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>47</v>
+      </c>
+      <c r="B149" t="n">
+        <v>24</v>
+      </c>
+      <c r="C149" t="n">
+        <v>82</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G149" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="H149" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I149" t="n">
+        <v>8</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>46</v>
+      </c>
+      <c r="B150" t="n">
+        <v>24</v>
+      </c>
+      <c r="C150" t="n">
+        <v>85</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>39</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G150" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I150" t="n">
+        <v>14</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>46</v>
+      </c>
+      <c r="B151" t="n">
+        <v>23</v>
+      </c>
+      <c r="C151" t="n">
+        <v>81</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G151" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>31</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>48</v>
+      </c>
+      <c r="B152" t="n">
+        <v>25</v>
+      </c>
+      <c r="C152" t="n">
+        <v>82</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G152" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="I152" t="n">
+        <v>13</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>49</v>
+      </c>
+      <c r="B153" t="n">
+        <v>25</v>
+      </c>
+      <c r="C153" t="n">
+        <v>82</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G153" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H153" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I153" t="n">
+        <v>15</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>45</v>
+      </c>
+      <c r="B154" t="n">
+        <v>26</v>
+      </c>
+      <c r="C154" t="n">
+        <v>85</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G154" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="H154" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I154" t="n">
+        <v>14</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>47</v>
+      </c>
+      <c r="B155" t="n">
+        <v>24</v>
+      </c>
+      <c r="C155" t="n">
+        <v>83</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G155" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>31</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>48</v>
+      </c>
+      <c r="B156" t="n">
+        <v>22</v>
+      </c>
+      <c r="C156" t="n">
+        <v>79</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G156" t="n">
+        <v>94</v>
+      </c>
+      <c r="H156" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="I156" t="n">
+        <v>7</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>50</v>
+      </c>
+      <c r="B157" t="n">
+        <v>25</v>
+      </c>
+      <c r="C157" t="n">
+        <v>79</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G157" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="I157" t="n">
+        <v>10</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>48</v>
+      </c>
+      <c r="B158" t="n">
+        <v>24</v>
+      </c>
+      <c r="C158" t="n">
+        <v>83</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G158" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H158" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>49</v>
+      </c>
+      <c r="B159" t="n">
+        <v>25</v>
+      </c>
+      <c r="C159" t="n">
+        <v>80</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="H159" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>47</v>
+      </c>
+      <c r="B160" t="n">
+        <v>22</v>
+      </c>
+      <c r="C160" t="n">
+        <v>83</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>30</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>48</v>
+      </c>
+      <c r="B161" t="n">
+        <v>23</v>
+      </c>
+      <c r="C161" t="n">
+        <v>86</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G161" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="I161" t="n">
+        <v>10</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>49</v>
+      </c>
+      <c r="B162" t="n">
+        <v>22</v>
+      </c>
+      <c r="C162" t="n">
+        <v>82</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>7</v>
+      </c>
+      <c r="G162" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H162" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>46</v>
+      </c>
+      <c r="B163" t="n">
+        <v>26</v>
+      </c>
+      <c r="C163" t="n">
+        <v>82</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7</v>
+      </c>
+      <c r="G163" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="H163" t="n">
+        <v>30</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>46</v>
+      </c>
+      <c r="B164" t="n">
+        <v>23</v>
+      </c>
+      <c r="C164" t="n">
+        <v>81</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E164" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G164" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="H164" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="I164" t="n">
+        <v>14</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>49</v>
+      </c>
+      <c r="B165" t="n">
+        <v>26</v>
+      </c>
+      <c r="C165" t="n">
+        <v>79</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E165" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G165" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I165" t="n">
+        <v>14</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>47</v>
+      </c>
+      <c r="B166" t="n">
+        <v>24</v>
+      </c>
+      <c r="C166" t="n">
+        <v>80</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G166" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="H166" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>48</v>
+      </c>
+      <c r="B167" t="n">
+        <v>25</v>
+      </c>
+      <c r="C167" t="n">
+        <v>79</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G167" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I167" t="n">
+        <v>11</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>46</v>
+      </c>
+      <c r="B168" t="n">
+        <v>24</v>
+      </c>
+      <c r="C168" t="n">
+        <v>83</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G168" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="H168" t="n">
         <v>30.4</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I168" t="n">
+        <v>3</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>47</v>
+      </c>
+      <c r="B169" t="n">
+        <v>23</v>
+      </c>
+      <c r="C169" t="n">
+        <v>83</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I169" t="n">
+        <v>8</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>47</v>
+      </c>
+      <c r="B170" t="n">
+        <v>24</v>
+      </c>
+      <c r="C170" t="n">
+        <v>84</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G170" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="H170" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I170" t="n">
+        <v>10</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>47</v>
+      </c>
+      <c r="B171" t="n">
+        <v>26</v>
+      </c>
+      <c r="C171" t="n">
+        <v>82</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G171" t="n">
+        <v>96</v>
+      </c>
+      <c r="H171" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I171" t="n">
+        <v>15</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>47</v>
+      </c>
+      <c r="B172" t="n">
+        <v>23</v>
+      </c>
+      <c r="C172" t="n">
+        <v>81</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H172" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>46</v>
+      </c>
+      <c r="B173" t="n">
+        <v>24</v>
+      </c>
+      <c r="C173" t="n">
+        <v>83</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="H173" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I173" t="n">
+        <v>8</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>47</v>
+      </c>
+      <c r="B174" t="n">
+        <v>24</v>
+      </c>
+      <c r="C174" t="n">
+        <v>81</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>38</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G174" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I174" t="n">
+        <v>4</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>46</v>
+      </c>
+      <c r="B175" t="n">
+        <v>24</v>
+      </c>
+      <c r="C175" t="n">
+        <v>80</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>42</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G175" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I175" t="n">
+        <v>11</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>47</v>
+      </c>
+      <c r="B176" t="n">
+        <v>25</v>
+      </c>
+      <c r="C176" t="n">
+        <v>79</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E176" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="H176" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L101" t="n">
+      <c r="J176" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>47</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27</v>
+      </c>
+      <c r="C177" t="n">
+        <v>81</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F177" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G177" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="H177" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>9</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>46</v>
+      </c>
+      <c r="B178" t="n">
+        <v>25</v>
+      </c>
+      <c r="C178" t="n">
+        <v>82</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E178" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I178" t="n">
+        <v>11</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>46</v>
+      </c>
+      <c r="B179" t="n">
+        <v>22</v>
+      </c>
+      <c r="C179" t="n">
+        <v>85</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E179" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G179" t="n">
+        <v>97</v>
+      </c>
+      <c r="H179" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I179" t="n">
+        <v>6</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>45</v>
+      </c>
+      <c r="B180" t="n">
+        <v>21</v>
+      </c>
+      <c r="C180" t="n">
+        <v>82</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G180" t="n">
+        <v>96</v>
+      </c>
+      <c r="H180" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>47</v>
+      </c>
+      <c r="B181" t="n">
+        <v>24</v>
+      </c>
+      <c r="C181" t="n">
+        <v>81</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G181" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>48</v>
+      </c>
+      <c r="B182" t="n">
+        <v>24</v>
+      </c>
+      <c r="C182" t="n">
+        <v>86</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G182" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>47</v>
+      </c>
+      <c r="B183" t="n">
+        <v>23</v>
+      </c>
+      <c r="C183" t="n">
+        <v>82</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E183" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G183" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I183" t="n">
+        <v>11</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>49</v>
+      </c>
+      <c r="B184" t="n">
+        <v>24</v>
+      </c>
+      <c r="C184" t="n">
+        <v>81</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G184" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>47</v>
+      </c>
+      <c r="B185" t="n">
+        <v>24</v>
+      </c>
+      <c r="C185" t="n">
+        <v>83</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>30</v>
+      </c>
+      <c r="I185" t="n">
+        <v>14</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>47</v>
+      </c>
+      <c r="B186" t="n">
+        <v>23</v>
+      </c>
+      <c r="C186" t="n">
+        <v>83</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G186" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I186" t="n">
+        <v>7</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>47</v>
+      </c>
+      <c r="B187" t="n">
+        <v>25</v>
+      </c>
+      <c r="C187" t="n">
+        <v>85</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="H187" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="I187" t="n">
+        <v>10</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>46</v>
+      </c>
+      <c r="B188" t="n">
+        <v>24</v>
+      </c>
+      <c r="C188" t="n">
+        <v>84</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7</v>
+      </c>
+      <c r="G188" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="I188" t="n">
+        <v>14</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>47</v>
+      </c>
+      <c r="B189" t="n">
+        <v>23</v>
+      </c>
+      <c r="C189" t="n">
+        <v>84</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G189" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="H189" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I189" t="n">
+        <v>7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>47</v>
+      </c>
+      <c r="B190" t="n">
+        <v>23</v>
+      </c>
+      <c r="C190" t="n">
+        <v>81</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G190" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="H190" t="n">
+        <v>30</v>
+      </c>
+      <c r="I190" t="n">
+        <v>4</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>46</v>
+      </c>
+      <c r="B191" t="n">
+        <v>24</v>
+      </c>
+      <c r="C191" t="n">
+        <v>81</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>40</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G191" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="H191" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I191" t="n">
+        <v>10</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>48</v>
+      </c>
+      <c r="B192" t="n">
+        <v>26</v>
+      </c>
+      <c r="C192" t="n">
+        <v>82</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E192" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>45</v>
+      </c>
+      <c r="B193" t="n">
+        <v>23</v>
+      </c>
+      <c r="C193" t="n">
+        <v>84</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G193" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="H193" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>47</v>
+      </c>
+      <c r="B194" t="n">
+        <v>22</v>
+      </c>
+      <c r="C194" t="n">
+        <v>80</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E194" t="n">
+        <v>43</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7</v>
+      </c>
+      <c r="G194" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="H194" t="n">
+        <v>29</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>47</v>
+      </c>
+      <c r="B195" t="n">
+        <v>23</v>
+      </c>
+      <c r="C195" t="n">
+        <v>83</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="F195" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G195" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>49</v>
+      </c>
+      <c r="B196" t="n">
+        <v>23</v>
+      </c>
+      <c r="C196" t="n">
+        <v>82</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="H196" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I196" t="n">
+        <v>7</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>47</v>
+      </c>
+      <c r="B197" t="n">
+        <v>23</v>
+      </c>
+      <c r="C197" t="n">
+        <v>83</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G197" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="H197" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I197" t="n">
+        <v>9</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>48</v>
+      </c>
+      <c r="B198" t="n">
+        <v>24</v>
+      </c>
+      <c r="C198" t="n">
+        <v>82</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7</v>
+      </c>
+      <c r="G198" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="H198" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I198" t="n">
+        <v>15</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>48</v>
+      </c>
+      <c r="B199" t="n">
+        <v>24</v>
+      </c>
+      <c r="C199" t="n">
+        <v>83</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G199" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="H199" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>49</v>
+      </c>
+      <c r="B200" t="n">
+        <v>23</v>
+      </c>
+      <c r="C200" t="n">
+        <v>84</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G200" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="H200" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="I200" t="n">
+        <v>4</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>47</v>
+      </c>
+      <c r="B201" t="n">
+        <v>24</v>
+      </c>
+      <c r="C201" t="n">
+        <v>80</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E201" t="n">
+        <v>40</v>
+      </c>
+      <c r="F201" t="n">
+        <v>7</v>
+      </c>
+      <c r="G201" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="H201" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="I201" t="n">
+        <v>7</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L201" t="n">
         <v>0.9</v>
       </c>
     </row>
